--- a/BackTest/2019-10-21 BackTest INS.xlsx
+++ b/BackTest/2019-10-21 BackTest INS.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>3</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>100</v>
+      </c>
       <c r="L12" t="n">
         <v>234.6</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>4</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>100</v>
+      </c>
       <c r="L13" t="n">
         <v>235</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>5</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>100</v>
+      </c>
       <c r="L14" t="n">
         <v>235.5</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>5</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>100</v>
+      </c>
       <c r="L15" t="n">
         <v>236</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>6</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>66.66666666666666</v>
+      </c>
       <c r="L16" t="n">
         <v>236.4</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>10</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
       <c r="L17" t="n">
         <v>236.4</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>14</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>28.57142857142857</v>
+      </c>
       <c r="L18" t="n">
         <v>236.8</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>15</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>14.28571428571428</v>
+      </c>
       <c r="L19" t="n">
         <v>237.1</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>16</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>14.28571428571428</v>
+      </c>
       <c r="L20" t="n">
         <v>237.4</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>16</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>7.692307692307693</v>
+      </c>
       <c r="L21" t="n">
         <v>237.6</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>16</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
       <c r="L22" t="n">
         <v>237.7</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>16</v>
       </c>
       <c r="K23" t="n">
-        <v>25</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L23" t="n">
         <v>237.7</v>
@@ -1466,7 +1488,7 @@
         <v>17</v>
       </c>
       <c r="K24" t="n">
-        <v>29.41176470588236</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>237.7</v>
@@ -1515,7 +1537,7 @@
         <v>17</v>
       </c>
       <c r="K25" t="n">
-        <v>29.41176470588236</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L25" t="n">
         <v>237.7</v>
@@ -1564,7 +1586,7 @@
         <v>17</v>
       </c>
       <c r="K26" t="n">
-        <v>29.41176470588236</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L26" t="n">
         <v>237.8</v>
@@ -1613,7 +1635,7 @@
         <v>17</v>
       </c>
       <c r="K27" t="n">
-        <v>29.41176470588236</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L27" t="n">
         <v>238.3</v>
@@ -1662,7 +1684,7 @@
         <v>17</v>
       </c>
       <c r="K28" t="n">
-        <v>29.41176470588236</v>
+        <v>100</v>
       </c>
       <c r="L28" t="n">
         <v>238.4</v>
@@ -1711,7 +1733,7 @@
         <v>17</v>
       </c>
       <c r="K29" t="n">
-        <v>29.41176470588236</v>
+        <v>100</v>
       </c>
       <c r="L29" t="n">
         <v>238.6</v>
@@ -1760,7 +1782,7 @@
         <v>18</v>
       </c>
       <c r="K30" t="n">
-        <v>17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>238.6</v>
@@ -1809,7 +1831,7 @@
         <v>19</v>
       </c>
       <c r="K31" t="n">
-        <v>17.64705882352941</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L31" t="n">
         <v>238.7</v>
@@ -1860,7 +1882,7 @@
         <v>19</v>
       </c>
       <c r="K32" t="n">
-        <v>12.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L32" t="n">
         <v>238.8</v>
@@ -1911,7 +1933,7 @@
         <v>20</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L33" t="n">
         <v>238.8</v>
@@ -1962,7 +1984,7 @@
         <v>20</v>
       </c>
       <c r="K34" t="n">
-        <v>-6.666666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L34" t="n">
         <v>238.7</v>
@@ -2013,7 +2035,7 @@
         <v>22</v>
       </c>
       <c r="K35" t="n">
-        <v>5.88235294117647</v>
+        <v>20</v>
       </c>
       <c r="L35" t="n">
         <v>238.8</v>
@@ -2064,7 +2086,7 @@
         <v>22</v>
       </c>
       <c r="K36" t="n">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="L36" t="n">
         <v>238.9</v>
@@ -2115,7 +2137,7 @@
         <v>22</v>
       </c>
       <c r="K37" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L37" t="n">
         <v>239</v>
@@ -2166,7 +2188,7 @@
         <v>28</v>
       </c>
       <c r="K38" t="n">
-        <v>-28.57142857142857</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L38" t="n">
         <v>238.5</v>
@@ -2217,7 +2239,7 @@
         <v>31</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L39" t="n">
         <v>238.3</v>
@@ -2268,7 +2290,7 @@
         <v>31</v>
       </c>
       <c r="K40" t="n">
-        <v>-6.666666666666667</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L40" t="n">
         <v>238.2</v>
@@ -2319,7 +2341,7 @@
         <v>34</v>
       </c>
       <c r="K41" t="n">
-        <v>11.11111111111111</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L41" t="n">
         <v>238.3</v>
@@ -2370,7 +2392,7 @@
         <v>39</v>
       </c>
       <c r="K42" t="n">
-        <v>-13.04347826086956</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L42" t="n">
         <v>237.9</v>
@@ -2472,7 +2494,7 @@
         <v>45</v>
       </c>
       <c r="K44" t="n">
-        <v>7.142857142857142</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L44" t="n">
         <v>238.2</v>
@@ -2523,7 +2545,7 @@
         <v>45</v>
       </c>
       <c r="K45" t="n">
-        <v>7.142857142857142</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L45" t="n">
         <v>238.3</v>
@@ -2574,7 +2596,7 @@
         <v>46</v>
       </c>
       <c r="K46" t="n">
-        <v>10.3448275862069</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L46" t="n">
         <v>238.5</v>
@@ -2625,7 +2647,7 @@
         <v>47</v>
       </c>
       <c r="K47" t="n">
-        <v>13.33333333333333</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L47" t="n">
         <v>238.8</v>
@@ -2676,7 +2698,7 @@
         <v>51</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L48" t="n">
         <v>239.3</v>
@@ -2727,7 +2749,7 @@
         <v>54</v>
       </c>
       <c r="K49" t="n">
-        <v>-8.108108108108109</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L49" t="n">
         <v>239.2</v>
@@ -2778,7 +2800,7 @@
         <v>56</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L50" t="n">
         <v>239.3</v>
@@ -2829,7 +2851,7 @@
         <v>57</v>
       </c>
       <c r="K51" t="n">
-        <v>-5.263157894736842</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L51" t="n">
         <v>239</v>
@@ -2880,7 +2902,7 @@
         <v>57</v>
       </c>
       <c r="K52" t="n">
-        <v>-5.263157894736842</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L52" t="n">
         <v>239.2</v>
@@ -2931,7 +2953,7 @@
         <v>58</v>
       </c>
       <c r="K53" t="n">
-        <v>-5.263157894736842</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L53" t="n">
         <v>239</v>
@@ -2982,7 +3004,7 @@
         <v>60</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L54" t="n">
         <v>238.7</v>
@@ -3033,7 +3055,7 @@
         <v>62</v>
       </c>
       <c r="K55" t="n">
-        <v>-10</v>
+        <v>-37.5</v>
       </c>
       <c r="L55" t="n">
         <v>238.2</v>
@@ -3084,7 +3106,7 @@
         <v>64</v>
       </c>
       <c r="K56" t="n">
-        <v>-14.28571428571428</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L56" t="n">
         <v>237.4</v>
@@ -3135,7 +3157,7 @@
         <v>64</v>
       </c>
       <c r="K57" t="n">
-        <v>-14.28571428571428</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L57" t="n">
         <v>236.5</v>
@@ -3186,7 +3208,7 @@
         <v>64</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L58" t="n">
         <v>236</v>
@@ -3237,7 +3259,7 @@
         <v>64</v>
       </c>
       <c r="K59" t="n">
-        <v>-9.090909090909092</v>
+        <v>-50</v>
       </c>
       <c r="L59" t="n">
         <v>235.8</v>
@@ -3288,7 +3310,7 @@
         <v>68</v>
       </c>
       <c r="K60" t="n">
-        <v>2.702702702702703</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L60" t="n">
         <v>235.8</v>
@@ -3339,7 +3361,7 @@
         <v>71</v>
       </c>
       <c r="K61" t="n">
-        <v>-13.51351351351351</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L61" t="n">
         <v>235.6</v>
@@ -3390,7 +3412,7 @@
         <v>71</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L62" t="n">
         <v>235.4</v>
@@ -3441,7 +3463,7 @@
         <v>73</v>
       </c>
       <c r="K63" t="n">
-        <v>-3.225806451612903</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L63" t="n">
         <v>235.5</v>
@@ -3492,7 +3514,7 @@
         <v>73</v>
       </c>
       <c r="K64" t="n">
-        <v>-14.28571428571428</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L64" t="n">
         <v>235.4</v>
@@ -3543,7 +3565,7 @@
         <v>75</v>
       </c>
       <c r="K65" t="n">
-        <v>-20</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L65" t="n">
         <v>235.3</v>
@@ -3594,7 +3616,7 @@
         <v>76</v>
       </c>
       <c r="K66" t="n">
-        <v>-20</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L66" t="n">
         <v>235.5</v>
@@ -3645,7 +3667,7 @@
         <v>76</v>
       </c>
       <c r="K67" t="n">
-        <v>-24.13793103448276</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L67" t="n">
         <v>235.7</v>
@@ -3696,7 +3718,7 @@
         <v>77</v>
       </c>
       <c r="K68" t="n">
-        <v>-15.38461538461539</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L68" t="n">
         <v>235.8</v>
@@ -3747,7 +3769,7 @@
         <v>77</v>
       </c>
       <c r="K69" t="n">
-        <v>-4.347826086956522</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L69" t="n">
         <v>235.9</v>
@@ -3798,7 +3820,7 @@
         <v>77</v>
       </c>
       <c r="K70" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
         <v>235.6</v>
@@ -3849,7 +3871,7 @@
         <v>77</v>
       </c>
       <c r="K71" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
         <v>235.6</v>
@@ -3900,7 +3922,7 @@
         <v>78</v>
       </c>
       <c r="K72" t="n">
-        <v>-14.28571428571428</v>
+        <v>-60</v>
       </c>
       <c r="L72" t="n">
         <v>235.5</v>
@@ -3951,7 +3973,7 @@
         <v>78</v>
       </c>
       <c r="K73" t="n">
-        <v>-10</v>
+        <v>-60</v>
       </c>
       <c r="L73" t="n">
         <v>235.2</v>
@@ -4002,7 +4024,7 @@
         <v>78</v>
       </c>
       <c r="K74" t="n">
-        <v>-22.22222222222222</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L74" t="n">
         <v>234.9</v>
@@ -4053,7 +4075,7 @@
         <v>78</v>
       </c>
       <c r="K75" t="n">
-        <v>-12.5</v>
+        <v>-100</v>
       </c>
       <c r="L75" t="n">
         <v>234.8</v>
@@ -4104,7 +4126,7 @@
         <v>78</v>
       </c>
       <c r="K76" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L76" t="n">
         <v>234.6</v>
@@ -4155,7 +4177,7 @@
         <v>78</v>
       </c>
       <c r="K77" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L77" t="n">
         <v>234.4</v>
@@ -4206,7 +4228,7 @@
         <v>79</v>
       </c>
       <c r="K78" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
         <v>234.4</v>
@@ -4257,7 +4279,7 @@
         <v>80</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L79" t="n">
         <v>234.3</v>
@@ -4308,7 +4330,7 @@
         <v>81</v>
       </c>
       <c r="K80" t="n">
-        <v>-23.07692307692308</v>
+        <v>0</v>
       </c>
       <c r="L80" t="n">
         <v>234.3</v>
@@ -4359,7 +4381,7 @@
         <v>84</v>
       </c>
       <c r="K81" t="n">
-        <v>-23.07692307692308</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L81" t="n">
         <v>234</v>
@@ -4410,7 +4432,7 @@
         <v>86</v>
       </c>
       <c r="K82" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L82" t="n">
         <v>234</v>
@@ -4461,7 +4483,7 @@
         <v>86</v>
       </c>
       <c r="K83" t="n">
-        <v>-23.07692307692308</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
         <v>234</v>
@@ -4512,7 +4534,7 @@
         <v>87</v>
       </c>
       <c r="K84" t="n">
-        <v>-28.57142857142857</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L84" t="n">
         <v>233.9</v>
@@ -4563,7 +4585,7 @@
         <v>88</v>
       </c>
       <c r="K85" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
         <v>233.9</v>
@@ -4614,7 +4636,7 @@
         <v>88</v>
       </c>
       <c r="K86" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L86" t="n">
         <v>233.9</v>
@@ -4665,7 +4687,7 @@
         <v>89</v>
       </c>
       <c r="K87" t="n">
-        <v>-23.07692307692308</v>
+        <v>-20</v>
       </c>
       <c r="L87" t="n">
         <v>233.8</v>
@@ -4716,7 +4738,7 @@
         <v>90</v>
       </c>
       <c r="K88" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L88" t="n">
         <v>233.7</v>
@@ -4767,7 +4789,7 @@
         <v>92</v>
       </c>
       <c r="K89" t="n">
-        <v>-20</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L89" t="n">
         <v>233.5</v>
@@ -4818,7 +4840,7 @@
         <v>92</v>
       </c>
       <c r="K90" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
         <v>233.2</v>
@@ -4869,7 +4891,7 @@
         <v>94</v>
       </c>
       <c r="K91" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L91" t="n">
         <v>233.4</v>
@@ -4920,7 +4942,7 @@
         <v>95</v>
       </c>
       <c r="K92" t="n">
-        <v>-5.88235294117647</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L92" t="n">
         <v>233.3</v>
@@ -4971,7 +4993,7 @@
         <v>96</v>
       </c>
       <c r="K93" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L93" t="n">
         <v>233.3</v>
@@ -5022,7 +5044,7 @@
         <v>97</v>
       </c>
       <c r="K94" t="n">
-        <v>-5.263157894736842</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L94" t="n">
         <v>233.3</v>
@@ -5124,7 +5146,7 @@
         <v>98</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L96" t="n">
         <v>233.3</v>
@@ -5226,7 +5248,7 @@
         <v>98</v>
       </c>
       <c r="K98" t="n">
-        <v>-5.263157894736842</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L98" t="n">
         <v>233.4</v>
@@ -5277,7 +5299,7 @@
         <v>99</v>
       </c>
       <c r="K99" t="n">
-        <v>5.263157894736842</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L99" t="n">
         <v>233.7</v>
@@ -5328,7 +5350,7 @@
         <v>99</v>
       </c>
       <c r="K100" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L100" t="n">
         <v>234</v>
@@ -5379,7 +5401,7 @@
         <v>101</v>
       </c>
       <c r="K101" t="n">
-        <v>29.41176470588236</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L101" t="n">
         <v>234.3</v>
@@ -5430,7 +5452,7 @@
         <v>103</v>
       </c>
       <c r="K102" t="n">
-        <v>5.88235294117647</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L102" t="n">
         <v>234.5</v>
@@ -5481,7 +5503,7 @@
         <v>105</v>
       </c>
       <c r="K103" t="n">
-        <v>15.78947368421053</v>
+        <v>50</v>
       </c>
       <c r="L103" t="n">
         <v>234.8</v>
@@ -5532,7 +5554,7 @@
         <v>106</v>
       </c>
       <c r="K104" t="n">
-        <v>26.31578947368421</v>
+        <v>50</v>
       </c>
       <c r="L104" t="n">
         <v>235.3</v>
@@ -5634,7 +5656,7 @@
         <v>113</v>
       </c>
       <c r="K106" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L106" t="n">
         <v>235.6</v>
@@ -5685,7 +5707,7 @@
         <v>114</v>
       </c>
       <c r="K107" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L107" t="n">
         <v>236</v>
@@ -5736,7 +5758,7 @@
         <v>117</v>
       </c>
       <c r="K108" t="n">
-        <v>3.703703703703703</v>
+        <v>0</v>
       </c>
       <c r="L108" t="n">
         <v>236.1</v>
@@ -5787,7 +5809,7 @@
         <v>120</v>
       </c>
       <c r="K109" t="n">
-        <v>21.42857142857143</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L109" t="n">
         <v>236.4</v>
@@ -5838,7 +5860,7 @@
         <v>120</v>
       </c>
       <c r="K110" t="n">
-        <v>21.42857142857143</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L110" t="n">
         <v>236.7</v>
@@ -5889,7 +5911,7 @@
         <v>120</v>
       </c>
       <c r="K111" t="n">
-        <v>15.38461538461539</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L111" t="n">
         <v>236.8</v>
@@ -5940,7 +5962,7 @@
         <v>120</v>
       </c>
       <c r="K112" t="n">
-        <v>20</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L112" t="n">
         <v>237.1</v>
@@ -5991,7 +6013,7 @@
         <v>121</v>
       </c>
       <c r="K113" t="n">
-        <v>20</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L113" t="n">
         <v>237.3</v>
@@ -6042,7 +6064,7 @@
         <v>121</v>
       </c>
       <c r="K114" t="n">
-        <v>25</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L114" t="n">
         <v>237.4</v>
@@ -6093,7 +6115,7 @@
         <v>126</v>
       </c>
       <c r="K115" t="n">
-        <v>0</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L115" t="n">
         <v>237.4</v>
@@ -6144,7 +6166,7 @@
         <v>130</v>
       </c>
       <c r="K116" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="L116" t="n">
         <v>237.5</v>
@@ -6195,7 +6217,7 @@
         <v>131</v>
       </c>
       <c r="K117" t="n">
-        <v>9.090909090909092</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L117" t="n">
         <v>237.4</v>
@@ -6246,7 +6268,7 @@
         <v>131</v>
       </c>
       <c r="K118" t="n">
-        <v>9.090909090909092</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L118" t="n">
         <v>237.6</v>
@@ -6297,7 +6319,7 @@
         <v>131</v>
       </c>
       <c r="K119" t="n">
-        <v>6.25</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L119" t="n">
         <v>237.5</v>
@@ -6348,7 +6370,7 @@
         <v>131</v>
       </c>
       <c r="K120" t="n">
-        <v>6.25</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L120" t="n">
         <v>237.4</v>
@@ -6399,7 +6421,7 @@
         <v>132</v>
       </c>
       <c r="K121" t="n">
-        <v>3.225806451612903</v>
+        <v>0</v>
       </c>
       <c r="L121" t="n">
         <v>237.4</v>
@@ -6450,7 +6472,7 @@
         <v>134</v>
       </c>
       <c r="K122" t="n">
-        <v>3.225806451612903</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L122" t="n">
         <v>237.2</v>
@@ -6501,7 +6523,7 @@
         <v>135</v>
       </c>
       <c r="K123" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L123" t="n">
         <v>237</v>
@@ -6552,7 +6574,7 @@
         <v>137</v>
       </c>
       <c r="K124" t="n">
-        <v>-9.67741935483871</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L124" t="n">
         <v>236.6</v>
@@ -6603,7 +6625,7 @@
         <v>137</v>
       </c>
       <c r="K125" t="n">
-        <v>3.703703703703703</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L125" t="n">
         <v>236.7</v>
@@ -6654,7 +6676,7 @@
         <v>137</v>
       </c>
       <c r="K126" t="n">
-        <v>-8.333333333333332</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L126" t="n">
         <v>236.4</v>
@@ -6705,7 +6727,7 @@
         <v>137</v>
       </c>
       <c r="K127" t="n">
-        <v>-13.04347826086956</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L127" t="n">
         <v>236.2</v>
@@ -6756,7 +6778,7 @@
         <v>137</v>
       </c>
       <c r="K128" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L128" t="n">
         <v>236</v>
@@ -6807,7 +6829,7 @@
         <v>137</v>
       </c>
       <c r="K129" t="n">
-        <v>-17.64705882352941</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L129" t="n">
         <v>235.8</v>
@@ -6858,7 +6880,7 @@
         <v>137</v>
       </c>
       <c r="K130" t="n">
-        <v>-17.64705882352941</v>
+        <v>-60</v>
       </c>
       <c r="L130" t="n">
         <v>235.6</v>
@@ -6909,7 +6931,7 @@
         <v>138</v>
       </c>
       <c r="K131" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L131" t="n">
         <v>235.4</v>
@@ -6960,7 +6982,7 @@
         <v>138</v>
       </c>
       <c r="K132" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L132" t="n">
         <v>235.4</v>
@@ -7011,7 +7033,7 @@
         <v>139</v>
       </c>
       <c r="K133" t="n">
-        <v>-11.11111111111111</v>
+        <v>100</v>
       </c>
       <c r="L133" t="n">
         <v>235.4</v>
@@ -7062,7 +7084,7 @@
         <v>140</v>
       </c>
       <c r="K134" t="n">
-        <v>-5.263157894736842</v>
+        <v>100</v>
       </c>
       <c r="L134" t="n">
         <v>235.7</v>
@@ -7113,7 +7135,7 @@
         <v>142</v>
       </c>
       <c r="K135" t="n">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="L135" t="n">
         <v>235.8</v>
@@ -7164,7 +7186,7 @@
         <v>143</v>
       </c>
       <c r="K136" t="n">
-        <v>-23.07692307692308</v>
+        <v>0</v>
       </c>
       <c r="L136" t="n">
         <v>235.8</v>
@@ -7215,7 +7237,7 @@
         <v>144</v>
       </c>
       <c r="K137" t="n">
-        <v>-7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L137" t="n">
         <v>235.9</v>
@@ -7266,7 +7288,7 @@
         <v>144</v>
       </c>
       <c r="K138" t="n">
-        <v>-7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L138" t="n">
         <v>236</v>
@@ -7317,7 +7339,7 @@
         <v>144</v>
       </c>
       <c r="K139" t="n">
-        <v>-7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L139" t="n">
         <v>236.1</v>
@@ -7368,7 +7390,7 @@
         <v>144</v>
       </c>
       <c r="K140" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L140" t="n">
         <v>236.2</v>
@@ -7419,7 +7441,7 @@
         <v>144</v>
       </c>
       <c r="K141" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L141" t="n">
         <v>236.2</v>
@@ -7470,7 +7492,7 @@
         <v>146</v>
       </c>
       <c r="K142" t="n">
-        <v>16.66666666666666</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L142" t="n">
         <v>236.4</v>
@@ -7521,7 +7543,7 @@
         <v>148</v>
       </c>
       <c r="K143" t="n">
-        <v>-7.692307692307693</v>
+        <v>-25</v>
       </c>
       <c r="L143" t="n">
         <v>236.3</v>
@@ -7572,7 +7594,7 @@
         <v>150</v>
       </c>
       <c r="K144" t="n">
-        <v>23.07692307692308</v>
+        <v>25</v>
       </c>
       <c r="L144" t="n">
         <v>236.3</v>
@@ -7674,7 +7696,7 @@
         <v>154</v>
       </c>
       <c r="K146" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L146" t="n">
         <v>236.3</v>
@@ -7725,7 +7747,7 @@
         <v>154</v>
       </c>
       <c r="K147" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L147" t="n">
         <v>236.3</v>
@@ -7776,7 +7798,7 @@
         <v>154</v>
       </c>
       <c r="K148" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L148" t="n">
         <v>236.3</v>
@@ -7827,7 +7849,7 @@
         <v>154</v>
       </c>
       <c r="K149" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L149" t="n">
         <v>236.3</v>
@@ -7878,7 +7900,7 @@
         <v>155</v>
       </c>
       <c r="K150" t="n">
-        <v>11.11111111111111</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L150" t="n">
         <v>236.4</v>
@@ -7929,7 +7951,7 @@
         <v>155</v>
       </c>
       <c r="K151" t="n">
-        <v>5.88235294117647</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L151" t="n">
         <v>236.5</v>
@@ -7980,7 +8002,7 @@
         <v>156</v>
       </c>
       <c r="K152" t="n">
-        <v>11.11111111111111</v>
+        <v>25</v>
       </c>
       <c r="L152" t="n">
         <v>236.5</v>
@@ -8031,7 +8053,7 @@
         <v>157</v>
       </c>
       <c r="K153" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L153" t="n">
         <v>236.6</v>
@@ -8082,7 +8104,7 @@
         <v>159</v>
       </c>
       <c r="K154" t="n">
-        <v>5.263157894736842</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L154" t="n">
         <v>236.7</v>
@@ -8133,7 +8155,7 @@
         <v>159</v>
       </c>
       <c r="K155" t="n">
-        <v>17.64705882352941</v>
+        <v>60</v>
       </c>
       <c r="L155" t="n">
         <v>237.1</v>
@@ -8184,7 +8206,7 @@
         <v>162</v>
       </c>
       <c r="K156" t="n">
-        <v>5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L156" t="n">
         <v>237.1</v>
@@ -8286,7 +8308,7 @@
         <v>163</v>
       </c>
       <c r="K158" t="n">
-        <v>5.263157894736842</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L158" t="n">
         <v>237.2</v>

--- a/BackTest/2019-10-21 BackTest INS.xlsx
+++ b/BackTest/2019-10-21 BackTest INS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S158"/>
+  <dimension ref="A1:M137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -483,17 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -525,18 +491,10 @@
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -568,18 +526,10 @@
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -611,18 +561,10 @@
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -654,18 +596,10 @@
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -697,18 +631,10 @@
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -740,18 +666,10 @@
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -783,18 +701,10 @@
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -824,20 +734,12 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -867,22 +769,12 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>234.3</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -912,24 +804,12 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3</v>
-      </c>
-      <c r="K12" t="n">
-        <v>100</v>
-      </c>
-      <c r="L12" t="n">
-        <v>234.6</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -959,24 +839,12 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
-      </c>
-      <c r="J13" t="n">
-        <v>4</v>
-      </c>
-      <c r="K13" t="n">
-        <v>100</v>
-      </c>
-      <c r="L13" t="n">
-        <v>235</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,24 +874,12 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
-      </c>
-      <c r="J14" t="n">
-        <v>5</v>
-      </c>
-      <c r="K14" t="n">
-        <v>100</v>
-      </c>
-      <c r="L14" t="n">
-        <v>235.5</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1053,24 +909,12 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
-      </c>
-      <c r="J15" t="n">
-        <v>5</v>
-      </c>
-      <c r="K15" t="n">
-        <v>100</v>
-      </c>
-      <c r="L15" t="n">
-        <v>236</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,24 +944,12 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
-      </c>
-      <c r="J16" t="n">
-        <v>6</v>
-      </c>
-      <c r="K16" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L16" t="n">
-        <v>236.4</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1149,22 +981,10 @@
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>10</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>236.4</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1194,24 +1014,12 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
-      </c>
-      <c r="J18" t="n">
-        <v>14</v>
-      </c>
-      <c r="K18" t="n">
-        <v>28.57142857142857</v>
-      </c>
-      <c r="L18" t="n">
-        <v>236.8</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1241,24 +1049,12 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
-      </c>
-      <c r="J19" t="n">
-        <v>15</v>
-      </c>
-      <c r="K19" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L19" t="n">
-        <v>237.1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,24 +1084,12 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
-      </c>
-      <c r="J20" t="n">
-        <v>16</v>
-      </c>
-      <c r="K20" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L20" t="n">
-        <v>237.4</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1335,26 +1119,12 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
-      </c>
-      <c r="J21" t="n">
-        <v>16</v>
-      </c>
-      <c r="K21" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L21" t="n">
-        <v>237.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>235.95</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1384,26 +1154,12 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>4</v>
-      </c>
-      <c r="J22" t="n">
-        <v>16</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>237.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>236.15</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,26 +1189,12 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
-      </c>
-      <c r="J23" t="n">
-        <v>16</v>
-      </c>
-      <c r="K23" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L23" t="n">
-        <v>237.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>236.35</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1482,26 +1224,12 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>5</v>
-      </c>
-      <c r="J24" t="n">
-        <v>17</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>237.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>236.6</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1531,26 +1259,12 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>5</v>
-      </c>
-      <c r="J25" t="n">
-        <v>17</v>
-      </c>
-      <c r="K25" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L25" t="n">
-        <v>237.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>236.85</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,26 +1294,12 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>5</v>
-      </c>
-      <c r="J26" t="n">
-        <v>17</v>
-      </c>
-      <c r="K26" t="n">
-        <v>71.42857142857143</v>
-      </c>
-      <c r="L26" t="n">
-        <v>237.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>237.1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1629,26 +1329,12 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>5</v>
-      </c>
-      <c r="J27" t="n">
-        <v>17</v>
-      </c>
-      <c r="K27" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L27" t="n">
-        <v>238.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>237.35</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1678,26 +1364,12 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>5</v>
-      </c>
-      <c r="J28" t="n">
-        <v>17</v>
-      </c>
-      <c r="K28" t="n">
-        <v>100</v>
-      </c>
-      <c r="L28" t="n">
-        <v>238.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>237.6</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1727,26 +1399,12 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>5</v>
-      </c>
-      <c r="J29" t="n">
-        <v>17</v>
-      </c>
-      <c r="K29" t="n">
-        <v>100</v>
-      </c>
-      <c r="L29" t="n">
-        <v>238.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>237.85</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1776,26 +1434,12 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
-      </c>
-      <c r="J30" t="n">
-        <v>18</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>238.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>238</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1825,28 +1469,12 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>5</v>
-      </c>
-      <c r="J31" t="n">
-        <v>19</v>
-      </c>
-      <c r="K31" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L31" t="n">
-        <v>238.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>238.15</v>
-      </c>
-      <c r="N31" t="n">
-        <v>236.8666666666667</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1876,28 +1504,12 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>5</v>
-      </c>
-      <c r="J32" t="n">
-        <v>19</v>
-      </c>
-      <c r="K32" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L32" t="n">
-        <v>238.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>238.25</v>
-      </c>
-      <c r="N32" t="n">
-        <v>237.0333333333333</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1927,28 +1539,12 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
-      </c>
-      <c r="J33" t="n">
-        <v>20</v>
-      </c>
-      <c r="K33" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L33" t="n">
-        <v>238.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>238.25</v>
-      </c>
-      <c r="N33" t="n">
-        <v>237.1666666666667</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1978,28 +1574,12 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>4</v>
-      </c>
-      <c r="J34" t="n">
-        <v>20</v>
-      </c>
-      <c r="K34" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L34" t="n">
-        <v>238.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>238.2</v>
-      </c>
-      <c r="N34" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2029,28 +1609,12 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>6</v>
-      </c>
-      <c r="J35" t="n">
-        <v>22</v>
-      </c>
-      <c r="K35" t="n">
-        <v>20</v>
-      </c>
-      <c r="L35" t="n">
-        <v>238.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>238.25</v>
-      </c>
-      <c r="N35" t="n">
-        <v>237.5</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2080,28 +1644,12 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>6</v>
-      </c>
-      <c r="J36" t="n">
-        <v>22</v>
-      </c>
-      <c r="K36" t="n">
-        <v>20</v>
-      </c>
-      <c r="L36" t="n">
-        <v>238.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>238.35</v>
-      </c>
-      <c r="N36" t="n">
-        <v>237.7</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2131,28 +1679,12 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>6</v>
-      </c>
-      <c r="J37" t="n">
-        <v>22</v>
-      </c>
-      <c r="K37" t="n">
-        <v>20</v>
-      </c>
-      <c r="L37" t="n">
-        <v>239</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>238.65</v>
-      </c>
-      <c r="N37" t="n">
-        <v>237.9</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2184,26 +1716,10 @@
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>28</v>
-      </c>
-      <c r="K38" t="n">
-        <v>-45.45454545454545</v>
-      </c>
-      <c r="L38" t="n">
-        <v>238.5</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>238.45</v>
-      </c>
-      <c r="N38" t="n">
-        <v>237.9</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,28 +1749,12 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>3</v>
-      </c>
-      <c r="J39" t="n">
-        <v>31</v>
-      </c>
-      <c r="K39" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L39" t="n">
-        <v>238.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>238.45</v>
-      </c>
-      <c r="N39" t="n">
-        <v>238</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,28 +1784,12 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>3</v>
-      </c>
-      <c r="J40" t="n">
-        <v>31</v>
-      </c>
-      <c r="K40" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L40" t="n">
-        <v>238.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>238.4</v>
-      </c>
-      <c r="N40" t="n">
-        <v>238.0666666666667</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2335,28 +1819,12 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>6</v>
-      </c>
-      <c r="J41" t="n">
-        <v>34</v>
-      </c>
-      <c r="K41" t="n">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="L41" t="n">
-        <v>238.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>238.5</v>
-      </c>
-      <c r="N41" t="n">
-        <v>238.2</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2386,28 +1854,12 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" t="n">
-        <v>39</v>
-      </c>
-      <c r="K42" t="n">
-        <v>-15.78947368421053</v>
-      </c>
-      <c r="L42" t="n">
-        <v>237.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>238.35</v>
-      </c>
-      <c r="N42" t="n">
-        <v>238.1333333333333</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,28 +1889,12 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>4</v>
-      </c>
-      <c r="J43" t="n">
-        <v>42</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>237.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>238.35</v>
-      </c>
-      <c r="N43" t="n">
-        <v>238.1333333333333</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,28 +1924,12 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>7</v>
-      </c>
-      <c r="J44" t="n">
-        <v>45</v>
-      </c>
-      <c r="K44" t="n">
-        <v>4.347826086956522</v>
-      </c>
-      <c r="L44" t="n">
-        <v>238.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>238.45</v>
-      </c>
-      <c r="N44" t="n">
-        <v>238.2</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2539,28 +1959,12 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7</v>
-      </c>
-      <c r="J45" t="n">
-        <v>45</v>
-      </c>
-      <c r="K45" t="n">
-        <v>4.347826086956522</v>
-      </c>
-      <c r="L45" t="n">
-        <v>238.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>238.55</v>
-      </c>
-      <c r="N45" t="n">
-        <v>238.2666666666667</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,28 +1994,12 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>8</v>
-      </c>
-      <c r="J46" t="n">
-        <v>46</v>
-      </c>
-      <c r="K46" t="n">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="L46" t="n">
-        <v>238.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>238.7</v>
-      </c>
-      <c r="N46" t="n">
-        <v>238.4</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2641,28 +2029,12 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>9</v>
-      </c>
-      <c r="J47" t="n">
-        <v>47</v>
-      </c>
-      <c r="K47" t="n">
-        <v>47.36842105263158</v>
-      </c>
-      <c r="L47" t="n">
-        <v>238.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>238.9</v>
-      </c>
-      <c r="N47" t="n">
-        <v>238.7</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2692,28 +2064,12 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>5</v>
-      </c>
-      <c r="J48" t="n">
-        <v>51</v>
-      </c>
-      <c r="K48" t="n">
-        <v>10</v>
-      </c>
-      <c r="L48" t="n">
-        <v>239.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>238.9</v>
-      </c>
-      <c r="N48" t="n">
-        <v>238.7333333333333</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,28 +2099,12 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>2</v>
-      </c>
-      <c r="J49" t="n">
-        <v>54</v>
-      </c>
-      <c r="K49" t="n">
-        <v>-4.347826086956522</v>
-      </c>
-      <c r="L49" t="n">
-        <v>239.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>238.75</v>
-      </c>
-      <c r="N49" t="n">
-        <v>238.7</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,28 +2134,12 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>4</v>
-      </c>
-      <c r="J50" t="n">
-        <v>56</v>
-      </c>
-      <c r="K50" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L50" t="n">
-        <v>239.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>238.75</v>
-      </c>
-      <c r="N50" t="n">
-        <v>238.7</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2845,28 +2169,12 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>3</v>
-      </c>
-      <c r="J51" t="n">
-        <v>57</v>
-      </c>
-      <c r="K51" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L51" t="n">
-        <v>239</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>238.65</v>
-      </c>
-      <c r="N51" t="n">
-        <v>238.6666666666667</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,28 +2204,12 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>3</v>
-      </c>
-      <c r="J52" t="n">
-        <v>57</v>
-      </c>
-      <c r="K52" t="n">
-        <v>-6.666666666666667</v>
-      </c>
-      <c r="L52" t="n">
-        <v>239.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>238.55</v>
-      </c>
-      <c r="N52" t="n">
-        <v>238.6333333333333</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2947,28 +2239,12 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>2</v>
-      </c>
-      <c r="J53" t="n">
-        <v>58</v>
-      </c>
-      <c r="K53" t="n">
-        <v>-38.46153846153847</v>
-      </c>
-      <c r="L53" t="n">
-        <v>239</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>238.45</v>
-      </c>
-      <c r="N53" t="n">
-        <v>238.5666666666667</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2998,28 +2274,12 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>4</v>
-      </c>
-      <c r="J54" t="n">
-        <v>60</v>
-      </c>
-      <c r="K54" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L54" t="n">
-        <v>238.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>238.45</v>
-      </c>
-      <c r="N54" t="n">
-        <v>238.5333333333333</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3049,28 +2309,12 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>2</v>
-      </c>
-      <c r="J55" t="n">
-        <v>62</v>
-      </c>
-      <c r="K55" t="n">
-        <v>-37.5</v>
-      </c>
-      <c r="L55" t="n">
-        <v>238.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>238.25</v>
-      </c>
-      <c r="N55" t="n">
-        <v>238.4333333333333</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3102,26 +2346,10 @@
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>64</v>
-      </c>
-      <c r="K56" t="n">
-        <v>-52.94117647058824</v>
-      </c>
-      <c r="L56" t="n">
-        <v>237.4</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>237.95</v>
-      </c>
-      <c r="N56" t="n">
-        <v>238.2666666666667</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3153,26 +2381,10 @@
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>64</v>
-      </c>
-      <c r="K57" t="n">
-        <v>-38.46153846153847</v>
-      </c>
-      <c r="L57" t="n">
-        <v>236.5</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>237.65</v>
-      </c>
-      <c r="N57" t="n">
-        <v>238.1</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3204,26 +2416,10 @@
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>64</v>
-      </c>
-      <c r="K58" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L58" t="n">
-        <v>236</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>237.65</v>
-      </c>
-      <c r="N58" t="n">
-        <v>237.9333333333333</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3255,26 +2451,10 @@
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>64</v>
-      </c>
-      <c r="K59" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L59" t="n">
-        <v>235.8</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>237.5</v>
-      </c>
-      <c r="N59" t="n">
-        <v>237.7666666666667</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3304,28 +2484,12 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>4</v>
-      </c>
-      <c r="J60" t="n">
-        <v>68</v>
-      </c>
-      <c r="K60" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L60" t="n">
-        <v>235.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>237.55</v>
-      </c>
-      <c r="N60" t="n">
-        <v>237.7666666666667</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3355,28 +2519,12 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
-      </c>
-      <c r="J61" t="n">
-        <v>71</v>
-      </c>
-      <c r="K61" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L61" t="n">
-        <v>235.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="N61" t="n">
-        <v>237.6333333333333</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,28 +2554,12 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
-      </c>
-      <c r="J62" t="n">
-        <v>71</v>
-      </c>
-      <c r="K62" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L62" t="n">
-        <v>235.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
-        <v>237.3</v>
-      </c>
-      <c r="N62" t="n">
-        <v>237.5</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3457,28 +2589,12 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>3</v>
-      </c>
-      <c r="J63" t="n">
-        <v>73</v>
-      </c>
-      <c r="K63" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L63" t="n">
-        <v>235.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>237.25</v>
-      </c>
-      <c r="N63" t="n">
-        <v>237.4666666666667</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3508,28 +2624,12 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>3</v>
-      </c>
-      <c r="J64" t="n">
-        <v>73</v>
-      </c>
-      <c r="K64" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L64" t="n">
-        <v>235.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
-        <v>237.05</v>
-      </c>
-      <c r="N64" t="n">
-        <v>237.4333333333333</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3559,28 +2659,12 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
-      </c>
-      <c r="J65" t="n">
-        <v>75</v>
-      </c>
-      <c r="K65" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L65" t="n">
-        <v>235.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>236.75</v>
-      </c>
-      <c r="N65" t="n">
-        <v>237.2666666666667</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3610,28 +2694,12 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>2</v>
-      </c>
-      <c r="J66" t="n">
-        <v>76</v>
-      </c>
-      <c r="K66" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L66" t="n">
-        <v>235.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
-        <v>236.45</v>
-      </c>
-      <c r="N66" t="n">
-        <v>237.1333333333333</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3661,28 +2729,12 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>2</v>
-      </c>
-      <c r="J67" t="n">
-        <v>76</v>
-      </c>
-      <c r="K67" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L67" t="n">
-        <v>235.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="N67" t="n">
-        <v>237</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3712,28 +2764,12 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
-      </c>
-      <c r="J68" t="n">
-        <v>77</v>
-      </c>
-      <c r="K68" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L68" t="n">
-        <v>235.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="N68" t="n">
-        <v>237.0333333333333</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3763,28 +2799,12 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>77</v>
-      </c>
-      <c r="K69" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L69" t="n">
-        <v>235.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
-        <v>235.85</v>
-      </c>
-      <c r="N69" t="n">
-        <v>236.9666666666667</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3814,28 +2834,12 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" t="n">
-        <v>77</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0</v>
-      </c>
-      <c r="L70" t="n">
-        <v>235.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>235.7</v>
-      </c>
-      <c r="N70" t="n">
-        <v>236.9</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3865,28 +2869,12 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="n">
-        <v>77</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0</v>
-      </c>
-      <c r="L71" t="n">
-        <v>235.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>235.6</v>
-      </c>
-      <c r="N71" t="n">
-        <v>236.7333333333333</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3918,26 +2906,10 @@
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>78</v>
-      </c>
-      <c r="K72" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L72" t="n">
-        <v>235.5</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
-        <v>235.45</v>
-      </c>
-      <c r="N72" t="n">
-        <v>236.7</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3969,26 +2941,10 @@
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>78</v>
-      </c>
-      <c r="K73" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L73" t="n">
-        <v>235.2</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>235.35</v>
-      </c>
-      <c r="N73" t="n">
-        <v>236.5666666666667</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4020,26 +2976,10 @@
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>78</v>
-      </c>
-      <c r="K74" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L74" t="n">
-        <v>234.9</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>235.15</v>
-      </c>
-      <c r="N74" t="n">
-        <v>236.3333333333333</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4071,26 +3011,10 @@
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>78</v>
-      </c>
-      <c r="K75" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L75" t="n">
-        <v>234.8</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
-        <v>235.05</v>
-      </c>
-      <c r="N75" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4122,26 +3046,10 @@
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>78</v>
-      </c>
-      <c r="K76" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L76" t="n">
-        <v>234.6</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
-        <v>235.05</v>
-      </c>
-      <c r="N76" t="n">
-        <v>235.8333333333333</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4173,26 +3081,10 @@
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>78</v>
-      </c>
-      <c r="K77" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L77" t="n">
-        <v>234.4</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
-        <v>235.05</v>
-      </c>
-      <c r="N77" t="n">
-        <v>235.5333333333333</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4222,28 +3114,12 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" t="n">
-        <v>79</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0</v>
-      </c>
-      <c r="L78" t="n">
-        <v>234.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
-        <v>235.1</v>
-      </c>
-      <c r="N78" t="n">
-        <v>235.4</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4275,26 +3151,10 @@
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>80</v>
-      </c>
-      <c r="K79" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L79" t="n">
-        <v>234.3</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
-        <v>235.1</v>
-      </c>
-      <c r="N79" t="n">
-        <v>235.3333333333333</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4324,28 +3184,12 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
-      </c>
-      <c r="J80" t="n">
-        <v>81</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0</v>
-      </c>
-      <c r="L80" t="n">
-        <v>234.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
-        <v>234.95</v>
-      </c>
-      <c r="N80" t="n">
-        <v>235.2333333333333</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4375,28 +3219,12 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J81" t="n">
-        <v>84</v>
-      </c>
-      <c r="K81" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L81" t="n">
-        <v>234</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
-        <v>234.8</v>
-      </c>
-      <c r="N81" t="n">
-        <v>235.0666666666667</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4428,26 +3256,10 @@
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>86</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0</v>
-      </c>
-      <c r="L82" t="n">
-        <v>234</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
-        <v>234.75</v>
-      </c>
-      <c r="N82" t="n">
-        <v>234.9666666666667</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4479,26 +3291,10 @@
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>86</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0</v>
-      </c>
-      <c r="L83" t="n">
-        <v>234</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
-        <v>234.6</v>
-      </c>
-      <c r="N83" t="n">
-        <v>234.9</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,28 +3324,12 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>87</v>
-      </c>
-      <c r="K84" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L84" t="n">
-        <v>233.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
-        <v>234.4</v>
-      </c>
-      <c r="N84" t="n">
-        <v>234.7333333333333</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4581,26 +3361,10 @@
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>88</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0</v>
-      </c>
-      <c r="L85" t="n">
-        <v>233.9</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
-        <v>234.35</v>
-      </c>
-      <c r="N85" t="n">
-        <v>234.6666666666667</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4632,26 +3396,10 @@
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>88</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0</v>
-      </c>
-      <c r="L86" t="n">
-        <v>233.9</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
-        <v>234.25</v>
-      </c>
-      <c r="N86" t="n">
-        <v>234.6666666666667</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4681,28 +3429,12 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J87" t="n">
-        <v>89</v>
-      </c>
-      <c r="K87" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L87" t="n">
-        <v>233.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
-        <v>234.1</v>
-      </c>
-      <c r="N87" t="n">
-        <v>234.6333333333333</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4734,26 +3466,10 @@
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>90</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0</v>
-      </c>
-      <c r="L88" t="n">
-        <v>233.7</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
-        <v>234.05</v>
-      </c>
-      <c r="N88" t="n">
-        <v>234.6333333333333</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4780,31 +3496,21 @@
         <v>236.1666666666667</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>92</v>
-      </c>
-      <c r="K89" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L89" t="n">
-        <v>233.5</v>
+        <v>233</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M89" t="n">
-        <v>233.9</v>
-      </c>
-      <c r="N89" t="n">
-        <v>234.5666666666667</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4831,31 +3537,21 @@
         <v>236.0666666666667</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>92</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0</v>
-      </c>
-      <c r="L90" t="n">
-        <v>233.2</v>
+        <v>232</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M90" t="n">
-        <v>233.75</v>
-      </c>
-      <c r="N90" t="n">
-        <v>234.3666666666667</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4882,31 +3578,21 @@
         <v>235.9833333333333</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>94</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0</v>
-      </c>
-      <c r="L91" t="n">
-        <v>233.4</v>
+        <v>234</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M91" t="n">
-        <v>233.7</v>
-      </c>
-      <c r="N91" t="n">
-        <v>234.3333333333333</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4933,31 +3619,21 @@
         <v>235.8833333333333</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>95</v>
-      </c>
-      <c r="K92" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L92" t="n">
-        <v>233.3</v>
+        <v>232</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M92" t="n">
-        <v>233.65</v>
-      </c>
-      <c r="N92" t="n">
-        <v>234.2666666666667</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4984,31 +3660,21 @@
         <v>235.8166666666667</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>96</v>
-      </c>
-      <c r="K93" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L93" t="n">
-        <v>233.3</v>
+        <v>234</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M93" t="n">
-        <v>233.65</v>
-      </c>
-      <c r="N93" t="n">
-        <v>234.1666666666667</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5035,31 +3701,21 @@
         <v>235.7333333333333</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>97</v>
-      </c>
-      <c r="K94" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L94" t="n">
-        <v>233.3</v>
+        <v>232</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M94" t="n">
-        <v>233.6</v>
-      </c>
-      <c r="N94" t="n">
-        <v>234.0333333333333</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5086,31 +3742,21 @@
         <v>235.6333333333333</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>98</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0</v>
-      </c>
-      <c r="L95" t="n">
-        <v>233.3</v>
+        <v>234</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M95" t="n">
-        <v>233.6</v>
-      </c>
-      <c r="N95" t="n">
-        <v>234</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5137,31 +3783,21 @@
         <v>235.5333333333333</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>98</v>
-      </c>
-      <c r="K96" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L96" t="n">
-        <v>233.3</v>
+        <v>233</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M96" t="n">
-        <v>233.6</v>
-      </c>
-      <c r="N96" t="n">
-        <v>233.9333333333333</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5188,31 +3824,21 @@
         <v>235.4333333333333</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>98</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0</v>
-      </c>
-      <c r="L97" t="n">
-        <v>233.4</v>
+        <v>234</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M97" t="n">
-        <v>233.6</v>
-      </c>
-      <c r="N97" t="n">
-        <v>233.8666666666667</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5239,31 +3865,21 @@
         <v>235.4333333333333</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>98</v>
-      </c>
-      <c r="K98" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L98" t="n">
-        <v>233.4</v>
+        <v>234</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M98" t="n">
-        <v>233.55</v>
-      </c>
-      <c r="N98" t="n">
-        <v>233.8333333333333</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5290,31 +3906,21 @@
         <v>235.4</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>99</v>
-      </c>
-      <c r="K99" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L99" t="n">
-        <v>233.7</v>
+        <v>235</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M99" t="n">
-        <v>233.6</v>
-      </c>
-      <c r="N99" t="n">
-        <v>233.8333333333333</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5341,31 +3947,21 @@
         <v>235.3666666666667</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>99</v>
-      </c>
-      <c r="K100" t="n">
-        <v>20</v>
-      </c>
-      <c r="L100" t="n">
-        <v>234</v>
+        <v>235</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M100" t="n">
-        <v>233.6</v>
-      </c>
-      <c r="N100" t="n">
-        <v>233.8333333333333</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5392,31 +3988,21 @@
         <v>235.3166666666667</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>101</v>
-      </c>
-      <c r="K101" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L101" t="n">
-        <v>234.3</v>
+        <v>237</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M101" t="n">
-        <v>233.85</v>
-      </c>
-      <c r="N101" t="n">
-        <v>233.9</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5443,31 +4029,21 @@
         <v>235.3166666666667</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>103</v>
-      </c>
-      <c r="K102" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L102" t="n">
-        <v>234.5</v>
+        <v>235</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M102" t="n">
-        <v>233.9</v>
-      </c>
-      <c r="N102" t="n">
-        <v>233.9333333333333</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5497,28 +4073,16 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>3</v>
-      </c>
-      <c r="J103" t="n">
-        <v>105</v>
-      </c>
-      <c r="K103" t="n">
-        <v>50</v>
-      </c>
-      <c r="L103" t="n">
-        <v>234.8</v>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M103" t="n">
-        <v>234.05</v>
-      </c>
-      <c r="N103" t="n">
-        <v>234.0333333333333</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5548,28 +4112,16 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>4</v>
-      </c>
-      <c r="J104" t="n">
-        <v>106</v>
-      </c>
-      <c r="K104" t="n">
-        <v>50</v>
-      </c>
-      <c r="L104" t="n">
-        <v>235.3</v>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M104" t="n">
-        <v>234.3</v>
-      </c>
-      <c r="N104" t="n">
-        <v>234.1666666666667</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5601,26 +4153,14 @@
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>110</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0</v>
-      </c>
-      <c r="L105" t="n">
-        <v>235.3</v>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M105" t="n">
-        <v>234.3</v>
-      </c>
-      <c r="N105" t="n">
-        <v>234.1666666666667</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5650,28 +4190,16 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>3</v>
-      </c>
-      <c r="J106" t="n">
-        <v>113</v>
-      </c>
-      <c r="K106" t="n">
-        <v>20</v>
-      </c>
-      <c r="L106" t="n">
-        <v>235.6</v>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M106" t="n">
-        <v>234.45</v>
-      </c>
-      <c r="N106" t="n">
-        <v>234.2666666666667</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5701,28 +4229,16 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>4</v>
-      </c>
-      <c r="J107" t="n">
-        <v>114</v>
-      </c>
-      <c r="K107" t="n">
-        <v>25</v>
-      </c>
-      <c r="L107" t="n">
-        <v>236</v>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M107" t="n">
-        <v>234.7</v>
-      </c>
-      <c r="N107" t="n">
-        <v>234.4</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5752,28 +4268,16 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
-      </c>
-      <c r="J108" t="n">
-        <v>117</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0</v>
-      </c>
-      <c r="L108" t="n">
-        <v>236.1</v>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M108" t="n">
-        <v>234.75</v>
-      </c>
-      <c r="N108" t="n">
-        <v>234.4</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,28 +4307,16 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>4</v>
-      </c>
-      <c r="J109" t="n">
-        <v>120</v>
-      </c>
-      <c r="K109" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L109" t="n">
-        <v>236.4</v>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M109" t="n">
-        <v>235.05</v>
-      </c>
-      <c r="N109" t="n">
-        <v>234.5333333333333</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5854,28 +4346,16 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>4</v>
-      </c>
-      <c r="J110" t="n">
-        <v>120</v>
-      </c>
-      <c r="K110" t="n">
-        <v>5.263157894736842</v>
-      </c>
-      <c r="L110" t="n">
-        <v>236.7</v>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M110" t="n">
-        <v>235.35</v>
-      </c>
-      <c r="N110" t="n">
-        <v>234.6333333333333</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5905,28 +4385,16 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>4</v>
-      </c>
-      <c r="J111" t="n">
-        <v>120</v>
-      </c>
-      <c r="K111" t="n">
-        <v>17.64705882352941</v>
-      </c>
-      <c r="L111" t="n">
-        <v>236.8</v>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M111" t="n">
-        <v>235.55</v>
-      </c>
-      <c r="N111" t="n">
-        <v>234.8333333333333</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5956,28 +4424,16 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>4</v>
-      </c>
-      <c r="J112" t="n">
-        <v>120</v>
-      </c>
-      <c r="K112" t="n">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="L112" t="n">
-        <v>237.1</v>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M112" t="n">
-        <v>235.8</v>
-      </c>
-      <c r="N112" t="n">
-        <v>234.9666666666667</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6007,28 +4463,16 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>5</v>
-      </c>
-      <c r="J113" t="n">
-        <v>121</v>
-      </c>
-      <c r="K113" t="n">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="L113" t="n">
-        <v>237.3</v>
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M113" t="n">
-        <v>236.05</v>
-      </c>
-      <c r="N113" t="n">
-        <v>235.1333333333333</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6058,28 +4502,16 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>5</v>
-      </c>
-      <c r="J114" t="n">
-        <v>121</v>
-      </c>
-      <c r="K114" t="n">
-        <v>45.45454545454545</v>
-      </c>
-      <c r="L114" t="n">
-        <v>237.4</v>
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M114" t="n">
-        <v>236.35</v>
-      </c>
-      <c r="N114" t="n">
-        <v>235.3333333333333</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6111,26 +4543,14 @@
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>126</v>
-      </c>
-      <c r="K115" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L115" t="n">
-        <v>237.4</v>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M115" t="n">
-        <v>236.35</v>
-      </c>
-      <c r="N115" t="n">
-        <v>235.3333333333333</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6160,28 +4580,16 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>4</v>
-      </c>
-      <c r="J116" t="n">
-        <v>130</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0</v>
-      </c>
-      <c r="L116" t="n">
-        <v>237.5</v>
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M116" t="n">
-        <v>236.55</v>
-      </c>
-      <c r="N116" t="n">
-        <v>235.4666666666667</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6211,28 +4619,16 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>3</v>
-      </c>
-      <c r="J117" t="n">
-        <v>131</v>
-      </c>
-      <c r="K117" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L117" t="n">
-        <v>237.4</v>
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M117" t="n">
-        <v>236.7</v>
-      </c>
-      <c r="N117" t="n">
-        <v>235.6</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6262,28 +4658,16 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>3</v>
-      </c>
-      <c r="J118" t="n">
-        <v>131</v>
-      </c>
-      <c r="K118" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L118" t="n">
-        <v>237.6</v>
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M118" t="n">
-        <v>236.85</v>
-      </c>
-      <c r="N118" t="n">
-        <v>235.7</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6313,28 +4697,16 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>3</v>
-      </c>
-      <c r="J119" t="n">
-        <v>131</v>
-      </c>
-      <c r="K119" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L119" t="n">
-        <v>237.5</v>
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M119" t="n">
-        <v>236.95</v>
-      </c>
-      <c r="N119" t="n">
-        <v>235.8666666666667</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6364,28 +4736,16 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>3</v>
-      </c>
-      <c r="J120" t="n">
-        <v>131</v>
-      </c>
-      <c r="K120" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L120" t="n">
-        <v>237.4</v>
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M120" t="n">
-        <v>237.05</v>
-      </c>
-      <c r="N120" t="n">
-        <v>236.0333333333333</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6415,28 +4775,16 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>4</v>
-      </c>
-      <c r="J121" t="n">
-        <v>132</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0</v>
-      </c>
-      <c r="L121" t="n">
-        <v>237.4</v>
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M121" t="n">
-        <v>237.1</v>
-      </c>
-      <c r="N121" t="n">
-        <v>236.1666666666667</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6466,28 +4814,16 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>2</v>
-      </c>
-      <c r="J122" t="n">
-        <v>134</v>
-      </c>
-      <c r="K122" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L122" t="n">
-        <v>237.2</v>
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M122" t="n">
-        <v>237.15</v>
-      </c>
-      <c r="N122" t="n">
-        <v>236.2666666666667</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6517,28 +4853,16 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>3</v>
-      </c>
-      <c r="J123" t="n">
-        <v>135</v>
-      </c>
-      <c r="K123" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L123" t="n">
-        <v>237</v>
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M123" t="n">
-        <v>237.15</v>
-      </c>
-      <c r="N123" t="n">
-        <v>236.3666666666667</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6568,28 +4892,16 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
-      </c>
-      <c r="J124" t="n">
-        <v>137</v>
-      </c>
-      <c r="K124" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L124" t="n">
-        <v>236.6</v>
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M124" t="n">
-        <v>237</v>
-      </c>
-      <c r="N124" t="n">
-        <v>236.4333333333333</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6619,28 +4931,16 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
-      </c>
-      <c r="J125" t="n">
-        <v>137</v>
-      </c>
-      <c r="K125" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L125" t="n">
-        <v>236.7</v>
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M125" t="n">
-        <v>237.05</v>
-      </c>
-      <c r="N125" t="n">
-        <v>236.4666666666667</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6670,28 +4970,16 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
-      </c>
-      <c r="J126" t="n">
-        <v>137</v>
-      </c>
-      <c r="K126" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L126" t="n">
-        <v>236.4</v>
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M126" t="n">
-        <v>236.95</v>
-      </c>
-      <c r="N126" t="n">
-        <v>236.5</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6721,28 +5009,16 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
-      </c>
-      <c r="J127" t="n">
-        <v>137</v>
-      </c>
-      <c r="K127" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L127" t="n">
-        <v>236.2</v>
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M127" t="n">
-        <v>236.8</v>
-      </c>
-      <c r="N127" t="n">
-        <v>236.5333333333333</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6772,28 +5048,16 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
-      </c>
-      <c r="J128" t="n">
-        <v>137</v>
-      </c>
-      <c r="K128" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L128" t="n">
-        <v>236</v>
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M128" t="n">
-        <v>236.8</v>
-      </c>
-      <c r="N128" t="n">
-        <v>236.5666666666667</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6823,28 +5087,16 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
-      </c>
-      <c r="J129" t="n">
-        <v>137</v>
-      </c>
-      <c r="K129" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L129" t="n">
-        <v>235.8</v>
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M129" t="n">
-        <v>236.65</v>
-      </c>
-      <c r="N129" t="n">
-        <v>236.5666666666667</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6874,28 +5126,16 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
-      </c>
-      <c r="J130" t="n">
-        <v>137</v>
-      </c>
-      <c r="K130" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L130" t="n">
-        <v>235.6</v>
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M130" t="n">
-        <v>236.5</v>
-      </c>
-      <c r="N130" t="n">
-        <v>236.5666666666667</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6925,28 +5165,16 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>2</v>
-      </c>
-      <c r="J131" t="n">
-        <v>138</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0</v>
-      </c>
-      <c r="L131" t="n">
-        <v>235.4</v>
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M131" t="n">
-        <v>236.4</v>
-      </c>
-      <c r="N131" t="n">
-        <v>236.5333333333333</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6976,28 +5204,16 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>2</v>
-      </c>
-      <c r="J132" t="n">
-        <v>138</v>
-      </c>
-      <c r="K132" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L132" t="n">
-        <v>235.4</v>
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M132" t="n">
-        <v>236.3</v>
-      </c>
-      <c r="N132" t="n">
-        <v>236.5666666666667</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7027,28 +5243,16 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>3</v>
-      </c>
-      <c r="J133" t="n">
-        <v>139</v>
-      </c>
-      <c r="K133" t="n">
-        <v>100</v>
-      </c>
-      <c r="L133" t="n">
-        <v>235.4</v>
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M133" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="N133" t="n">
-        <v>236.5666666666667</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7078,28 +5282,16 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>4</v>
-      </c>
-      <c r="J134" t="n">
-        <v>140</v>
-      </c>
-      <c r="K134" t="n">
-        <v>100</v>
-      </c>
-      <c r="L134" t="n">
-        <v>235.7</v>
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M134" t="n">
-        <v>236.15</v>
-      </c>
-      <c r="N134" t="n">
-        <v>236.5666666666667</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7129,28 +5321,16 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>2</v>
-      </c>
-      <c r="J135" t="n">
-        <v>142</v>
-      </c>
-      <c r="K135" t="n">
-        <v>20</v>
-      </c>
-      <c r="L135" t="n">
-        <v>235.8</v>
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M135" t="n">
-        <v>236.25</v>
-      </c>
-      <c r="N135" t="n">
-        <v>236.6333333333333</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7180,28 +5360,16 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
-      </c>
-      <c r="J136" t="n">
-        <v>143</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0</v>
-      </c>
-      <c r="L136" t="n">
-        <v>235.8</v>
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M136" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="N136" t="n">
-        <v>236.5666666666667</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7231,1099 +5399,16 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>2</v>
-      </c>
-      <c r="J137" t="n">
-        <v>144</v>
-      </c>
-      <c r="K137" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L137" t="n">
-        <v>235.9</v>
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M137" t="n">
-        <v>236.05</v>
-      </c>
-      <c r="N137" t="n">
-        <v>236.5</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>238</v>
-      </c>
-      <c r="C138" t="n">
-        <v>236</v>
-      </c>
-      <c r="D138" t="n">
-        <v>238</v>
-      </c>
-      <c r="E138" t="n">
-        <v>236</v>
-      </c>
-      <c r="F138" t="n">
-        <v>45.5424</v>
-      </c>
-      <c r="G138" t="n">
-        <v>235.4666666666667</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>2</v>
-      </c>
-      <c r="J138" t="n">
-        <v>144</v>
-      </c>
-      <c r="K138" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L138" t="n">
-        <v>236</v>
-      </c>
-      <c r="M138" t="n">
-        <v>236</v>
-      </c>
-      <c r="N138" t="n">
-        <v>236.5333333333333</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>236</v>
-      </c>
-      <c r="C139" t="n">
-        <v>236</v>
-      </c>
-      <c r="D139" t="n">
-        <v>236</v>
-      </c>
-      <c r="E139" t="n">
-        <v>236</v>
-      </c>
-      <c r="F139" t="n">
-        <v>5989.5725</v>
-      </c>
-      <c r="G139" t="n">
-        <v>235.5</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>2</v>
-      </c>
-      <c r="J139" t="n">
-        <v>144</v>
-      </c>
-      <c r="K139" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L139" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="M139" t="n">
-        <v>235.95</v>
-      </c>
-      <c r="N139" t="n">
-        <v>236.4666666666667</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>236</v>
-      </c>
-      <c r="C140" t="n">
-        <v>236</v>
-      </c>
-      <c r="D140" t="n">
-        <v>236</v>
-      </c>
-      <c r="E140" t="n">
-        <v>236</v>
-      </c>
-      <c r="F140" t="n">
-        <v>938.9999</v>
-      </c>
-      <c r="G140" t="n">
-        <v>235.5166666666667</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>2</v>
-      </c>
-      <c r="J140" t="n">
-        <v>144</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0</v>
-      </c>
-      <c r="L140" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="M140" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="N140" t="n">
-        <v>236.4</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>236</v>
-      </c>
-      <c r="C141" t="n">
-        <v>236</v>
-      </c>
-      <c r="D141" t="n">
-        <v>236</v>
-      </c>
-      <c r="E141" t="n">
-        <v>236</v>
-      </c>
-      <c r="F141" t="n">
-        <v>940</v>
-      </c>
-      <c r="G141" t="n">
-        <v>235.5833333333333</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>2</v>
-      </c>
-      <c r="J141" t="n">
-        <v>144</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0</v>
-      </c>
-      <c r="L141" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="M141" t="n">
-        <v>235.8</v>
-      </c>
-      <c r="N141" t="n">
-        <v>236.3333333333333</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>238</v>
-      </c>
-      <c r="C142" t="n">
-        <v>238</v>
-      </c>
-      <c r="D142" t="n">
-        <v>238</v>
-      </c>
-      <c r="E142" t="n">
-        <v>238</v>
-      </c>
-      <c r="F142" t="n">
-        <v>2</v>
-      </c>
-      <c r="G142" t="n">
-        <v>235.65</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>4</v>
-      </c>
-      <c r="J142" t="n">
-        <v>146</v>
-      </c>
-      <c r="K142" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L142" t="n">
-        <v>236.4</v>
-      </c>
-      <c r="M142" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="N142" t="n">
-        <v>236.3333333333333</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>236</v>
-      </c>
-      <c r="C143" t="n">
-        <v>236</v>
-      </c>
-      <c r="D143" t="n">
-        <v>236</v>
-      </c>
-      <c r="E143" t="n">
-        <v>236</v>
-      </c>
-      <c r="F143" t="n">
-        <v>4476.9109</v>
-      </c>
-      <c r="G143" t="n">
-        <v>235.6833333333333</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>2</v>
-      </c>
-      <c r="J143" t="n">
-        <v>148</v>
-      </c>
-      <c r="K143" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L143" t="n">
-        <v>236.3</v>
-      </c>
-      <c r="M143" t="n">
-        <v>235.85</v>
-      </c>
-      <c r="N143" t="n">
-        <v>236.2333333333333</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>238</v>
-      </c>
-      <c r="C144" t="n">
-        <v>238</v>
-      </c>
-      <c r="D144" t="n">
-        <v>238</v>
-      </c>
-      <c r="E144" t="n">
-        <v>238</v>
-      </c>
-      <c r="F144" t="n">
-        <v>3</v>
-      </c>
-      <c r="G144" t="n">
-        <v>235.7666666666667</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>4</v>
-      </c>
-      <c r="J144" t="n">
-        <v>150</v>
-      </c>
-      <c r="K144" t="n">
-        <v>25</v>
-      </c>
-      <c r="L144" t="n">
-        <v>236.3</v>
-      </c>
-      <c r="M144" t="n">
-        <v>236</v>
-      </c>
-      <c r="N144" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>236</v>
-      </c>
-      <c r="C145" t="n">
-        <v>235</v>
-      </c>
-      <c r="D145" t="n">
-        <v>236</v>
-      </c>
-      <c r="E145" t="n">
-        <v>235</v>
-      </c>
-      <c r="F145" t="n">
-        <v>2773.3049</v>
-      </c>
-      <c r="G145" t="n">
-        <v>235.7833333333333</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>1</v>
-      </c>
-      <c r="J145" t="n">
-        <v>153</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0</v>
-      </c>
-      <c r="L145" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="M145" t="n">
-        <v>236</v>
-      </c>
-      <c r="N145" t="n">
-        <v>236.2333333333333</v>
-      </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>236</v>
-      </c>
-      <c r="C146" t="n">
-        <v>236</v>
-      </c>
-      <c r="D146" t="n">
-        <v>236</v>
-      </c>
-      <c r="E146" t="n">
-        <v>236</v>
-      </c>
-      <c r="F146" t="n">
-        <v>3</v>
-      </c>
-      <c r="G146" t="n">
-        <v>235.8166666666667</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>2</v>
-      </c>
-      <c r="J146" t="n">
-        <v>154</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0</v>
-      </c>
-      <c r="L146" t="n">
-        <v>236.3</v>
-      </c>
-      <c r="M146" t="n">
-        <v>236.05</v>
-      </c>
-      <c r="N146" t="n">
-        <v>236.1666666666667</v>
-      </c>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>236</v>
-      </c>
-      <c r="C147" t="n">
-        <v>236</v>
-      </c>
-      <c r="D147" t="n">
-        <v>236</v>
-      </c>
-      <c r="E147" t="n">
-        <v>236</v>
-      </c>
-      <c r="F147" t="n">
-        <v>8305.5597</v>
-      </c>
-      <c r="G147" t="n">
-        <v>235.8666666666667</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>2</v>
-      </c>
-      <c r="J147" t="n">
-        <v>154</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0</v>
-      </c>
-      <c r="L147" t="n">
-        <v>236.3</v>
-      </c>
-      <c r="M147" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="N147" t="n">
-        <v>236.1333333333333</v>
-      </c>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>236</v>
-      </c>
-      <c r="C148" t="n">
-        <v>236</v>
-      </c>
-      <c r="D148" t="n">
-        <v>236</v>
-      </c>
-      <c r="E148" t="n">
-        <v>236</v>
-      </c>
-      <c r="F148" t="n">
-        <v>799200</v>
-      </c>
-      <c r="G148" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>2</v>
-      </c>
-      <c r="J148" t="n">
-        <v>154</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0</v>
-      </c>
-      <c r="L148" t="n">
-        <v>236.3</v>
-      </c>
-      <c r="M148" t="n">
-        <v>236.15</v>
-      </c>
-      <c r="N148" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>236</v>
-      </c>
-      <c r="C149" t="n">
-        <v>236</v>
-      </c>
-      <c r="D149" t="n">
-        <v>236</v>
-      </c>
-      <c r="E149" t="n">
-        <v>236</v>
-      </c>
-      <c r="F149" t="n">
-        <v>1953600</v>
-      </c>
-      <c r="G149" t="n">
-        <v>235.9666666666667</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>2</v>
-      </c>
-      <c r="J149" t="n">
-        <v>154</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0</v>
-      </c>
-      <c r="L149" t="n">
-        <v>236.3</v>
-      </c>
-      <c r="M149" t="n">
-        <v>236.2</v>
-      </c>
-      <c r="N149" t="n">
-        <v>236.0666666666667</v>
-      </c>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>236</v>
-      </c>
-      <c r="C150" t="n">
-        <v>237</v>
-      </c>
-      <c r="D150" t="n">
-        <v>237</v>
-      </c>
-      <c r="E150" t="n">
-        <v>236</v>
-      </c>
-      <c r="F150" t="n">
-        <v>1806803</v>
-      </c>
-      <c r="G150" t="n">
-        <v>236.05</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>3</v>
-      </c>
-      <c r="J150" t="n">
-        <v>155</v>
-      </c>
-      <c r="K150" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L150" t="n">
-        <v>236.4</v>
-      </c>
-      <c r="M150" t="n">
-        <v>236.3</v>
-      </c>
-      <c r="N150" t="n">
-        <v>236.0666666666667</v>
-      </c>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>237</v>
-      </c>
-      <c r="C151" t="n">
-        <v>237</v>
-      </c>
-      <c r="D151" t="n">
-        <v>237</v>
-      </c>
-      <c r="E151" t="n">
-        <v>237</v>
-      </c>
-      <c r="F151" t="n">
-        <v>3332</v>
-      </c>
-      <c r="G151" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>3</v>
-      </c>
-      <c r="J151" t="n">
-        <v>155</v>
-      </c>
-      <c r="K151" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L151" t="n">
-        <v>236.5</v>
-      </c>
-      <c r="M151" t="n">
-        <v>236.35</v>
-      </c>
-      <c r="N151" t="n">
-        <v>236.0333333333333</v>
-      </c>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>238</v>
-      </c>
-      <c r="C152" t="n">
-        <v>238</v>
-      </c>
-      <c r="D152" t="n">
-        <v>238</v>
-      </c>
-      <c r="E152" t="n">
-        <v>238</v>
-      </c>
-      <c r="F152" t="n">
-        <v>5162.6302</v>
-      </c>
-      <c r="G152" t="n">
-        <v>236.1833333333333</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>4</v>
-      </c>
-      <c r="J152" t="n">
-        <v>156</v>
-      </c>
-      <c r="K152" t="n">
-        <v>25</v>
-      </c>
-      <c r="L152" t="n">
-        <v>236.5</v>
-      </c>
-      <c r="M152" t="n">
-        <v>236.45</v>
-      </c>
-      <c r="N152" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
-      <c r="S152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>237</v>
-      </c>
-      <c r="C153" t="n">
-        <v>237</v>
-      </c>
-      <c r="D153" t="n">
-        <v>237</v>
-      </c>
-      <c r="E153" t="n">
-        <v>237</v>
-      </c>
-      <c r="F153" t="n">
-        <v>905.5597</v>
-      </c>
-      <c r="G153" t="n">
-        <v>236.2333333333333</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>3</v>
-      </c>
-      <c r="J153" t="n">
-        <v>157</v>
-      </c>
-      <c r="K153" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L153" t="n">
-        <v>236.6</v>
-      </c>
-      <c r="M153" t="n">
-        <v>236.45</v>
-      </c>
-      <c r="N153" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>239</v>
-      </c>
-      <c r="C154" t="n">
-        <v>239</v>
-      </c>
-      <c r="D154" t="n">
-        <v>239</v>
-      </c>
-      <c r="E154" t="n">
-        <v>239</v>
-      </c>
-      <c r="F154" t="n">
-        <v>1443.3114</v>
-      </c>
-      <c r="G154" t="n">
-        <v>236.3333333333333</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>5</v>
-      </c>
-      <c r="J154" t="n">
-        <v>159</v>
-      </c>
-      <c r="K154" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L154" t="n">
-        <v>236.7</v>
-      </c>
-      <c r="M154" t="n">
-        <v>236.5</v>
-      </c>
-      <c r="N154" t="n">
-        <v>236.2333333333333</v>
-      </c>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr"/>
-      <c r="S154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>239</v>
-      </c>
-      <c r="C155" t="n">
-        <v>239</v>
-      </c>
-      <c r="D155" t="n">
-        <v>239</v>
-      </c>
-      <c r="E155" t="n">
-        <v>239</v>
-      </c>
-      <c r="F155" t="n">
-        <v>12</v>
-      </c>
-      <c r="G155" t="n">
-        <v>236.4166666666667</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>5</v>
-      </c>
-      <c r="J155" t="n">
-        <v>159</v>
-      </c>
-      <c r="K155" t="n">
-        <v>60</v>
-      </c>
-      <c r="L155" t="n">
-        <v>237.1</v>
-      </c>
-      <c r="M155" t="n">
-        <v>236.65</v>
-      </c>
-      <c r="N155" t="n">
-        <v>236.3666666666667</v>
-      </c>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr"/>
-      <c r="S155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>236</v>
-      </c>
-      <c r="C156" t="n">
-        <v>236</v>
-      </c>
-      <c r="D156" t="n">
-        <v>236</v>
-      </c>
-      <c r="E156" t="n">
-        <v>236</v>
-      </c>
-      <c r="F156" t="n">
-        <v>1323.0416</v>
-      </c>
-      <c r="G156" t="n">
-        <v>236.45</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>2</v>
-      </c>
-      <c r="J156" t="n">
-        <v>162</v>
-      </c>
-      <c r="K156" t="n">
-        <v>0</v>
-      </c>
-      <c r="L156" t="n">
-        <v>237.1</v>
-      </c>
-      <c r="M156" t="n">
-        <v>236.7</v>
-      </c>
-      <c r="N156" t="n">
-        <v>236.4</v>
-      </c>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr"/>
-      <c r="S156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>236</v>
-      </c>
-      <c r="C157" t="n">
-        <v>236</v>
-      </c>
-      <c r="D157" t="n">
-        <v>236</v>
-      </c>
-      <c r="E157" t="n">
-        <v>236</v>
-      </c>
-      <c r="F157" t="n">
-        <v>221.7665</v>
-      </c>
-      <c r="G157" t="n">
-        <v>236.4833333333333</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>2</v>
-      </c>
-      <c r="J157" t="n">
-        <v>162</v>
-      </c>
-      <c r="K157" t="n">
-        <v>0</v>
-      </c>
-      <c r="L157" t="n">
-        <v>237.1</v>
-      </c>
-      <c r="M157" t="n">
-        <v>236.7</v>
-      </c>
-      <c r="N157" t="n">
-        <v>236.4333333333333</v>
-      </c>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr"/>
-      <c r="S157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>236</v>
-      </c>
-      <c r="C158" t="n">
-        <v>237</v>
-      </c>
-      <c r="D158" t="n">
-        <v>237</v>
-      </c>
-      <c r="E158" t="n">
-        <v>236</v>
-      </c>
-      <c r="F158" t="n">
-        <v>5</v>
-      </c>
-      <c r="G158" t="n">
-        <v>236.5333333333333</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>3</v>
-      </c>
-      <c r="J158" t="n">
-        <v>163</v>
-      </c>
-      <c r="K158" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L158" t="n">
-        <v>237.2</v>
-      </c>
-      <c r="M158" t="n">
-        <v>236.75</v>
-      </c>
-      <c r="N158" t="n">
-        <v>236.5</v>
-      </c>
-      <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
-      <c r="Q158" t="inlineStr"/>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-21 BackTest INS.xlsx
+++ b/BackTest/2019-10-21 BackTest INS.xlsx
@@ -2029,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2099,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -3286,14 +3286,20 @@
         <v>236.7333333333333</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>234</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3321,14 +3327,20 @@
         <v>236.6333333333333</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>234</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3356,14 +3368,20 @@
         <v>236.55</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>233</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3398,7 +3416,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3433,7 +3455,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3468,7 +3494,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3496,18 +3526,16 @@
         <v>236.1666666666667</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>233</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M89" t="n">
@@ -3537,14 +3565,12 @@
         <v>236.0666666666667</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>232</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
@@ -3578,14 +3604,12 @@
         <v>235.9833333333333</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>234</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
@@ -3619,14 +3643,12 @@
         <v>235.8833333333333</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>232</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
@@ -3666,7 +3688,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
@@ -3707,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
@@ -3748,7 +3770,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
@@ -3783,14 +3805,12 @@
         <v>235.5333333333333</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>233</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
@@ -3824,14 +3844,12 @@
         <v>235.4333333333333</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>234</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
@@ -3865,14 +3883,12 @@
         <v>235.4333333333333</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>234</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
@@ -3906,14 +3922,12 @@
         <v>235.4</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>235</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
@@ -3947,14 +3961,12 @@
         <v>235.3666666666667</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>235</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
@@ -3988,14 +4000,12 @@
         <v>235.3166666666667</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>237</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
@@ -4029,14 +4039,12 @@
         <v>235.3166666666667</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>235</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
@@ -4307,18 +4315,16 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4350,11 +4356,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4389,11 +4391,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4424,15 +4422,11 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4467,11 +4461,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4506,11 +4496,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4545,11 +4531,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4580,15 +4562,11 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4623,11 +4601,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4662,11 +4636,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4701,11 +4671,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4740,11 +4706,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4779,11 +4741,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4818,11 +4776,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4857,11 +4811,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4896,11 +4846,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4935,11 +4881,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4974,11 +4916,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5013,11 +4951,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5052,11 +4986,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5091,11 +5021,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5130,11 +5056,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5169,11 +5091,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5208,11 +5126,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5247,11 +5161,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5286,11 +5196,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5325,11 +5231,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5364,11 +5266,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5403,11 +5301,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-21 BackTest INS.xlsx
+++ b/BackTest/2019-10-21 BackTest INS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M137"/>
+  <dimension ref="A1:M138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>234</v>
       </c>
       <c r="F2" t="n">
-        <v>1067.5071</v>
+        <v>969.0272</v>
       </c>
       <c r="G2" t="n">
-        <v>237.85</v>
+        <v>237.9166666666667</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>234</v>
       </c>
       <c r="F3" t="n">
-        <v>1328.4759</v>
+        <v>1067.5071</v>
       </c>
       <c r="G3" t="n">
-        <v>237.7833333333333</v>
+        <v>237.85</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>234</v>
       </c>
       <c r="F4" t="n">
-        <v>420.126</v>
+        <v>1328.4759</v>
       </c>
       <c r="G4" t="n">
-        <v>237.7166666666667</v>
+        <v>237.7833333333333</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -547,13 +547,13 @@
         <v>234</v>
       </c>
       <c r="E5" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F5" t="n">
-        <v>5731.952</v>
+        <v>420.126</v>
       </c>
       <c r="G5" t="n">
-        <v>237.7</v>
+        <v>237.7166666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,13 +582,13 @@
         <v>234</v>
       </c>
       <c r="E6" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F6" t="n">
-        <v>1373.2427</v>
+        <v>5731.952</v>
       </c>
       <c r="G6" t="n">
-        <v>237.6166666666667</v>
+        <v>237.7</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>234</v>
       </c>
       <c r="F7" t="n">
-        <v>1302.3299</v>
+        <v>1373.2427</v>
       </c>
       <c r="G7" t="n">
-        <v>237.4833333333333</v>
+        <v>237.6166666666667</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>234</v>
       </c>
       <c r="F8" t="n">
-        <v>4025.6412</v>
+        <v>1302.3299</v>
       </c>
       <c r="G8" t="n">
-        <v>237.3833333333333</v>
+        <v>237.4833333333333</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>234</v>
       </c>
       <c r="F9" t="n">
-        <v>2668.8837</v>
+        <v>4025.6412</v>
       </c>
       <c r="G9" t="n">
-        <v>237.2833333333333</v>
+        <v>237.3833333333333</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C10" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D10" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E10" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F10" t="n">
-        <v>1741.6227</v>
+        <v>2668.8837</v>
       </c>
       <c r="G10" t="n">
-        <v>237.2</v>
+        <v>237.2833333333333</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C11" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D11" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E11" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F11" t="n">
-        <v>1565.6227</v>
+        <v>1741.6227</v>
       </c>
       <c r="G11" t="n">
-        <v>237.1</v>
+        <v>237.2</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C12" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D12" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E12" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F12" t="n">
-        <v>3359.6834</v>
+        <v>1565.6227</v>
       </c>
       <c r="G12" t="n">
-        <v>237.0166666666667</v>
+        <v>237.1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C13" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D13" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E13" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F13" t="n">
-        <v>4500.3025</v>
+        <v>3359.6834</v>
       </c>
       <c r="G13" t="n">
-        <v>236.95</v>
+        <v>237.0166666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,19 +853,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C14" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D14" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E14" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>4500.3025</v>
       </c>
       <c r="G14" t="n">
         <v>236.95</v>
@@ -900,10 +900,10 @@
         <v>239</v>
       </c>
       <c r="F15" t="n">
-        <v>1677.2426</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>236.9333333333333</v>
+        <v>236.95</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C16" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D16" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E16" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F16" t="n">
-        <v>2315.505</v>
+        <v>1677.2426</v>
       </c>
       <c r="G16" t="n">
-        <v>236.8833333333333</v>
+        <v>236.9333333333333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C17" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D17" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E17" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F17" t="n">
-        <v>12515.3937</v>
+        <v>2315.505</v>
       </c>
       <c r="G17" t="n">
-        <v>236.7666666666667</v>
+        <v>236.8833333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -996,19 +996,19 @@
         <v>237</v>
       </c>
       <c r="C18" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D18" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E18" t="n">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F18" t="n">
-        <v>436.79357521</v>
+        <v>12515.3937</v>
       </c>
       <c r="G18" t="n">
-        <v>236.7166666666667</v>
+        <v>236.7666666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>237</v>
       </c>
       <c r="C19" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D19" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E19" t="n">
         <v>237</v>
       </c>
       <c r="F19" t="n">
-        <v>408.975</v>
+        <v>436.79357521</v>
       </c>
       <c r="G19" t="n">
-        <v>236.6333333333333</v>
+        <v>236.7166666666667</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1066,19 +1066,19 @@
         <v>237</v>
       </c>
       <c r="C20" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D20" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E20" t="n">
         <v>237</v>
       </c>
       <c r="F20" t="n">
-        <v>642.6656</v>
+        <v>408.975</v>
       </c>
       <c r="G20" t="n">
-        <v>236.5666666666667</v>
+        <v>236.6333333333333</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C21" t="n">
         <v>238</v>
       </c>
       <c r="D21" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E21" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F21" t="n">
-        <v>1531</v>
+        <v>642.6656</v>
       </c>
       <c r="G21" t="n">
-        <v>236.5</v>
+        <v>236.5666666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1139,16 +1139,16 @@
         <v>238</v>
       </c>
       <c r="D22" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E22" t="n">
         <v>238</v>
       </c>
       <c r="F22" t="n">
-        <v>585</v>
+        <v>1531</v>
       </c>
       <c r="G22" t="n">
-        <v>236.45</v>
+        <v>236.5</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C23" t="n">
         <v>238</v>
       </c>
       <c r="D23" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E23" t="n">
         <v>238</v>
       </c>
       <c r="F23" t="n">
-        <v>199</v>
+        <v>585</v>
       </c>
       <c r="G23" t="n">
-        <v>236.4</v>
+        <v>236.45</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1206,19 +1206,19 @@
         <v>239</v>
       </c>
       <c r="C24" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D24" t="n">
         <v>239</v>
       </c>
       <c r="E24" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F24" t="n">
-        <v>363.1229</v>
+        <v>199</v>
       </c>
       <c r="G24" t="n">
-        <v>236.35</v>
+        <v>236.4</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>239</v>
       </c>
       <c r="F25" t="n">
-        <v>789.2367</v>
+        <v>363.1229</v>
       </c>
       <c r="G25" t="n">
-        <v>236.3333333333333</v>
+        <v>236.35</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>239</v>
       </c>
       <c r="F26" t="n">
-        <v>537.3440004184</v>
+        <v>789.2367</v>
       </c>
       <c r="G26" t="n">
-        <v>236.3166666666667</v>
+        <v>236.3333333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1320,10 +1320,10 @@
         <v>239</v>
       </c>
       <c r="F27" t="n">
-        <v>428.5685</v>
+        <v>537.3440004184</v>
       </c>
       <c r="G27" t="n">
-        <v>236.3</v>
+        <v>236.3166666666667</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>239</v>
       </c>
       <c r="F28" t="n">
-        <v>592.1776</v>
+        <v>428.5685</v>
       </c>
       <c r="G28" t="n">
         <v>236.3</v>
@@ -1390,10 +1390,10 @@
         <v>239</v>
       </c>
       <c r="F29" t="n">
-        <v>1767.7874</v>
+        <v>592.1776</v>
       </c>
       <c r="G29" t="n">
-        <v>236.2833333333333</v>
+        <v>236.3</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C30" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D30" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E30" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F30" t="n">
-        <v>134.954</v>
+        <v>1767.7874</v>
       </c>
       <c r="G30" t="n">
-        <v>236.25</v>
+        <v>236.2833333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,19 +1448,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C31" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D31" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E31" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F31" t="n">
-        <v>9.95816e-05</v>
+        <v>134.954</v>
       </c>
       <c r="G31" t="n">
         <v>236.25</v>
@@ -1495,10 +1495,10 @@
         <v>239</v>
       </c>
       <c r="F32" t="n">
-        <v>381.1143</v>
+        <v>9.95816e-05</v>
       </c>
       <c r="G32" t="n">
-        <v>236.2666666666667</v>
+        <v>236.25</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C33" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D33" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E33" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F33" t="n">
-        <v>54.5873</v>
+        <v>381.1143</v>
       </c>
       <c r="G33" t="n">
-        <v>236.3</v>
+        <v>236.2666666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1565,10 +1565,10 @@
         <v>238</v>
       </c>
       <c r="F34" t="n">
-        <v>537.9078</v>
+        <v>54.5873</v>
       </c>
       <c r="G34" t="n">
-        <v>236.3333333333333</v>
+        <v>236.3</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1591,19 +1591,19 @@
         <v>238</v>
       </c>
       <c r="C35" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D35" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E35" t="n">
         <v>238</v>
       </c>
       <c r="F35" t="n">
-        <v>512</v>
+        <v>537.9078</v>
       </c>
       <c r="G35" t="n">
-        <v>236.3833333333333</v>
+        <v>236.3333333333333</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,7 +1623,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C36" t="n">
         <v>240</v>
@@ -1632,13 +1632,13 @@
         <v>240</v>
       </c>
       <c r="E36" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F36" t="n">
-        <v>260.198</v>
+        <v>512</v>
       </c>
       <c r="G36" t="n">
-        <v>236.45</v>
+        <v>236.3833333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C37" t="n">
         <v>240</v>
@@ -1667,13 +1667,13 @@
         <v>240</v>
       </c>
       <c r="E37" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F37" t="n">
-        <v>3</v>
+        <v>260.198</v>
       </c>
       <c r="G37" t="n">
-        <v>236.5</v>
+        <v>236.45</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C38" t="n">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D38" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E38" t="n">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="F38" t="n">
-        <v>14338.7007</v>
+        <v>3</v>
       </c>
       <c r="G38" t="n">
-        <v>236.4833333333333</v>
+        <v>236.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,19 +1728,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C39" t="n">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D39" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E39" t="n">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F39" t="n">
-        <v>875.2625</v>
+        <v>14338.7007</v>
       </c>
       <c r="G39" t="n">
         <v>236.4833333333333</v>
@@ -1775,7 +1775,7 @@
         <v>237</v>
       </c>
       <c r="F40" t="n">
-        <v>648.9046</v>
+        <v>875.2625</v>
       </c>
       <c r="G40" t="n">
         <v>236.4833333333333</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C41" t="n">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D41" t="n">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E41" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F41" t="n">
-        <v>1787.7893</v>
+        <v>648.9046</v>
       </c>
       <c r="G41" t="n">
-        <v>236.5333333333333</v>
+        <v>236.4833333333333</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1836,19 +1836,19 @@
         <v>238</v>
       </c>
       <c r="C42" t="n">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D42" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E42" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F42" t="n">
-        <v>15584.9444</v>
+        <v>1787.7893</v>
       </c>
       <c r="G42" t="n">
-        <v>236.4833333333333</v>
+        <v>236.5333333333333</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1871,19 +1871,19 @@
         <v>238</v>
       </c>
       <c r="C43" t="n">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D43" t="n">
         <v>238</v>
       </c>
       <c r="E43" t="n">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F43" t="n">
-        <v>938.1998</v>
+        <v>15584.9444</v>
       </c>
       <c r="G43" t="n">
-        <v>236.5</v>
+        <v>236.4833333333333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C44" t="n">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D44" t="n">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E44" t="n">
         <v>238</v>
       </c>
       <c r="F44" t="n">
-        <v>3383.8097</v>
+        <v>938.1998</v>
       </c>
       <c r="G44" t="n">
-        <v>236.5833333333333</v>
+        <v>236.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,7 +1938,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C45" t="n">
         <v>241</v>
@@ -1947,13 +1947,13 @@
         <v>241</v>
       </c>
       <c r="E45" t="n">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F45" t="n">
-        <v>734.2202</v>
+        <v>3383.8097</v>
       </c>
       <c r="G45" t="n">
-        <v>236.6666666666667</v>
+        <v>236.5833333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1976,19 +1976,19 @@
         <v>241</v>
       </c>
       <c r="C46" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D46" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E46" t="n">
         <v>241</v>
       </c>
       <c r="F46" t="n">
-        <v>13904.8471</v>
+        <v>734.2202</v>
       </c>
       <c r="G46" t="n">
-        <v>236.75</v>
+        <v>236.6666666666667</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C47" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D47" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E47" t="n">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F47" t="n">
-        <v>18409.2551</v>
+        <v>13904.8471</v>
       </c>
       <c r="G47" t="n">
-        <v>236.8666666666667</v>
+        <v>236.75</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C48" t="n">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D48" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E48" t="n">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F48" t="n">
-        <v>2200.2646</v>
+        <v>18409.2551</v>
       </c>
       <c r="G48" t="n">
-        <v>236.95</v>
+        <v>236.8666666666667</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C49" t="n">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D49" t="n">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E49" t="n">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F49" t="n">
-        <v>515.1662</v>
+        <v>2200.2646</v>
       </c>
       <c r="G49" t="n">
-        <v>237</v>
+        <v>236.95</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C50" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D50" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E50" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F50" t="n">
-        <v>42.1234</v>
+        <v>515.1662</v>
       </c>
       <c r="G50" t="n">
-        <v>237.0833333333333</v>
+        <v>237</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C51" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D51" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E51" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F51" t="n">
-        <v>226.6328</v>
+        <v>42.1234</v>
       </c>
       <c r="G51" t="n">
-        <v>237.1</v>
+        <v>237.0833333333333</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2195,10 +2195,10 @@
         <v>237</v>
       </c>
       <c r="F52" t="n">
-        <v>1432.05</v>
+        <v>226.6328</v>
       </c>
       <c r="G52" t="n">
-        <v>237.1333333333333</v>
+        <v>237.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C53" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D53" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E53" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F53" t="n">
-        <v>409.0527</v>
+        <v>1432.05</v>
       </c>
       <c r="G53" t="n">
-        <v>237.15</v>
+        <v>237.1333333333333</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C54" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D54" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E54" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F54" t="n">
-        <v>204</v>
+        <v>409.0527</v>
       </c>
       <c r="G54" t="n">
-        <v>237.2</v>
+        <v>237.15</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C55" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D55" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E55" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F55" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G55" t="n">
-        <v>237.1833333333333</v>
+        <v>237.2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C56" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D56" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E56" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F56" t="n">
-        <v>1002.3219</v>
+        <v>205</v>
       </c>
       <c r="G56" t="n">
-        <v>237.1666666666667</v>
+        <v>237.1833333333333</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,19 +2358,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C57" t="n">
         <v>234</v>
       </c>
       <c r="D57" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E57" t="n">
         <v>234</v>
       </c>
       <c r="F57" t="n">
-        <v>328</v>
+        <v>1002.3219</v>
       </c>
       <c r="G57" t="n">
         <v>237.1666666666667</v>
@@ -2405,7 +2405,7 @@
         <v>234</v>
       </c>
       <c r="F58" t="n">
-        <v>182.0546</v>
+        <v>328</v>
       </c>
       <c r="G58" t="n">
         <v>237.1666666666667</v>
@@ -2428,7 +2428,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C59" t="n">
         <v>234</v>
@@ -2437,10 +2437,10 @@
         <v>234</v>
       </c>
       <c r="E59" t="n">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F59" t="n">
-        <v>10991.8588</v>
+        <v>182.0546</v>
       </c>
       <c r="G59" t="n">
         <v>237.1666666666667</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C60" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D60" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E60" t="n">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F60" t="n">
-        <v>1336.5468</v>
+        <v>10991.8588</v>
       </c>
       <c r="G60" t="n">
-        <v>237.2333333333333</v>
+        <v>237.1666666666667</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C61" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D61" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E61" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F61" t="n">
-        <v>1201.2198</v>
+        <v>1336.5468</v>
       </c>
       <c r="G61" t="n">
-        <v>237.25</v>
+        <v>237.2333333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2545,10 +2545,10 @@
         <v>235</v>
       </c>
       <c r="F62" t="n">
-        <v>212</v>
+        <v>1201.2198</v>
       </c>
       <c r="G62" t="n">
-        <v>237.2666666666667</v>
+        <v>237.25</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C63" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D63" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E63" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F63" t="n">
-        <v>46.3414</v>
+        <v>212</v>
       </c>
       <c r="G63" t="n">
-        <v>237.3166666666667</v>
+        <v>237.2666666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2615,10 +2615,10 @@
         <v>237</v>
       </c>
       <c r="F64" t="n">
-        <v>2535.8672</v>
+        <v>46.3414</v>
       </c>
       <c r="G64" t="n">
-        <v>237.3666666666667</v>
+        <v>237.3166666666667</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C65" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D65" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E65" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F65" t="n">
-        <v>178.55</v>
+        <v>2535.8672</v>
       </c>
       <c r="G65" t="n">
-        <v>237.3833333333333</v>
+        <v>237.3666666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C66" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D66" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E66" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F66" t="n">
-        <v>1</v>
+        <v>178.55</v>
       </c>
       <c r="G66" t="n">
-        <v>237.4166666666667</v>
+        <v>237.3833333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2714,16 +2714,16 @@
         <v>236</v>
       </c>
       <c r="D67" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E67" t="n">
         <v>236</v>
       </c>
       <c r="F67" t="n">
-        <v>10708.2599</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>237.45</v>
+        <v>237.4166666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2746,19 +2746,19 @@
         <v>236</v>
       </c>
       <c r="C68" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D68" t="n">
+        <v>237</v>
+      </c>
+      <c r="E68" t="n">
         <v>236</v>
       </c>
-      <c r="E68" t="n">
-        <v>235</v>
-      </c>
       <c r="F68" t="n">
-        <v>924000</v>
+        <v>10708.2599</v>
       </c>
       <c r="G68" t="n">
-        <v>237.4666666666667</v>
+        <v>237.45</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C69" t="n">
         <v>235</v>
       </c>
       <c r="D69" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E69" t="n">
         <v>235</v>
       </c>
       <c r="F69" t="n">
-        <v>1911000</v>
+        <v>924000</v>
       </c>
       <c r="G69" t="n">
-        <v>237.4833333333333</v>
+        <v>237.4666666666667</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2825,7 +2825,7 @@
         <v>235</v>
       </c>
       <c r="F70" t="n">
-        <v>1043978.1043</v>
+        <v>1911000</v>
       </c>
       <c r="G70" t="n">
         <v>237.4833333333333</v>
@@ -2860,10 +2860,10 @@
         <v>235</v>
       </c>
       <c r="F71" t="n">
-        <v>564.1686</v>
+        <v>1043978.1043</v>
       </c>
       <c r="G71" t="n">
-        <v>237.4666666666667</v>
+        <v>237.4833333333333</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C72" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D72" t="n">
         <v>235</v>
       </c>
       <c r="E72" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F72" t="n">
-        <v>728003</v>
+        <v>564.1686</v>
       </c>
       <c r="G72" t="n">
-        <v>237.4166666666667</v>
+        <v>237.4666666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>234</v>
       </c>
       <c r="F73" t="n">
-        <v>2212974.7033</v>
+        <v>728003</v>
       </c>
       <c r="G73" t="n">
-        <v>237.35</v>
+        <v>237.4166666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>234</v>
       </c>
       <c r="F74" t="n">
-        <v>2176003</v>
+        <v>2212974.7033</v>
       </c>
       <c r="G74" t="n">
-        <v>237.2666666666667</v>
+        <v>237.35</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>234</v>
       </c>
       <c r="F75" t="n">
-        <v>2184006</v>
+        <v>2176003</v>
       </c>
       <c r="G75" t="n">
-        <v>237.1833333333333</v>
+        <v>237.2666666666667</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3035,10 +3035,10 @@
         <v>234</v>
       </c>
       <c r="F76" t="n">
-        <v>2176001</v>
+        <v>2184006</v>
       </c>
       <c r="G76" t="n">
-        <v>237.1166666666667</v>
+        <v>237.1833333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3064,13 +3064,13 @@
         <v>234</v>
       </c>
       <c r="D77" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E77" t="n">
         <v>234</v>
       </c>
       <c r="F77" t="n">
-        <v>8000</v>
+        <v>2176001</v>
       </c>
       <c r="G77" t="n">
         <v>237.1166666666667</v>
@@ -3096,19 +3096,19 @@
         <v>234</v>
       </c>
       <c r="C78" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D78" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E78" t="n">
         <v>234</v>
       </c>
       <c r="F78" t="n">
-        <v>1877.164</v>
+        <v>8000</v>
       </c>
       <c r="G78" t="n">
-        <v>237.0666666666667</v>
+        <v>237.1166666666667</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C79" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D79" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E79" t="n">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F79" t="n">
-        <v>18365.2319</v>
+        <v>1877.164</v>
       </c>
       <c r="G79" t="n">
-        <v>237.0166666666667</v>
+        <v>237.0666666666667</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C80" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D80" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E80" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F80" t="n">
-        <v>5330.235</v>
+        <v>18365.2319</v>
       </c>
       <c r="G80" t="n">
-        <v>236.9666666666667</v>
+        <v>237.0166666666667</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C81" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D81" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E81" t="n">
         <v>232</v>
       </c>
       <c r="F81" t="n">
-        <v>488.3723</v>
+        <v>5330.235</v>
       </c>
       <c r="G81" t="n">
-        <v>236.8666666666667</v>
+        <v>236.9666666666667</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C82" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D82" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E82" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F82" t="n">
-        <v>2</v>
+        <v>488.3723</v>
       </c>
       <c r="G82" t="n">
-        <v>236.8</v>
+        <v>236.8666666666667</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C83" t="n">
         <v>234</v>
@@ -3277,29 +3277,23 @@
         <v>234</v>
       </c>
       <c r="E83" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F83" t="n">
-        <v>607.2832618025</v>
+        <v>2</v>
       </c>
       <c r="G83" t="n">
-        <v>236.7333333333333</v>
+        <v>236.8</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>234</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3312,35 +3306,29 @@
         <v>233</v>
       </c>
       <c r="C84" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D84" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E84" t="n">
         <v>233</v>
       </c>
       <c r="F84" t="n">
-        <v>463.1389</v>
+        <v>607.2832618025</v>
       </c>
       <c r="G84" t="n">
-        <v>236.6333333333333</v>
+        <v>236.7333333333333</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>234</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3350,38 +3338,32 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C85" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D85" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E85" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F85" t="n">
-        <v>2</v>
+        <v>463.1389</v>
       </c>
       <c r="G85" t="n">
-        <v>236.55</v>
+        <v>236.6333333333333</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>233</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3403,10 +3385,10 @@
         <v>234</v>
       </c>
       <c r="F86" t="n">
-        <v>1104.3312</v>
+        <v>2</v>
       </c>
       <c r="G86" t="n">
-        <v>236.4666666666667</v>
+        <v>236.55</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3416,11 +3398,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3430,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C87" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D87" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E87" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F87" t="n">
-        <v>3306.4989</v>
+        <v>1104.3312</v>
       </c>
       <c r="G87" t="n">
-        <v>236.3666666666667</v>
+        <v>236.4666666666667</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3455,11 +3433,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3469,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C88" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D88" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E88" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F88" t="n">
-        <v>2</v>
+        <v>3306.4989</v>
       </c>
       <c r="G88" t="n">
-        <v>236.2833333333333</v>
+        <v>236.3666666666667</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3494,11 +3468,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3508,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C89" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D89" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E89" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F89" t="n">
-        <v>2586.5768</v>
+        <v>2</v>
       </c>
       <c r="G89" t="n">
-        <v>236.1666666666667</v>
+        <v>236.2833333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3533,11 +3503,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3547,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C90" t="n">
         <v>232</v>
       </c>
       <c r="D90" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E90" t="n">
         <v>232</v>
       </c>
       <c r="F90" t="n">
-        <v>70</v>
+        <v>2586.5768</v>
       </c>
       <c r="G90" t="n">
-        <v>236.0666666666667</v>
+        <v>236.1666666666667</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3572,11 +3538,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3586,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C91" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D91" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E91" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="G91" t="n">
-        <v>235.9833333333333</v>
+        <v>236.0666666666667</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3611,11 +3573,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3625,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C92" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D92" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E92" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F92" t="n">
-        <v>865.0901</v>
+        <v>1</v>
       </c>
       <c r="G92" t="n">
-        <v>235.8833333333333</v>
+        <v>235.9833333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3650,11 +3608,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3664,38 +3618,32 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C93" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D93" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E93" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F93" t="n">
-        <v>2</v>
+        <v>865.0901</v>
       </c>
       <c r="G93" t="n">
-        <v>235.8166666666667</v>
+        <v>235.8833333333333</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>233</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3705,38 +3653,32 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C94" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D94" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E94" t="n">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F94" t="n">
-        <v>3720.7997</v>
+        <v>2</v>
       </c>
       <c r="G94" t="n">
-        <v>235.7333333333333</v>
+        <v>235.8166666666667</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>234</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3746,38 +3688,32 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C95" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D95" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E95" t="n">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F95" t="n">
-        <v>1</v>
+        <v>3720.7997</v>
       </c>
       <c r="G95" t="n">
-        <v>235.6333333333333</v>
+        <v>235.7333333333333</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>233</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3787,7 +3723,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C96" t="n">
         <v>234</v>
@@ -3796,13 +3732,13 @@
         <v>234</v>
       </c>
       <c r="E96" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F96" t="n">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="G96" t="n">
-        <v>235.5333333333333</v>
+        <v>235.6333333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3812,11 +3748,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3826,7 +3758,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C97" t="n">
         <v>234</v>
@@ -3838,10 +3770,10 @@
         <v>233</v>
       </c>
       <c r="F97" t="n">
-        <v>5284.8924</v>
+        <v>132</v>
       </c>
       <c r="G97" t="n">
-        <v>235.4333333333333</v>
+        <v>235.5333333333333</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3851,11 +3783,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3874,10 +3802,10 @@
         <v>234</v>
       </c>
       <c r="E98" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F98" t="n">
-        <v>131</v>
+        <v>5284.8924</v>
       </c>
       <c r="G98" t="n">
         <v>235.4333333333333</v>
@@ -3890,11 +3818,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3904,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C99" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D99" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E99" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F99" t="n">
-        <v>2</v>
+        <v>131</v>
       </c>
       <c r="G99" t="n">
-        <v>235.4</v>
+        <v>235.4333333333333</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3929,11 +3853,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3955,10 +3875,10 @@
         <v>235</v>
       </c>
       <c r="F100" t="n">
-        <v>5122.7627</v>
+        <v>2</v>
       </c>
       <c r="G100" t="n">
-        <v>235.3666666666667</v>
+        <v>235.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3968,11 +3888,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3982,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C101" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D101" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E101" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F101" t="n">
-        <v>1</v>
+        <v>5122.7627</v>
       </c>
       <c r="G101" t="n">
-        <v>235.3166666666667</v>
+        <v>235.3666666666667</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4007,11 +3923,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4021,19 +3933,19 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C102" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D102" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E102" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F102" t="n">
-        <v>239.1065</v>
+        <v>1</v>
       </c>
       <c r="G102" t="n">
         <v>235.3166666666667</v>
@@ -4046,11 +3958,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4060,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C103" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D103" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E103" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F103" t="n">
-        <v>2</v>
+        <v>239.1065</v>
       </c>
       <c r="G103" t="n">
-        <v>235.3</v>
+        <v>235.3166666666667</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4085,11 +3993,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4099,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C104" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D104" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E104" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F104" t="n">
         <v>2</v>
       </c>
       <c r="G104" t="n">
-        <v>235.25</v>
+        <v>235.3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4124,11 +4028,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4138,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C105" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D105" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E105" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F105" t="n">
-        <v>40.403</v>
+        <v>2</v>
       </c>
       <c r="G105" t="n">
-        <v>235.1333333333333</v>
+        <v>235.25</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4163,11 +4063,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4177,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C106" t="n">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D106" t="n">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E106" t="n">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F106" t="n">
-        <v>1</v>
+        <v>40.403</v>
       </c>
       <c r="G106" t="n">
-        <v>235.05</v>
+        <v>235.1333333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4202,11 +4098,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4216,22 +4108,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C107" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D107" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E107" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F107" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G107" t="n">
-        <v>234.9666666666667</v>
+        <v>235.05</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4241,11 +4133,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4258,19 +4146,19 @@
         <v>238</v>
       </c>
       <c r="C108" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D108" t="n">
         <v>238</v>
       </c>
       <c r="E108" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F108" t="n">
-        <v>579.6706</v>
+        <v>3</v>
       </c>
       <c r="G108" t="n">
-        <v>234.9</v>
+        <v>234.9666666666667</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4280,11 +4168,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4297,19 +4181,19 @@
         <v>238</v>
       </c>
       <c r="C109" t="n">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D109" t="n">
         <v>238</v>
       </c>
       <c r="E109" t="n">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F109" t="n">
-        <v>541.1623</v>
+        <v>579.6706</v>
       </c>
       <c r="G109" t="n">
-        <v>234.9333333333333</v>
+        <v>234.9</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4319,19 +4203,17 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C110" t="n">
         <v>238</v>
@@ -4340,10 +4222,10 @@
         <v>238</v>
       </c>
       <c r="E110" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F110" t="n">
-        <v>2930.7666</v>
+        <v>541.1623</v>
       </c>
       <c r="G110" t="n">
         <v>234.9333333333333</v>
@@ -4366,7 +4248,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C111" t="n">
         <v>238</v>
@@ -4375,13 +4257,13 @@
         <v>238</v>
       </c>
       <c r="E111" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F111" t="n">
-        <v>1119.3357</v>
+        <v>2930.7666</v>
       </c>
       <c r="G111" t="n">
-        <v>234.95</v>
+        <v>234.9333333333333</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4413,16 +4295,16 @@
         <v>238</v>
       </c>
       <c r="F112" t="n">
-        <v>11</v>
+        <v>1119.3357</v>
       </c>
       <c r="G112" t="n">
-        <v>234.9666666666667</v>
+        <v>234.95</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4436,28 +4318,28 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C113" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D113" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E113" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F113" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G113" t="n">
-        <v>235.0166666666667</v>
+        <v>234.9666666666667</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4483,10 +4365,10 @@
         <v>239</v>
       </c>
       <c r="F114" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G114" t="n">
-        <v>235.0333333333333</v>
+        <v>235.0166666666667</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4506,22 +4388,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C115" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D115" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E115" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="F115" t="n">
-        <v>23603.8136</v>
+        <v>4</v>
       </c>
       <c r="G115" t="n">
-        <v>235</v>
+        <v>235.0333333333333</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4541,28 +4423,28 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C116" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D116" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E116" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F116" t="n">
-        <v>2</v>
+        <v>23603.8136</v>
       </c>
       <c r="G116" t="n">
-        <v>235.0666666666667</v>
+        <v>235</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -4576,22 +4458,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C117" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D117" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E117" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F117" t="n">
-        <v>211.85</v>
+        <v>2</v>
       </c>
       <c r="G117" t="n">
-        <v>235.1166666666667</v>
+        <v>235.0666666666667</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4623,10 +4505,10 @@
         <v>237</v>
       </c>
       <c r="F118" t="n">
-        <v>1664.9999</v>
+        <v>211.85</v>
       </c>
       <c r="G118" t="n">
-        <v>235.1666666666667</v>
+        <v>235.1166666666667</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4658,10 +4540,10 @@
         <v>237</v>
       </c>
       <c r="F119" t="n">
-        <v>0.0001</v>
+        <v>1664.9999</v>
       </c>
       <c r="G119" t="n">
-        <v>235.2166666666667</v>
+        <v>235.1666666666667</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4693,10 +4575,10 @@
         <v>237</v>
       </c>
       <c r="F120" t="n">
-        <v>3192</v>
+        <v>0.0001</v>
       </c>
       <c r="G120" t="n">
-        <v>235.2</v>
+        <v>235.2166666666667</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4716,22 +4598,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C121" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D121" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E121" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F121" t="n">
-        <v>1</v>
+        <v>3192</v>
       </c>
       <c r="G121" t="n">
-        <v>235.25</v>
+        <v>235.2</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4751,22 +4633,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C122" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D122" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E122" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F122" t="n">
-        <v>220.8662</v>
+        <v>1</v>
       </c>
       <c r="G122" t="n">
-        <v>235.2666666666667</v>
+        <v>235.25</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4789,16 +4671,16 @@
         <v>236</v>
       </c>
       <c r="C123" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D123" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E123" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F123" t="n">
-        <v>1941.2724</v>
+        <v>220.8662</v>
       </c>
       <c r="G123" t="n">
         <v>235.2666666666667</v>
@@ -4821,22 +4703,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C124" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D124" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E124" t="n">
         <v>235</v>
       </c>
       <c r="F124" t="n">
-        <v>46.7477</v>
+        <v>1941.2724</v>
       </c>
       <c r="G124" t="n">
-        <v>235.2333333333333</v>
+        <v>235.2666666666667</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4868,7 +4750,7 @@
         <v>235</v>
       </c>
       <c r="F125" t="n">
-        <v>1</v>
+        <v>46.7477</v>
       </c>
       <c r="G125" t="n">
         <v>235.2333333333333</v>
@@ -4903,10 +4785,10 @@
         <v>235</v>
       </c>
       <c r="F126" t="n">
-        <v>433.1299</v>
+        <v>1</v>
       </c>
       <c r="G126" t="n">
-        <v>235.2166666666667</v>
+        <v>235.2333333333333</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4938,10 +4820,10 @@
         <v>235</v>
       </c>
       <c r="F127" t="n">
-        <v>774.2322</v>
+        <v>433.1299</v>
       </c>
       <c r="G127" t="n">
-        <v>235.2</v>
+        <v>235.2166666666667</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4973,19 +4855,23 @@
         <v>235</v>
       </c>
       <c r="F128" t="n">
-        <v>68</v>
+        <v>774.2322</v>
       </c>
       <c r="G128" t="n">
         <v>235.2</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>235</v>
+      </c>
+      <c r="K128" t="n">
+        <v>235</v>
+      </c>
       <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
@@ -5008,7 +4894,7 @@
         <v>235</v>
       </c>
       <c r="F129" t="n">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="G129" t="n">
         <v>235.2</v>
@@ -5020,8 +4906,14 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>235</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5043,20 +4935,28 @@
         <v>235</v>
       </c>
       <c r="F130" t="n">
-        <v>2052.6157</v>
+        <v>1</v>
       </c>
       <c r="G130" t="n">
         <v>235.2</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>235</v>
+      </c>
+      <c r="K130" t="n">
+        <v>235</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5066,22 +4966,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C131" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D131" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E131" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F131" t="n">
-        <v>1</v>
+        <v>2052.6157</v>
       </c>
       <c r="G131" t="n">
-        <v>235.2166666666667</v>
+        <v>235.2</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5113,10 +5013,10 @@
         <v>236</v>
       </c>
       <c r="F132" t="n">
-        <v>44.7477</v>
+        <v>1</v>
       </c>
       <c r="G132" t="n">
-        <v>235.25</v>
+        <v>235.2166666666667</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5136,22 +5036,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C133" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D133" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E133" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F133" t="n">
-        <v>2</v>
+        <v>44.7477</v>
       </c>
       <c r="G133" t="n">
-        <v>235.3</v>
+        <v>235.25</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5171,22 +5071,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C134" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D134" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E134" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F134" t="n">
-        <v>5877.9822</v>
+        <v>2</v>
       </c>
       <c r="G134" t="n">
-        <v>235.3666666666667</v>
+        <v>235.3</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5206,22 +5106,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C135" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D135" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E135" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F135" t="n">
-        <v>46.8824</v>
+        <v>5877.9822</v>
       </c>
       <c r="G135" t="n">
-        <v>235.4</v>
+        <v>235.3666666666667</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5241,22 +5141,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C136" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D136" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E136" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F136" t="n">
         <v>46.8824</v>
       </c>
       <c r="G136" t="n">
-        <v>235.4166666666667</v>
+        <v>235.4</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5276,22 +5176,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C137" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D137" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E137" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F137" t="n">
-        <v>2</v>
+        <v>46.8824</v>
       </c>
       <c r="G137" t="n">
-        <v>235.45</v>
+        <v>235.4166666666667</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5306,6 +5206,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>236</v>
+      </c>
+      <c r="C138" t="n">
+        <v>236</v>
+      </c>
+      <c r="D138" t="n">
+        <v>236</v>
+      </c>
+      <c r="E138" t="n">
+        <v>236</v>
+      </c>
+      <c r="F138" t="n">
+        <v>2</v>
+      </c>
+      <c r="G138" t="n">
+        <v>235.45</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-21 BackTest INS.xlsx
+++ b/BackTest/2019-10-21 BackTest INS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M138"/>
+  <dimension ref="A1:N148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>969.0272</v>
       </c>
       <c r="G2" t="n">
+        <v>234.6</v>
+      </c>
+      <c r="H2" t="n">
         <v>237.9166666666667</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>1067.5071</v>
       </c>
       <c r="G3" t="n">
+        <v>234.4666666666667</v>
+      </c>
+      <c r="H3" t="n">
         <v>237.85</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>1328.4759</v>
       </c>
       <c r="G4" t="n">
+        <v>234.4666666666667</v>
+      </c>
+      <c r="H4" t="n">
         <v>237.7833333333333</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>420.126</v>
       </c>
       <c r="G5" t="n">
+        <v>234.5333333333333</v>
+      </c>
+      <c r="H5" t="n">
         <v>237.7166666666667</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>5731.952</v>
       </c>
       <c r="G6" t="n">
+        <v>234.6</v>
+      </c>
+      <c r="H6" t="n">
         <v>237.7</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>1373.2427</v>
       </c>
       <c r="G7" t="n">
+        <v>234.4666666666667</v>
+      </c>
+      <c r="H7" t="n">
         <v>237.6166666666667</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>1302.3299</v>
       </c>
       <c r="G8" t="n">
+        <v>234.4</v>
+      </c>
+      <c r="H8" t="n">
         <v>237.4833333333333</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>4025.6412</v>
       </c>
       <c r="G9" t="n">
+        <v>234.3333333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>237.3833333333333</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>2668.8837</v>
       </c>
       <c r="G10" t="n">
+        <v>234.2666666666667</v>
+      </c>
+      <c r="H10" t="n">
         <v>237.2833333333333</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>1741.6227</v>
       </c>
       <c r="G11" t="n">
+        <v>234.1333333333333</v>
+      </c>
+      <c r="H11" t="n">
         <v>237.2</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>1565.6227</v>
       </c>
       <c r="G12" t="n">
+        <v>234.2</v>
+      </c>
+      <c r="H12" t="n">
         <v>237.1</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>3359.6834</v>
       </c>
       <c r="G13" t="n">
+        <v>234.4</v>
+      </c>
+      <c r="H13" t="n">
         <v>237.0166666666667</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>4500.3025</v>
       </c>
       <c r="G14" t="n">
+        <v>234.6666666666667</v>
+      </c>
+      <c r="H14" t="n">
         <v>236.95</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>1</v>
       </c>
       <c r="G15" t="n">
+        <v>235</v>
+      </c>
+      <c r="H15" t="n">
         <v>236.95</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>1677.2426</v>
       </c>
       <c r="G16" t="n">
+        <v>235.3333333333333</v>
+      </c>
+      <c r="H16" t="n">
         <v>236.9333333333333</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>2315.505</v>
       </c>
       <c r="G17" t="n">
+        <v>235.6</v>
+      </c>
+      <c r="H17" t="n">
         <v>236.8833333333333</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>12515.3937</v>
       </c>
       <c r="G18" t="n">
+        <v>235.6</v>
+      </c>
+      <c r="H18" t="n">
         <v>236.7666666666667</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>436.79357521</v>
       </c>
       <c r="G19" t="n">
+        <v>235.8666666666667</v>
+      </c>
+      <c r="H19" t="n">
         <v>236.7166666666667</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>408.975</v>
       </c>
       <c r="G20" t="n">
+        <v>236.0666666666667</v>
+      </c>
+      <c r="H20" t="n">
         <v>236.6333333333333</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>642.6656</v>
       </c>
       <c r="G21" t="n">
+        <v>236.3333333333333</v>
+      </c>
+      <c r="H21" t="n">
         <v>236.5666666666667</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,27 @@
         <v>1531</v>
       </c>
       <c r="G22" t="n">
+        <v>236.6</v>
+      </c>
+      <c r="H22" t="n">
         <v>236.5</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>238</v>
+      </c>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1257,25 @@
         <v>585</v>
       </c>
       <c r="G23" t="n">
+        <v>236.8666666666667</v>
+      </c>
+      <c r="H23" t="n">
         <v>236.45</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1299,25 @@
         <v>199</v>
       </c>
       <c r="G24" t="n">
+        <v>237.1333333333333</v>
+      </c>
+      <c r="H24" t="n">
         <v>236.4</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1341,25 @@
         <v>363.1229</v>
       </c>
       <c r="G25" t="n">
+        <v>237.4666666666667</v>
+      </c>
+      <c r="H25" t="n">
         <v>236.35</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1383,25 @@
         <v>789.2367</v>
       </c>
       <c r="G26" t="n">
+        <v>237.7333333333333</v>
+      </c>
+      <c r="H26" t="n">
         <v>236.3333333333333</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1425,25 @@
         <v>537.3440004184</v>
       </c>
       <c r="G27" t="n">
+        <v>237.9333333333333</v>
+      </c>
+      <c r="H27" t="n">
         <v>236.3166666666667</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1467,25 @@
         <v>428.5685</v>
       </c>
       <c r="G28" t="n">
+        <v>238.0666666666667</v>
+      </c>
+      <c r="H28" t="n">
         <v>236.3</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1509,25 @@
         <v>592.1776</v>
       </c>
       <c r="G29" t="n">
+        <v>238.1333333333333</v>
+      </c>
+      <c r="H29" t="n">
         <v>236.3</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1551,25 @@
         <v>1767.7874</v>
       </c>
       <c r="G30" t="n">
+        <v>238.1333333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>236.2833333333333</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1593,25 @@
         <v>134.954</v>
       </c>
       <c r="G31" t="n">
+        <v>238.0666666666667</v>
+      </c>
+      <c r="H31" t="n">
         <v>236.25</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1635,25 @@
         <v>9.95816e-05</v>
       </c>
       <c r="G32" t="n">
+        <v>238.1333333333333</v>
+      </c>
+      <c r="H32" t="n">
         <v>236.25</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1677,25 @@
         <v>381.1143</v>
       </c>
       <c r="G33" t="n">
+        <v>238.4666666666667</v>
+      </c>
+      <c r="H33" t="n">
         <v>236.2666666666667</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1719,25 @@
         <v>54.5873</v>
       </c>
       <c r="G34" t="n">
+        <v>238.4666666666667</v>
+      </c>
+      <c r="H34" t="n">
         <v>236.3</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1761,25 @@
         <v>537.9078</v>
       </c>
       <c r="G35" t="n">
+        <v>238.5333333333333</v>
+      </c>
+      <c r="H35" t="n">
         <v>236.3333333333333</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1803,25 @@
         <v>512</v>
       </c>
       <c r="G36" t="n">
+        <v>238.6666666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>236.3833333333333</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1845,25 @@
         <v>260.198</v>
       </c>
       <c r="G37" t="n">
+        <v>238.8</v>
+      </c>
+      <c r="H37" t="n">
         <v>236.45</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1887,25 @@
         <v>3</v>
       </c>
       <c r="G38" t="n">
+        <v>238.9333333333333</v>
+      </c>
+      <c r="H38" t="n">
         <v>236.5</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1929,25 @@
         <v>14338.7007</v>
       </c>
       <c r="G39" t="n">
+        <v>238.6666666666667</v>
+      </c>
+      <c r="H39" t="n">
         <v>236.4833333333333</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1971,25 @@
         <v>875.2625</v>
       </c>
       <c r="G40" t="n">
+        <v>238.5333333333333</v>
+      </c>
+      <c r="H40" t="n">
         <v>236.4833333333333</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2013,25 @@
         <v>648.9046</v>
       </c>
       <c r="G41" t="n">
+        <v>238.4</v>
+      </c>
+      <c r="H41" t="n">
         <v>236.4833333333333</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2055,25 @@
         <v>1787.7893</v>
       </c>
       <c r="G42" t="n">
+        <v>238.4666666666667</v>
+      </c>
+      <c r="H42" t="n">
         <v>236.5333333333333</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2097,25 @@
         <v>15584.9444</v>
       </c>
       <c r="G43" t="n">
+        <v>238.2</v>
+      </c>
+      <c r="H43" t="n">
         <v>236.4833333333333</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2139,25 @@
         <v>938.1998</v>
       </c>
       <c r="G44" t="n">
+        <v>238.1333333333333</v>
+      </c>
+      <c r="H44" t="n">
         <v>236.5</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2181,25 @@
         <v>3383.8097</v>
       </c>
       <c r="G45" t="n">
+        <v>238.2666666666667</v>
+      </c>
+      <c r="H45" t="n">
         <v>236.5833333333333</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2223,25 @@
         <v>734.2202</v>
       </c>
       <c r="G46" t="n">
+        <v>238.4666666666667</v>
+      </c>
+      <c r="H46" t="n">
         <v>236.6666666666667</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2265,25 @@
         <v>13904.8471</v>
       </c>
       <c r="G47" t="n">
+        <v>238.6666666666667</v>
+      </c>
+      <c r="H47" t="n">
         <v>236.75</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,20 +2307,25 @@
         <v>18409.2551</v>
       </c>
       <c r="G48" t="n">
+        <v>238.9333333333333</v>
+      </c>
+      <c r="H48" t="n">
         <v>236.8666666666667</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2093,18 +2347,21 @@
         <v>2200.2646</v>
       </c>
       <c r="G49" t="n">
+        <v>239</v>
+      </c>
+      <c r="H49" t="n">
         <v>236.95</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2385,21 @@
         <v>515.1662</v>
       </c>
       <c r="G50" t="n">
-        <v>237</v>
+        <v>238.8666666666667</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2423,21 @@
         <v>42.1234</v>
       </c>
       <c r="G51" t="n">
+        <v>238.7333333333333</v>
+      </c>
+      <c r="H51" t="n">
         <v>237.0833333333333</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2461,21 @@
         <v>226.6328</v>
       </c>
       <c r="G52" t="n">
+        <v>238.5333333333333</v>
+      </c>
+      <c r="H52" t="n">
         <v>237.1</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2499,21 @@
         <v>1432.05</v>
       </c>
       <c r="G53" t="n">
+        <v>238.3333333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>237.1333333333333</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2537,21 @@
         <v>409.0527</v>
       </c>
       <c r="G54" t="n">
+        <v>238.4666666666667</v>
+      </c>
+      <c r="H54" t="n">
         <v>237.15</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2575,21 @@
         <v>204</v>
       </c>
       <c r="G55" t="n">
+        <v>238.5333333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>237.2</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2613,21 @@
         <v>205</v>
       </c>
       <c r="G56" t="n">
+        <v>238.4666666666667</v>
+      </c>
+      <c r="H56" t="n">
         <v>237.1833333333333</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2651,21 @@
         <v>1002.3219</v>
       </c>
       <c r="G57" t="n">
+        <v>238.0666666666667</v>
+      </c>
+      <c r="H57" t="n">
         <v>237.1666666666667</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2689,21 @@
         <v>328</v>
       </c>
       <c r="G58" t="n">
+        <v>238</v>
+      </c>
+      <c r="H58" t="n">
         <v>237.1666666666667</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2727,21 @@
         <v>182.0546</v>
       </c>
       <c r="G59" t="n">
+        <v>237.7333333333333</v>
+      </c>
+      <c r="H59" t="n">
         <v>237.1666666666667</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2765,21 @@
         <v>10991.8588</v>
       </c>
       <c r="G60" t="n">
+        <v>237.2666666666667</v>
+      </c>
+      <c r="H60" t="n">
         <v>237.1666666666667</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2803,21 @@
         <v>1336.5468</v>
       </c>
       <c r="G61" t="n">
+        <v>237.0666666666667</v>
+      </c>
+      <c r="H61" t="n">
         <v>237.2333333333333</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2841,21 @@
         <v>1201.2198</v>
       </c>
       <c r="G62" t="n">
+        <v>236.6</v>
+      </c>
+      <c r="H62" t="n">
         <v>237.25</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2879,21 @@
         <v>212</v>
       </c>
       <c r="G63" t="n">
+        <v>236.0666666666667</v>
+      </c>
+      <c r="H63" t="n">
         <v>237.2666666666667</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2917,21 @@
         <v>46.3414</v>
       </c>
       <c r="G64" t="n">
+        <v>235.9333333333333</v>
+      </c>
+      <c r="H64" t="n">
         <v>237.3166666666667</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2955,21 @@
         <v>2535.8672</v>
       </c>
       <c r="G65" t="n">
+        <v>236</v>
+      </c>
+      <c r="H65" t="n">
         <v>237.3666666666667</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2993,21 @@
         <v>178.55</v>
       </c>
       <c r="G66" t="n">
+        <v>235.8</v>
+      </c>
+      <c r="H66" t="n">
         <v>237.3833333333333</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +3031,21 @@
         <v>1</v>
       </c>
       <c r="G67" t="n">
+        <v>235.7333333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>237.4166666666667</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +3069,21 @@
         <v>10708.2599</v>
       </c>
       <c r="G68" t="n">
+        <v>235.6666666666667</v>
+      </c>
+      <c r="H68" t="n">
         <v>237.45</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3107,21 @@
         <v>924000</v>
       </c>
       <c r="G69" t="n">
+        <v>235.6</v>
+      </c>
+      <c r="H69" t="n">
         <v>237.4666666666667</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3145,21 @@
         <v>1911000</v>
       </c>
       <c r="G70" t="n">
+        <v>235.4</v>
+      </c>
+      <c r="H70" t="n">
         <v>237.4833333333333</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3183,21 @@
         <v>1043978.1043</v>
       </c>
       <c r="G71" t="n">
+        <v>235.3333333333333</v>
+      </c>
+      <c r="H71" t="n">
         <v>237.4833333333333</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3221,21 @@
         <v>564.1686</v>
       </c>
       <c r="G72" t="n">
+        <v>235.4</v>
+      </c>
+      <c r="H72" t="n">
         <v>237.4666666666667</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3259,21 @@
         <v>728003</v>
       </c>
       <c r="G73" t="n">
+        <v>235.4</v>
+      </c>
+      <c r="H73" t="n">
         <v>237.4166666666667</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3297,21 @@
         <v>2212974.7033</v>
       </c>
       <c r="G74" t="n">
+        <v>235.4</v>
+      </c>
+      <c r="H74" t="n">
         <v>237.35</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3335,21 @@
         <v>2176003</v>
       </c>
       <c r="G75" t="n">
+        <v>235.4</v>
+      </c>
+      <c r="H75" t="n">
         <v>237.2666666666667</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3373,21 @@
         <v>2184006</v>
       </c>
       <c r="G76" t="n">
+        <v>235.1333333333333</v>
+      </c>
+      <c r="H76" t="n">
         <v>237.1833333333333</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3411,21 @@
         <v>2176001</v>
       </c>
       <c r="G77" t="n">
+        <v>235.0666666666667</v>
+      </c>
+      <c r="H77" t="n">
         <v>237.1166666666667</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3449,21 @@
         <v>8000</v>
       </c>
       <c r="G78" t="n">
+        <v>235</v>
+      </c>
+      <c r="H78" t="n">
         <v>237.1166666666667</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3487,21 @@
         <v>1877.164</v>
       </c>
       <c r="G79" t="n">
+        <v>234.8666666666667</v>
+      </c>
+      <c r="H79" t="n">
         <v>237.0666666666667</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3525,21 @@
         <v>18365.2319</v>
       </c>
       <c r="G80" t="n">
+        <v>234.6666666666667</v>
+      </c>
+      <c r="H80" t="n">
         <v>237.0166666666667</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3563,21 @@
         <v>5330.235</v>
       </c>
       <c r="G81" t="n">
+        <v>234.6666666666667</v>
+      </c>
+      <c r="H81" t="n">
         <v>236.9666666666667</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3601,21 @@
         <v>488.3723</v>
       </c>
       <c r="G82" t="n">
+        <v>234.4</v>
+      </c>
+      <c r="H82" t="n">
         <v>236.8666666666667</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3639,21 @@
         <v>2</v>
       </c>
       <c r="G83" t="n">
+        <v>234.2666666666667</v>
+      </c>
+      <c r="H83" t="n">
         <v>236.8</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3677,21 @@
         <v>607.2832618025</v>
       </c>
       <c r="G84" t="n">
+        <v>234.2</v>
+      </c>
+      <c r="H84" t="n">
         <v>236.7333333333333</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3715,21 @@
         <v>463.1389</v>
       </c>
       <c r="G85" t="n">
+        <v>234.0666666666667</v>
+      </c>
+      <c r="H85" t="n">
         <v>236.6333333333333</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3753,21 @@
         <v>2</v>
       </c>
       <c r="G86" t="n">
+        <v>234</v>
+      </c>
+      <c r="H86" t="n">
         <v>236.55</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3791,25 @@
         <v>1104.3312</v>
       </c>
       <c r="G87" t="n">
+        <v>233.9333333333333</v>
+      </c>
+      <c r="H87" t="n">
         <v>236.4666666666667</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>234</v>
+      </c>
+      <c r="L87" t="n">
+        <v>234</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3833,29 @@
         <v>3306.4989</v>
       </c>
       <c r="G88" t="n">
+        <v>233.8666666666667</v>
+      </c>
+      <c r="H88" t="n">
         <v>236.3666666666667</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>234</v>
+      </c>
+      <c r="L88" t="n">
+        <v>234</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3879,27 @@
         <v>2</v>
       </c>
       <c r="G89" t="n">
+        <v>233.8666666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>236.2833333333333</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="L89" t="n">
+        <v>234</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3923,21 @@
         <v>2586.5768</v>
       </c>
       <c r="G90" t="n">
+        <v>233.7333333333333</v>
+      </c>
+      <c r="H90" t="n">
         <v>236.1666666666667</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3961,25 @@
         <v>70</v>
       </c>
       <c r="G91" t="n">
+        <v>233.6</v>
+      </c>
+      <c r="H91" t="n">
         <v>236.0666666666667</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>232</v>
+      </c>
+      <c r="L91" t="n">
+        <v>232</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +4003,27 @@
         <v>1</v>
       </c>
       <c r="G92" t="n">
+        <v>233.6</v>
+      </c>
+      <c r="H92" t="n">
         <v>235.9833333333333</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="L92" t="n">
+        <v>232</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +4047,27 @@
         <v>865.0901</v>
       </c>
       <c r="G93" t="n">
+        <v>233.5333333333333</v>
+      </c>
+      <c r="H93" t="n">
         <v>235.8833333333333</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="L93" t="n">
+        <v>232</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +4091,29 @@
         <v>2</v>
       </c>
       <c r="G94" t="n">
+        <v>233.4666666666667</v>
+      </c>
+      <c r="H94" t="n">
         <v>235.8166666666667</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>233</v>
+      </c>
+      <c r="L94" t="n">
+        <v>232</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +4137,29 @@
         <v>3720.7997</v>
       </c>
       <c r="G95" t="n">
+        <v>233.4</v>
+      </c>
+      <c r="H95" t="n">
         <v>235.7333333333333</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>234</v>
+      </c>
+      <c r="L95" t="n">
+        <v>232</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4183,29 @@
         <v>1</v>
       </c>
       <c r="G96" t="n">
+        <v>233.3333333333333</v>
+      </c>
+      <c r="H96" t="n">
         <v>235.6333333333333</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>233</v>
+      </c>
+      <c r="L96" t="n">
+        <v>232</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4229,29 @@
         <v>132</v>
       </c>
       <c r="G97" t="n">
+        <v>233.4666666666667</v>
+      </c>
+      <c r="H97" t="n">
         <v>235.5333333333333</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>234</v>
+      </c>
+      <c r="L97" t="n">
+        <v>232</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4275,29 @@
         <v>5284.8924</v>
       </c>
       <c r="G98" t="n">
+        <v>233.4666666666667</v>
+      </c>
+      <c r="H98" t="n">
         <v>235.4333333333333</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>234</v>
+      </c>
+      <c r="L98" t="n">
+        <v>232</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4321,27 @@
         <v>131</v>
       </c>
       <c r="G99" t="n">
+        <v>233.4666666666667</v>
+      </c>
+      <c r="H99" t="n">
         <v>235.4333333333333</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="L99" t="n">
+        <v>232</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4365,29 @@
         <v>2</v>
       </c>
       <c r="G100" t="n">
+        <v>233.6</v>
+      </c>
+      <c r="H100" t="n">
         <v>235.4</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>234</v>
+      </c>
+      <c r="L100" t="n">
+        <v>232</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4411,27 @@
         <v>5122.7627</v>
       </c>
       <c r="G101" t="n">
+        <v>233.6666666666667</v>
+      </c>
+      <c r="H101" t="n">
         <v>235.3666666666667</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="L101" t="n">
+        <v>232</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4455,27 @@
         <v>1</v>
       </c>
       <c r="G102" t="n">
+        <v>233.8666666666667</v>
+      </c>
+      <c r="H102" t="n">
         <v>235.3166666666667</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="L102" t="n">
+        <v>232</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4499,27 @@
         <v>239.1065</v>
       </c>
       <c r="G103" t="n">
+        <v>234</v>
+      </c>
+      <c r="H103" t="n">
         <v>235.3166666666667</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="L103" t="n">
+        <v>232</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4543,27 @@
         <v>2</v>
       </c>
       <c r="G104" t="n">
+        <v>234.2</v>
+      </c>
+      <c r="H104" t="n">
         <v>235.3</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="L104" t="n">
+        <v>232</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4587,27 @@
         <v>2</v>
       </c>
       <c r="G105" t="n">
+        <v>234.6</v>
+      </c>
+      <c r="H105" t="n">
         <v>235.25</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="L105" t="n">
+        <v>232</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4631,27 @@
         <v>40.403</v>
       </c>
       <c r="G106" t="n">
+        <v>234.7333333333333</v>
+      </c>
+      <c r="H106" t="n">
         <v>235.1333333333333</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="L106" t="n">
+        <v>232</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4675,27 @@
         <v>1</v>
       </c>
       <c r="G107" t="n">
+        <v>234.9333333333333</v>
+      </c>
+      <c r="H107" t="n">
         <v>235.05</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="L107" t="n">
+        <v>232</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4719,27 @@
         <v>3</v>
       </c>
       <c r="G108" t="n">
+        <v>235.2666666666667</v>
+      </c>
+      <c r="H108" t="n">
         <v>234.9666666666667</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="L108" t="n">
+        <v>232</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4763,27 @@
         <v>579.6706</v>
       </c>
       <c r="G109" t="n">
+        <v>235.3333333333333</v>
+      </c>
+      <c r="H109" t="n">
         <v>234.9</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
-        <v>1</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="L109" t="n">
+        <v>232</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4807,27 @@
         <v>541.1623</v>
       </c>
       <c r="G110" t="n">
+        <v>235.6666666666667</v>
+      </c>
+      <c r="H110" t="n">
         <v>234.9333333333333</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="L110" t="n">
+        <v>232</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4851,27 @@
         <v>2930.7666</v>
       </c>
       <c r="G111" t="n">
+        <v>235.9333333333333</v>
+      </c>
+      <c r="H111" t="n">
         <v>234.9333333333333</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="L111" t="n">
+        <v>232</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4895,27 @@
         <v>1119.3357</v>
       </c>
       <c r="G112" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="H112" t="n">
         <v>234.95</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="L112" t="n">
+        <v>232</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4939,27 @@
         <v>11</v>
       </c>
       <c r="G113" t="n">
+        <v>236.4666666666667</v>
+      </c>
+      <c r="H113" t="n">
         <v>234.9666666666667</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
-        <v>1</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="L113" t="n">
+        <v>232</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4983,27 @@
         <v>3</v>
       </c>
       <c r="G114" t="n">
+        <v>236.8</v>
+      </c>
+      <c r="H114" t="n">
         <v>235.0166666666667</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="L114" t="n">
+        <v>232</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +5027,27 @@
         <v>4</v>
       </c>
       <c r="G115" t="n">
+        <v>237.0666666666667</v>
+      </c>
+      <c r="H115" t="n">
         <v>235.0333333333333</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="L115" t="n">
+        <v>232</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +5071,27 @@
         <v>23603.8136</v>
       </c>
       <c r="G116" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="L116" t="n">
+        <v>232</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +5115,27 @@
         <v>2</v>
       </c>
       <c r="G117" t="n">
+        <v>237.0666666666667</v>
+      </c>
+      <c r="H117" t="n">
         <v>235.0666666666667</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="L117" t="n">
+        <v>232</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +5159,27 @@
         <v>211.85</v>
       </c>
       <c r="G118" t="n">
+        <v>237.2</v>
+      </c>
+      <c r="H118" t="n">
         <v>235.1166666666667</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="L118" t="n">
+        <v>232</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +5203,27 @@
         <v>1664.9999</v>
       </c>
       <c r="G119" t="n">
+        <v>237.2</v>
+      </c>
+      <c r="H119" t="n">
         <v>235.1666666666667</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="L119" t="n">
+        <v>232</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +5247,27 @@
         <v>0.0001</v>
       </c>
       <c r="G120" t="n">
+        <v>237.1333333333333</v>
+      </c>
+      <c r="H120" t="n">
         <v>235.2166666666667</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="L120" t="n">
+        <v>232</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +5291,27 @@
         <v>3192</v>
       </c>
       <c r="G121" t="n">
+        <v>237.3333333333333</v>
+      </c>
+      <c r="H121" t="n">
         <v>235.2</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="L121" t="n">
+        <v>232</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5335,27 @@
         <v>1</v>
       </c>
       <c r="G122" t="n">
+        <v>237.4</v>
+      </c>
+      <c r="H122" t="n">
         <v>235.25</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="L122" t="n">
+        <v>232</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5379,27 @@
         <v>220.8662</v>
       </c>
       <c r="G123" t="n">
+        <v>237.2666666666667</v>
+      </c>
+      <c r="H123" t="n">
         <v>235.2666666666667</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="L123" t="n">
+        <v>232</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5423,27 @@
         <v>1941.2724</v>
       </c>
       <c r="G124" t="n">
+        <v>237.4</v>
+      </c>
+      <c r="H124" t="n">
         <v>235.2666666666667</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="L124" t="n">
+        <v>232</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5467,27 @@
         <v>46.7477</v>
       </c>
       <c r="G125" t="n">
+        <v>237.2</v>
+      </c>
+      <c r="H125" t="n">
         <v>235.2333333333333</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="L125" t="n">
+        <v>232</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5511,27 @@
         <v>1</v>
       </c>
       <c r="G126" t="n">
+        <v>237</v>
+      </c>
+      <c r="H126" t="n">
         <v>235.2333333333333</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="L126" t="n">
+        <v>232</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5555,27 @@
         <v>433.1299</v>
       </c>
       <c r="G127" t="n">
+        <v>236.8</v>
+      </c>
+      <c r="H127" t="n">
         <v>235.2166666666667</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="L127" t="n">
+        <v>232</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,22 +5599,27 @@
         <v>774.2322</v>
       </c>
       <c r="G128" t="n">
+        <v>236.6</v>
+      </c>
+      <c r="H128" t="n">
         <v>235.2</v>
       </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>235</v>
-      </c>
-      <c r="K128" t="n">
-        <v>235</v>
-      </c>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>232</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4897,24 +5643,29 @@
         <v>68</v>
       </c>
       <c r="G129" t="n">
+        <v>236.3333333333333</v>
+      </c>
+      <c r="H129" t="n">
         <v>235.2</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="n">
         <v>235</v>
       </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="L129" t="n">
+        <v>232</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4938,26 +5689,27 @@
         <v>1</v>
       </c>
       <c r="G130" t="n">
+        <v>236.0666666666667</v>
+      </c>
+      <c r="H130" t="n">
         <v>235.2</v>
       </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>235</v>
-      </c>
-      <c r="K130" t="n">
-        <v>235</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>232</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4981,18 +5733,29 @@
         <v>2052.6157</v>
       </c>
       <c r="G131" t="n">
+        <v>236.1333333333333</v>
+      </c>
+      <c r="H131" t="n">
         <v>235.2</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>235</v>
+      </c>
+      <c r="L131" t="n">
+        <v>232</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5016,18 +5779,29 @@
         <v>1</v>
       </c>
       <c r="G132" t="n">
+        <v>236</v>
+      </c>
+      <c r="H132" t="n">
         <v>235.2166666666667</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="n">
+        <v>235</v>
+      </c>
+      <c r="L132" t="n">
+        <v>232</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5051,18 +5825,29 @@
         <v>44.7477</v>
       </c>
       <c r="G133" t="n">
+        <v>235.9333333333333</v>
+      </c>
+      <c r="H133" t="n">
         <v>235.25</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>236</v>
+      </c>
+      <c r="L133" t="n">
+        <v>232</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5086,18 +5871,27 @@
         <v>2</v>
       </c>
       <c r="G134" t="n">
+        <v>235.9333333333333</v>
+      </c>
+      <c r="H134" t="n">
         <v>235.3</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="L134" t="n">
+        <v>232</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5121,18 +5915,27 @@
         <v>5877.9822</v>
       </c>
       <c r="G135" t="n">
+        <v>236</v>
+      </c>
+      <c r="H135" t="n">
         <v>235.3666666666667</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="L135" t="n">
+        <v>232</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5156,18 +5959,27 @@
         <v>46.8824</v>
       </c>
       <c r="G136" t="n">
+        <v>235.9333333333333</v>
+      </c>
+      <c r="H136" t="n">
         <v>235.4</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="L136" t="n">
+        <v>232</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5191,18 +6003,29 @@
         <v>46.8824</v>
       </c>
       <c r="G137" t="n">
+        <v>235.7333333333333</v>
+      </c>
+      <c r="H137" t="n">
         <v>235.4166666666667</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>236</v>
+      </c>
+      <c r="L137" t="n">
+        <v>232</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5226,18 +6049,483 @@
         <v>2</v>
       </c>
       <c r="G138" t="n">
+        <v>235.7333333333333</v>
+      </c>
+      <c r="H138" t="n">
         <v>235.45</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>235</v>
+      </c>
+      <c r="L138" t="n">
+        <v>232</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>238</v>
+      </c>
+      <c r="C139" t="n">
+        <v>236</v>
+      </c>
+      <c r="D139" t="n">
+        <v>238</v>
+      </c>
+      <c r="E139" t="n">
+        <v>236</v>
+      </c>
+      <c r="F139" t="n">
+        <v>45.5424</v>
+      </c>
+      <c r="G139" t="n">
+        <v>235.6666666666667</v>
+      </c>
+      <c r="H139" t="n">
+        <v>235.4666666666667</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>236</v>
+      </c>
+      <c r="L139" t="n">
+        <v>232</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>236</v>
+      </c>
+      <c r="C140" t="n">
+        <v>236</v>
+      </c>
+      <c r="D140" t="n">
+        <v>236</v>
+      </c>
+      <c r="E140" t="n">
+        <v>236</v>
+      </c>
+      <c r="F140" t="n">
+        <v>5989.5725</v>
+      </c>
+      <c r="G140" t="n">
+        <v>235.7333333333333</v>
+      </c>
+      <c r="H140" t="n">
+        <v>235.5</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="n">
+        <v>236</v>
+      </c>
+      <c r="L140" t="n">
+        <v>232</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>236</v>
+      </c>
+      <c r="C141" t="n">
+        <v>236</v>
+      </c>
+      <c r="D141" t="n">
+        <v>236</v>
+      </c>
+      <c r="E141" t="n">
+        <v>236</v>
+      </c>
+      <c r="F141" t="n">
+        <v>938.9999</v>
+      </c>
+      <c r="G141" t="n">
+        <v>235.8</v>
+      </c>
+      <c r="H141" t="n">
+        <v>235.5166666666667</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>236</v>
+      </c>
+      <c r="L141" t="n">
+        <v>232</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>236</v>
+      </c>
+      <c r="C142" t="n">
+        <v>236</v>
+      </c>
+      <c r="D142" t="n">
+        <v>236</v>
+      </c>
+      <c r="E142" t="n">
+        <v>236</v>
+      </c>
+      <c r="F142" t="n">
+        <v>940</v>
+      </c>
+      <c r="G142" t="n">
+        <v>235.8666666666667</v>
+      </c>
+      <c r="H142" t="n">
+        <v>235.5833333333333</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>236</v>
+      </c>
+      <c r="L142" t="n">
+        <v>232</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>238</v>
+      </c>
+      <c r="C143" t="n">
+        <v>238</v>
+      </c>
+      <c r="D143" t="n">
+        <v>238</v>
+      </c>
+      <c r="E143" t="n">
+        <v>238</v>
+      </c>
+      <c r="F143" t="n">
+        <v>2</v>
+      </c>
+      <c r="G143" t="n">
+        <v>236.0666666666667</v>
+      </c>
+      <c r="H143" t="n">
+        <v>235.65</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>236</v>
+      </c>
+      <c r="L143" t="n">
+        <v>232</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>236</v>
+      </c>
+      <c r="C144" t="n">
+        <v>236</v>
+      </c>
+      <c r="D144" t="n">
+        <v>236</v>
+      </c>
+      <c r="E144" t="n">
+        <v>236</v>
+      </c>
+      <c r="F144" t="n">
+        <v>4476.9109</v>
+      </c>
+      <c r="G144" t="n">
+        <v>236.1333333333333</v>
+      </c>
+      <c r="H144" t="n">
+        <v>235.6833333333333</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>232</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>238</v>
+      </c>
+      <c r="C145" t="n">
+        <v>238</v>
+      </c>
+      <c r="D145" t="n">
+        <v>238</v>
+      </c>
+      <c r="E145" t="n">
+        <v>238</v>
+      </c>
+      <c r="F145" t="n">
+        <v>3</v>
+      </c>
+      <c r="G145" t="n">
+        <v>236.3333333333333</v>
+      </c>
+      <c r="H145" t="n">
+        <v>235.7666666666667</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>232</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>236</v>
+      </c>
+      <c r="C146" t="n">
+        <v>235</v>
+      </c>
+      <c r="D146" t="n">
+        <v>236</v>
+      </c>
+      <c r="E146" t="n">
+        <v>235</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2773.3049</v>
+      </c>
+      <c r="G146" t="n">
+        <v>236.3333333333333</v>
+      </c>
+      <c r="H146" t="n">
+        <v>235.7833333333333</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>232</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>236</v>
+      </c>
+      <c r="C147" t="n">
+        <v>236</v>
+      </c>
+      <c r="D147" t="n">
+        <v>236</v>
+      </c>
+      <c r="E147" t="n">
+        <v>236</v>
+      </c>
+      <c r="F147" t="n">
+        <v>3</v>
+      </c>
+      <c r="G147" t="n">
+        <v>236.3333333333333</v>
+      </c>
+      <c r="H147" t="n">
+        <v>235.8166666666667</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>235</v>
+      </c>
+      <c r="L147" t="n">
+        <v>232</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>236</v>
+      </c>
+      <c r="C148" t="n">
+        <v>236</v>
+      </c>
+      <c r="D148" t="n">
+        <v>236</v>
+      </c>
+      <c r="E148" t="n">
+        <v>236</v>
+      </c>
+      <c r="F148" t="n">
+        <v>8305.5597</v>
+      </c>
+      <c r="G148" t="n">
+        <v>236.3333333333333</v>
+      </c>
+      <c r="H148" t="n">
+        <v>235.8666666666667</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>236</v>
+      </c>
+      <c r="L148" t="n">
+        <v>232</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-21 BackTest INS.xlsx
+++ b/BackTest/2019-10-21 BackTest INS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M177"/>
+  <dimension ref="A1:N135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C2" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D2" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E2" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F2" t="n">
-        <v>798.6667</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>-29116.72787786169</v>
+        <v>-6662.469977861685</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C3" t="n">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D3" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E3" t="n">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F3" t="n">
-        <v>1097.3493</v>
+        <v>1677.2426</v>
       </c>
       <c r="G3" t="n">
-        <v>-30214.07717786169</v>
+        <v>-6662.469977861685</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C4" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D4" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E4" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F4" t="n">
-        <v>4280.2809</v>
+        <v>2315.505</v>
       </c>
       <c r="G4" t="n">
-        <v>-30214.07717786169</v>
+        <v>-8977.974977861686</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -541,19 +549,19 @@
         <v>237</v>
       </c>
       <c r="C5" t="n">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D5" t="n">
         <v>237</v>
       </c>
       <c r="E5" t="n">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F5" t="n">
-        <v>45.2444</v>
+        <v>12515.3937</v>
       </c>
       <c r="G5" t="n">
-        <v>-30168.83277786169</v>
+        <v>-21493.36867786169</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C6" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D6" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E6" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F6" t="n">
-        <v>217.1149</v>
+        <v>436.79357521</v>
       </c>
       <c r="G6" t="n">
-        <v>-30385.9476778617</v>
+        <v>-21056.57510265169</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,10 +630,10 @@
         <v>237</v>
       </c>
       <c r="F7" t="n">
-        <v>333.0999</v>
+        <v>408.975</v>
       </c>
       <c r="G7" t="n">
-        <v>-30052.84777786169</v>
+        <v>-21465.55010265169</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C8" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D8" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E8" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F8" t="n">
-        <v>29.4346</v>
+        <v>642.6656</v>
       </c>
       <c r="G8" t="n">
-        <v>-30082.28237786169</v>
+        <v>-20822.88450265169</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C9" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D9" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E9" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F9" t="n">
-        <v>1519</v>
+        <v>1531</v>
       </c>
       <c r="G9" t="n">
-        <v>-28563.28237786169</v>
+        <v>-20822.88450265169</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C10" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D10" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E10" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F10" t="n">
-        <v>1491.059</v>
+        <v>585</v>
       </c>
       <c r="G10" t="n">
-        <v>-28563.28237786169</v>
+        <v>-20822.88450265169</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C11" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D11" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E11" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F11" t="n">
-        <v>4450.6016</v>
+        <v>199</v>
       </c>
       <c r="G11" t="n">
-        <v>-28563.28237786169</v>
+        <v>-20822.88450265169</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C12" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D12" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E12" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F12" t="n">
-        <v>436.1308</v>
+        <v>363.1229</v>
       </c>
       <c r="G12" t="n">
-        <v>-28127.1515778617</v>
+        <v>-20459.76160265169</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C13" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D13" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E13" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F13" t="n">
-        <v>3863.1317</v>
+        <v>789.2367</v>
       </c>
       <c r="G13" t="n">
-        <v>-31990.28327786169</v>
+        <v>-20459.76160265169</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C14" t="n">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D14" t="n">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E14" t="n">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F14" t="n">
-        <v>43.422</v>
+        <v>537.3440004184</v>
       </c>
       <c r="G14" t="n">
-        <v>-32033.70527786169</v>
+        <v>-20459.76160265169</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C15" t="n">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D15" t="n">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E15" t="n">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F15" t="n">
-        <v>5949.5563</v>
+        <v>428.5685</v>
       </c>
       <c r="G15" t="n">
-        <v>-32033.70527786169</v>
+        <v>-20459.76160265169</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C16" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D16" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E16" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>592.1776</v>
       </c>
       <c r="G16" t="n">
-        <v>-32031.70527786169</v>
+        <v>-20459.76160265169</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C17" t="n">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D17" t="n">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E17" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F17" t="n">
-        <v>1495.507</v>
+        <v>1767.7874</v>
       </c>
       <c r="G17" t="n">
-        <v>-33527.21227786169</v>
+        <v>-20459.76160265169</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C18" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D18" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E18" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F18" t="n">
-        <v>136.1942</v>
+        <v>134.954</v>
       </c>
       <c r="G18" t="n">
-        <v>-33663.40647786169</v>
+        <v>-20594.71560265169</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C19" t="n">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D19" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E19" t="n">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F19" t="n">
-        <v>4659.3278</v>
+        <v>9.95816e-05</v>
       </c>
       <c r="G19" t="n">
-        <v>-38322.73427786169</v>
+        <v>-20594.71550307009</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C20" t="n">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D20" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E20" t="n">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F20" t="n">
-        <v>9305.8606</v>
+        <v>381.1143</v>
       </c>
       <c r="G20" t="n">
-        <v>-38322.73427786169</v>
+        <v>-20594.71550307009</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C21" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D21" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E21" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F21" t="n">
-        <v>3455.1816</v>
+        <v>54.5873</v>
       </c>
       <c r="G21" t="n">
-        <v>-34867.55267786169</v>
+        <v>-20649.30280307009</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C22" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D22" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E22" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F22" t="n">
-        <v>1649.1594</v>
+        <v>537.9078</v>
       </c>
       <c r="G22" t="n">
-        <v>-36516.71207786169</v>
+        <v>-20649.30280307009</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C23" t="n">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D23" t="n">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E23" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F23" t="n">
-        <v>430.129</v>
+        <v>512</v>
       </c>
       <c r="G23" t="n">
-        <v>-36516.71207786169</v>
+        <v>-20137.30280307009</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C24" t="n">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D24" t="n">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E24" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F24" t="n">
-        <v>530.0872000000001</v>
+        <v>260.198</v>
       </c>
       <c r="G24" t="n">
-        <v>-36516.71207786169</v>
+        <v>-20137.30280307009</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C25" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D25" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E25" t="n">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="F25" t="n">
-        <v>20287.9788</v>
+        <v>3</v>
       </c>
       <c r="G25" t="n">
-        <v>-16228.73327786169</v>
+        <v>-20137.30280307009</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C26" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D26" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E26" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F26" t="n">
-        <v>681.814</v>
+        <v>14338.7007</v>
       </c>
       <c r="G26" t="n">
-        <v>-16910.54727786169</v>
+        <v>-34476.00350307009</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C27" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D27" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E27" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F27" t="n">
-        <v>920.154</v>
+        <v>875.2625</v>
       </c>
       <c r="G27" t="n">
-        <v>-17830.70127786168</v>
+        <v>-33600.74100307009</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C28" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D28" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E28" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F28" t="n">
-        <v>429.1287</v>
+        <v>648.9046</v>
       </c>
       <c r="G28" t="n">
-        <v>-17830.70127786168</v>
+        <v>-33600.74100307009</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C29" t="n">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D29" t="n">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="E29" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F29" t="n">
-        <v>3412.0235</v>
+        <v>1787.7893</v>
       </c>
       <c r="G29" t="n">
-        <v>-17830.70127786168</v>
+        <v>-31812.95170307009</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C30" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D30" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E30" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F30" t="n">
-        <v>6470.0121</v>
+        <v>15584.9444</v>
       </c>
       <c r="G30" t="n">
-        <v>-17830.70127786168</v>
+        <v>-47397.89610307009</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C31" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D31" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E31" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F31" t="n">
-        <v>969.0272</v>
+        <v>938.1998</v>
       </c>
       <c r="G31" t="n">
-        <v>-17830.70127786168</v>
+        <v>-46459.69630307009</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C32" t="n">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="D32" t="n">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="E32" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F32" t="n">
-        <v>1067.5071</v>
+        <v>3383.8097</v>
       </c>
       <c r="G32" t="n">
-        <v>-17830.70127786168</v>
+        <v>-43075.88660307009</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="C33" t="n">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="D33" t="n">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="E33" t="n">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="F33" t="n">
-        <v>1328.4759</v>
+        <v>734.2202</v>
       </c>
       <c r="G33" t="n">
-        <v>-17830.70127786168</v>
+        <v>-43075.88660307009</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,34 +1583,35 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="C34" t="n">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="D34" t="n">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="E34" t="n">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="F34" t="n">
-        <v>420.126</v>
+        <v>13904.8471</v>
       </c>
       <c r="G34" t="n">
-        <v>-17830.70127786168</v>
+        <v>-29171.03950307009</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1582,34 +1619,35 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="C35" t="n">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="D35" t="n">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="E35" t="n">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="F35" t="n">
-        <v>5731.952</v>
+        <v>18409.2551</v>
       </c>
       <c r="G35" t="n">
-        <v>-17830.70127786168</v>
+        <v>-10761.78440307009</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1617,34 +1655,35 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="C36" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D36" t="n">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="E36" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="F36" t="n">
-        <v>1373.2427</v>
+        <v>2200.2646</v>
       </c>
       <c r="G36" t="n">
-        <v>-17830.70127786168</v>
+        <v>-12962.04900307009</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1652,34 +1691,35 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C37" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D37" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E37" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F37" t="n">
-        <v>1302.3299</v>
+        <v>515.1662</v>
       </c>
       <c r="G37" t="n">
-        <v>-17830.70127786168</v>
+        <v>-13477.21520307009</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1687,34 +1727,35 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C38" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D38" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E38" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F38" t="n">
-        <v>4025.6412</v>
+        <v>42.1234</v>
       </c>
       <c r="G38" t="n">
-        <v>-17830.70127786168</v>
+        <v>-13435.09180307009</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1722,34 +1763,35 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C39" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D39" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E39" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F39" t="n">
-        <v>2668.8837</v>
+        <v>226.6328</v>
       </c>
       <c r="G39" t="n">
-        <v>-17830.70127786168</v>
+        <v>-13661.72460307009</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1757,34 +1799,35 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C40" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D40" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E40" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F40" t="n">
-        <v>1741.6227</v>
+        <v>1432.05</v>
       </c>
       <c r="G40" t="n">
-        <v>-16089.07857786168</v>
+        <v>-13661.72460307009</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1792,6 +1835,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1810,16 +1854,16 @@
         <v>236</v>
       </c>
       <c r="F41" t="n">
-        <v>1565.6227</v>
+        <v>409.0527</v>
       </c>
       <c r="G41" t="n">
-        <v>-14523.45587786168</v>
+        <v>-14070.77730307009</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1827,28 +1871,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C42" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D42" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E42" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F42" t="n">
-        <v>3359.6834</v>
+        <v>204</v>
       </c>
       <c r="G42" t="n">
-        <v>-11163.77247786168</v>
+        <v>-13866.77730307009</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,28 +1907,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C43" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D43" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E43" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F43" t="n">
-        <v>4500.3025</v>
+        <v>205</v>
       </c>
       <c r="G43" t="n">
-        <v>-6663.469977861685</v>
+        <v>-14071.77730307009</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,28 +1943,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C44" t="n">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D44" t="n">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E44" t="n">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>1002.3219</v>
       </c>
       <c r="G44" t="n">
-        <v>-6662.469977861685</v>
+        <v>-15074.09920307009</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,28 +1979,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C45" t="n">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D45" t="n">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E45" t="n">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F45" t="n">
-        <v>1677.2426</v>
+        <v>328</v>
       </c>
       <c r="G45" t="n">
-        <v>-6662.469977861685</v>
+        <v>-15074.09920307009</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,28 +2015,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C46" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D46" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E46" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F46" t="n">
-        <v>2315.505</v>
+        <v>182.0546</v>
       </c>
       <c r="G46" t="n">
-        <v>-8977.974977861686</v>
+        <v>-15074.09920307009</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,28 +2051,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C47" t="n">
         <v>234</v>
       </c>
       <c r="D47" t="n">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E47" t="n">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F47" t="n">
-        <v>12515.3937</v>
+        <v>10991.8588</v>
       </c>
       <c r="G47" t="n">
-        <v>-21493.36867786169</v>
+        <v>-15074.09920307009</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,13 +2087,14 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C48" t="n">
         <v>238</v>
@@ -2052,13 +2103,13 @@
         <v>238</v>
       </c>
       <c r="E48" t="n">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F48" t="n">
-        <v>436.79357521</v>
+        <v>1336.5468</v>
       </c>
       <c r="G48" t="n">
-        <v>-21056.57510265169</v>
+        <v>-13737.55240307009</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,28 +2123,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C49" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D49" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E49" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F49" t="n">
-        <v>408.975</v>
+        <v>1201.2198</v>
       </c>
       <c r="G49" t="n">
-        <v>-21465.55010265169</v>
+        <v>-14938.77220307009</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,28 +2159,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C50" t="n">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D50" t="n">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E50" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F50" t="n">
-        <v>642.6656</v>
+        <v>212</v>
       </c>
       <c r="G50" t="n">
-        <v>-20822.88450265169</v>
+        <v>-14938.77220307009</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,28 +2195,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C51" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D51" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E51" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F51" t="n">
-        <v>1531</v>
+        <v>46.3414</v>
       </c>
       <c r="G51" t="n">
-        <v>-20822.88450265169</v>
+        <v>-14892.43080307009</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,28 +2231,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C52" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D52" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E52" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F52" t="n">
-        <v>585</v>
+        <v>2535.8672</v>
       </c>
       <c r="G52" t="n">
-        <v>-20822.88450265169</v>
+        <v>-14892.43080307009</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,28 +2267,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C53" t="n">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D53" t="n">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E53" t="n">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F53" t="n">
-        <v>199</v>
+        <v>178.55</v>
       </c>
       <c r="G53" t="n">
-        <v>-20822.88450265169</v>
+        <v>-15070.98080307009</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,28 +2303,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C54" t="n">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D54" t="n">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E54" t="n">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F54" t="n">
-        <v>363.1229</v>
+        <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>-20459.76160265169</v>
+        <v>-15069.98080307009</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,28 +2339,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C55" t="n">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D55" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E55" t="n">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F55" t="n">
-        <v>789.2367</v>
+        <v>10708.2599</v>
       </c>
       <c r="G55" t="n">
-        <v>-20459.76160265169</v>
+        <v>-15069.98080307009</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,28 +2375,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C56" t="n">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D56" t="n">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E56" t="n">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F56" t="n">
-        <v>537.3440004184</v>
+        <v>924000</v>
       </c>
       <c r="G56" t="n">
-        <v>-20459.76160265169</v>
+        <v>-939069.9808030701</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,28 +2411,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C57" t="n">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D57" t="n">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E57" t="n">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F57" t="n">
-        <v>428.5685</v>
+        <v>1911000</v>
       </c>
       <c r="G57" t="n">
-        <v>-20459.76160265169</v>
+        <v>-939069.9808030701</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2387,28 +2447,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C58" t="n">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D58" t="n">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E58" t="n">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F58" t="n">
-        <v>592.1776</v>
+        <v>1043978.1043</v>
       </c>
       <c r="G58" t="n">
-        <v>-20459.76160265169</v>
+        <v>-939069.9808030701</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2422,28 +2483,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C59" t="n">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D59" t="n">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E59" t="n">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F59" t="n">
-        <v>1767.7874</v>
+        <v>564.1686</v>
       </c>
       <c r="G59" t="n">
-        <v>-20459.76160265169</v>
+        <v>-939069.9808030701</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,28 +2519,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C60" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D60" t="n">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E60" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F60" t="n">
-        <v>134.954</v>
+        <v>728003</v>
       </c>
       <c r="G60" t="n">
-        <v>-20594.71560265169</v>
+        <v>-1667072.98080307</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,28 +2555,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C61" t="n">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D61" t="n">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E61" t="n">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F61" t="n">
-        <v>9.95816e-05</v>
+        <v>2212974.7033</v>
       </c>
       <c r="G61" t="n">
-        <v>-20594.71550307009</v>
+        <v>-1667072.98080307</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,28 +2591,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C62" t="n">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D62" t="n">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E62" t="n">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F62" t="n">
-        <v>381.1143</v>
+        <v>2176003</v>
       </c>
       <c r="G62" t="n">
-        <v>-20594.71550307009</v>
+        <v>-1667072.98080307</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,28 +2627,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C63" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D63" t="n">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E63" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F63" t="n">
-        <v>54.5873</v>
+        <v>2184006</v>
       </c>
       <c r="G63" t="n">
-        <v>-20649.30280307009</v>
+        <v>-1667072.98080307</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,28 +2663,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C64" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D64" t="n">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E64" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F64" t="n">
-        <v>537.9078</v>
+        <v>2176001</v>
       </c>
       <c r="G64" t="n">
-        <v>-20649.30280307009</v>
+        <v>-1667072.98080307</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,28 +2699,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C65" t="n">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D65" t="n">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E65" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F65" t="n">
-        <v>512</v>
+        <v>8000</v>
       </c>
       <c r="G65" t="n">
-        <v>-20137.30280307009</v>
+        <v>-1667072.98080307</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,28 +2735,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C66" t="n">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D66" t="n">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E66" t="n">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F66" t="n">
-        <v>260.198</v>
+        <v>1877.164</v>
       </c>
       <c r="G66" t="n">
-        <v>-20137.30280307009</v>
+        <v>-1665195.81680307</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,28 +2771,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C67" t="n">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D67" t="n">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E67" t="n">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="F67" t="n">
-        <v>3</v>
+        <v>18365.2319</v>
       </c>
       <c r="G67" t="n">
-        <v>-20137.30280307009</v>
+        <v>-1683561.04870307</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2737,28 +2807,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C68" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D68" t="n">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E68" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F68" t="n">
-        <v>14338.7007</v>
+        <v>5330.235</v>
       </c>
       <c r="G68" t="n">
-        <v>-34476.00350307009</v>
+        <v>-1678230.81370307</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,28 +2843,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C69" t="n">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D69" t="n">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E69" t="n">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F69" t="n">
-        <v>875.2625</v>
+        <v>488.3723</v>
       </c>
       <c r="G69" t="n">
-        <v>-33600.74100307009</v>
+        <v>-1678719.18600307</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2807,28 +2879,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C70" t="n">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D70" t="n">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E70" t="n">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F70" t="n">
-        <v>648.9046</v>
+        <v>2</v>
       </c>
       <c r="G70" t="n">
-        <v>-33600.74100307009</v>
+        <v>-1678717.18600307</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,28 +2915,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C71" t="n">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D71" t="n">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E71" t="n">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F71" t="n">
-        <v>1787.7893</v>
+        <v>607.2832618025</v>
       </c>
       <c r="G71" t="n">
-        <v>-31812.95170307009</v>
+        <v>-1678717.18600307</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2877,28 +2951,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C72" t="n">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D72" t="n">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E72" t="n">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F72" t="n">
-        <v>15584.9444</v>
+        <v>463.1389</v>
       </c>
       <c r="G72" t="n">
-        <v>-47397.89610307009</v>
+        <v>-1679180.32490307</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2912,28 +2987,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C73" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D73" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E73" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F73" t="n">
-        <v>938.1998</v>
+        <v>2</v>
       </c>
       <c r="G73" t="n">
-        <v>-46459.69630307009</v>
+        <v>-1679178.32490307</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,28 +3023,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C74" t="n">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D74" t="n">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E74" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F74" t="n">
-        <v>3383.8097</v>
+        <v>1104.3312</v>
       </c>
       <c r="G74" t="n">
-        <v>-43075.88660307009</v>
+        <v>-1679178.32490307</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2982,28 +3059,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C75" t="n">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D75" t="n">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E75" t="n">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="F75" t="n">
-        <v>734.2202</v>
+        <v>3306.4989</v>
       </c>
       <c r="G75" t="n">
-        <v>-43075.88660307009</v>
+        <v>-1682484.82380307</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,28 +3095,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C76" t="n">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D76" t="n">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="E76" t="n">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F76" t="n">
-        <v>13904.8471</v>
+        <v>2</v>
       </c>
       <c r="G76" t="n">
-        <v>-29171.03950307009</v>
+        <v>-1682482.82380307</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3052,28 +3131,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C77" t="n">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="D77" t="n">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E77" t="n">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="F77" t="n">
-        <v>18409.2551</v>
+        <v>2586.5768</v>
       </c>
       <c r="G77" t="n">
-        <v>-10761.78440307009</v>
+        <v>-1685069.40060307</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3087,34 +3167,35 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C78" t="n">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D78" t="n">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="E78" t="n">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F78" t="n">
-        <v>2200.2646</v>
+        <v>70</v>
       </c>
       <c r="G78" t="n">
-        <v>-12962.04900307009</v>
+        <v>-1685069.40060307</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3122,28 +3203,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C79" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D79" t="n">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E79" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F79" t="n">
-        <v>515.1662</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>-13477.21520307009</v>
+        <v>-1685068.40060307</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3157,28 +3239,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C80" t="n">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D80" t="n">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E80" t="n">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F80" t="n">
-        <v>42.1234</v>
+        <v>865.0901</v>
       </c>
       <c r="G80" t="n">
-        <v>-13435.09180307009</v>
+        <v>-1685933.49070307</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3192,28 +3275,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C81" t="n">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D81" t="n">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E81" t="n">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F81" t="n">
-        <v>226.6328</v>
+        <v>2</v>
       </c>
       <c r="G81" t="n">
-        <v>-13661.72460307009</v>
+        <v>-1685931.49070307</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3227,98 +3311,113 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C82" t="n">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D82" t="n">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E82" t="n">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F82" t="n">
-        <v>1432.05</v>
+        <v>3720.7997</v>
       </c>
       <c r="G82" t="n">
-        <v>-13661.72460307009</v>
+        <v>-1689652.29040307</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>234</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C83" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D83" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E83" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F83" t="n">
-        <v>409.0527</v>
+        <v>1</v>
       </c>
       <c r="G83" t="n">
-        <v>-14070.77730307009</v>
+        <v>-1689651.29040307</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>233</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C84" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D84" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E84" t="n">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F84" t="n">
-        <v>204</v>
+        <v>132</v>
       </c>
       <c r="G84" t="n">
-        <v>-13866.77730307009</v>
+        <v>-1689651.29040307</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3328,207 +3427,247 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C85" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D85" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E85" t="n">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F85" t="n">
-        <v>205</v>
+        <v>5284.8924</v>
       </c>
       <c r="G85" t="n">
-        <v>-14071.77730307009</v>
+        <v>-1689651.29040307</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>234</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C86" t="n">
         <v>234</v>
       </c>
       <c r="D86" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E86" t="n">
         <v>234</v>
       </c>
       <c r="F86" t="n">
-        <v>1002.3219</v>
+        <v>131</v>
       </c>
       <c r="G86" t="n">
-        <v>-15074.09920307009</v>
+        <v>-1689651.29040307</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>234</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C87" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D87" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E87" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F87" t="n">
-        <v>328</v>
+        <v>2</v>
       </c>
       <c r="G87" t="n">
-        <v>-15074.09920307009</v>
+        <v>-1689649.29040307</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>234</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C88" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D88" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E88" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F88" t="n">
-        <v>182.0546</v>
+        <v>5122.7627</v>
       </c>
       <c r="G88" t="n">
-        <v>-15074.09920307009</v>
+        <v>-1689649.29040307</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>235</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C89" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D89" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E89" t="n">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="F89" t="n">
-        <v>10991.8588</v>
+        <v>1</v>
       </c>
       <c r="G89" t="n">
-        <v>-15074.09920307009</v>
+        <v>-1689648.29040307</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>235</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C90" t="n">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D90" t="n">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E90" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F90" t="n">
-        <v>1336.5468</v>
+        <v>239.1065</v>
       </c>
       <c r="G90" t="n">
-        <v>-13737.55240307009</v>
+        <v>-1689887.39690307</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3538,32 +3677,37 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C91" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D91" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E91" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F91" t="n">
-        <v>1201.2198</v>
+        <v>2</v>
       </c>
       <c r="G91" t="n">
-        <v>-14938.77220307009</v>
+        <v>-1689885.39690307</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3573,32 +3717,37 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C92" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D92" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E92" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F92" t="n">
-        <v>212</v>
+        <v>2</v>
       </c>
       <c r="G92" t="n">
-        <v>-14938.77220307009</v>
+        <v>-1689883.39690307</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3608,32 +3757,37 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C93" t="n">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D93" t="n">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E93" t="n">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F93" t="n">
-        <v>46.3414</v>
+        <v>40.403</v>
       </c>
       <c r="G93" t="n">
-        <v>-14892.43080307009</v>
+        <v>-1689923.79990307</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3643,10 +3797,15 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3665,10 +3824,10 @@
         <v>237</v>
       </c>
       <c r="F94" t="n">
-        <v>2535.8672</v>
+        <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>-14892.43080307009</v>
+        <v>-1689922.79990307</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3678,32 +3837,37 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C95" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D95" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E95" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F95" t="n">
-        <v>178.55</v>
+        <v>3</v>
       </c>
       <c r="G95" t="n">
-        <v>-15070.98080307009</v>
+        <v>-1689919.79990307</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3713,32 +3877,37 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C96" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D96" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E96" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F96" t="n">
-        <v>1</v>
+        <v>579.6706</v>
       </c>
       <c r="G96" t="n">
-        <v>-15069.98080307009</v>
+        <v>-1690499.47050307</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3748,32 +3917,37 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C97" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D97" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E97" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F97" t="n">
-        <v>10708.2599</v>
+        <v>541.1623</v>
       </c>
       <c r="G97" t="n">
-        <v>-15069.98080307009</v>
+        <v>-1689958.30820307</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3783,32 +3957,37 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C98" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D98" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E98" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F98" t="n">
-        <v>924000</v>
+        <v>2930.7666</v>
       </c>
       <c r="G98" t="n">
-        <v>-939069.9808030701</v>
+        <v>-1689958.30820307</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3818,32 +3997,37 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C99" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D99" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E99" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F99" t="n">
-        <v>1911000</v>
+        <v>1119.3357</v>
       </c>
       <c r="G99" t="n">
-        <v>-939069.9808030701</v>
+        <v>-1689958.30820307</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3853,32 +4037,37 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C100" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D100" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E100" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F100" t="n">
-        <v>1043978.1043</v>
+        <v>11</v>
       </c>
       <c r="G100" t="n">
-        <v>-939069.9808030701</v>
+        <v>-1689958.30820307</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3888,32 +4077,37 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C101" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D101" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E101" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F101" t="n">
-        <v>564.1686</v>
+        <v>3</v>
       </c>
       <c r="G101" t="n">
-        <v>-939069.9808030701</v>
+        <v>-1689955.30820307</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3923,32 +4117,37 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C102" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D102" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E102" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="F102" t="n">
-        <v>728003</v>
+        <v>4</v>
       </c>
       <c r="G102" t="n">
-        <v>-1667072.98080307</v>
+        <v>-1689955.30820307</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3958,32 +4157,37 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C103" t="n">
         <v>234</v>
       </c>
       <c r="D103" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E103" t="n">
         <v>234</v>
       </c>
       <c r="F103" t="n">
-        <v>2212974.7033</v>
+        <v>23603.8136</v>
       </c>
       <c r="G103" t="n">
-        <v>-1667072.98080307</v>
+        <v>-1713559.12180307</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3993,32 +4197,37 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C104" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D104" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E104" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F104" t="n">
-        <v>2176003</v>
+        <v>2</v>
       </c>
       <c r="G104" t="n">
-        <v>-1667072.98080307</v>
+        <v>-1713557.12180307</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4028,32 +4237,37 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C105" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D105" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E105" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F105" t="n">
-        <v>2184006</v>
+        <v>211.85</v>
       </c>
       <c r="G105" t="n">
-        <v>-1667072.98080307</v>
+        <v>-1713768.97180307</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4063,32 +4277,37 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C106" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D106" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E106" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F106" t="n">
-        <v>2176001</v>
+        <v>1664.9999</v>
       </c>
       <c r="G106" t="n">
-        <v>-1667072.98080307</v>
+        <v>-1713768.97180307</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4098,32 +4317,37 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C107" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D107" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E107" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F107" t="n">
-        <v>8000</v>
+        <v>0.0001</v>
       </c>
       <c r="G107" t="n">
-        <v>-1667072.98080307</v>
+        <v>-1713768.97180307</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4133,32 +4357,37 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C108" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D108" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E108" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F108" t="n">
-        <v>1877.164</v>
+        <v>3192</v>
       </c>
       <c r="G108" t="n">
-        <v>-1665195.81680307</v>
+        <v>-1713768.97180307</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4168,32 +4397,37 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C109" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D109" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E109" t="n">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="F109" t="n">
-        <v>18365.2319</v>
+        <v>1</v>
       </c>
       <c r="G109" t="n">
-        <v>-1683561.04870307</v>
+        <v>-1713767.97180307</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4203,32 +4437,37 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C110" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D110" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E110" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F110" t="n">
-        <v>5330.235</v>
+        <v>220.8662</v>
       </c>
       <c r="G110" t="n">
-        <v>-1678230.81370307</v>
+        <v>-1713988.83800307</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4238,32 +4477,37 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C111" t="n">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D111" t="n">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E111" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F111" t="n">
-        <v>488.3723</v>
+        <v>1941.2724</v>
       </c>
       <c r="G111" t="n">
-        <v>-1678719.18600307</v>
+        <v>-1712047.56560307</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4273,32 +4517,37 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C112" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D112" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E112" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F112" t="n">
-        <v>2</v>
+        <v>46.7477</v>
       </c>
       <c r="G112" t="n">
-        <v>-1678717.18600307</v>
+        <v>-1712094.31330307</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4308,32 +4557,37 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C113" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D113" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E113" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F113" t="n">
-        <v>607.2832618025</v>
+        <v>1</v>
       </c>
       <c r="G113" t="n">
-        <v>-1678717.18600307</v>
+        <v>-1712094.31330307</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4343,32 +4597,37 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C114" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D114" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E114" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F114" t="n">
-        <v>463.1389</v>
+        <v>433.1299</v>
       </c>
       <c r="G114" t="n">
-        <v>-1679180.32490307</v>
+        <v>-1712094.31330307</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4378,32 +4637,37 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C115" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D115" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E115" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F115" t="n">
-        <v>2</v>
+        <v>774.2322</v>
       </c>
       <c r="G115" t="n">
-        <v>-1679178.32490307</v>
+        <v>-1712094.31330307</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4413,32 +4677,37 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C116" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D116" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E116" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F116" t="n">
-        <v>1104.3312</v>
+        <v>68</v>
       </c>
       <c r="G116" t="n">
-        <v>-1679178.32490307</v>
+        <v>-1712094.31330307</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4448,32 +4717,37 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C117" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D117" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E117" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F117" t="n">
-        <v>3306.4989</v>
+        <v>1</v>
       </c>
       <c r="G117" t="n">
-        <v>-1682484.82380307</v>
+        <v>-1712094.31330307</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4483,32 +4757,37 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C118" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D118" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E118" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F118" t="n">
-        <v>2</v>
+        <v>2052.6157</v>
       </c>
       <c r="G118" t="n">
-        <v>-1682482.82380307</v>
+        <v>-1712094.31330307</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4518,32 +4797,37 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C119" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D119" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E119" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F119" t="n">
-        <v>2586.5768</v>
+        <v>1</v>
       </c>
       <c r="G119" t="n">
-        <v>-1685069.40060307</v>
+        <v>-1712093.31330307</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4553,32 +4837,37 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C120" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D120" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E120" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F120" t="n">
-        <v>70</v>
+        <v>44.7477</v>
       </c>
       <c r="G120" t="n">
-        <v>-1685069.40060307</v>
+        <v>-1712093.31330307</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4588,32 +4877,37 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C121" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D121" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E121" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G121" t="n">
-        <v>-1685068.40060307</v>
+        <v>-1712091.31330307</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4623,32 +4917,37 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C122" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D122" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="E122" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F122" t="n">
-        <v>865.0901</v>
+        <v>5877.9822</v>
       </c>
       <c r="G122" t="n">
-        <v>-1685933.49070307</v>
+        <v>-1706213.33110307</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4658,32 +4957,37 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C123" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D123" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E123" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F123" t="n">
-        <v>2</v>
+        <v>46.8824</v>
       </c>
       <c r="G123" t="n">
-        <v>-1685931.49070307</v>
+        <v>-1706260.21350307</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4693,32 +4997,37 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C124" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D124" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E124" t="n">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F124" t="n">
-        <v>3720.7997</v>
+        <v>46.8824</v>
       </c>
       <c r="G124" t="n">
-        <v>-1689652.29040307</v>
+        <v>-1706307.09590307</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4728,32 +5037,37 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C125" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D125" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E125" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G125" t="n">
-        <v>-1689651.29040307</v>
+        <v>-1706305.09590307</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4763,32 +5077,37 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C126" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D126" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E126" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F126" t="n">
-        <v>132</v>
+        <v>45.5424</v>
       </c>
       <c r="G126" t="n">
-        <v>-1689651.29040307</v>
+        <v>-1706305.09590307</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4798,32 +5117,37 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C127" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D127" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E127" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F127" t="n">
-        <v>5284.8924</v>
+        <v>5989.5725</v>
       </c>
       <c r="G127" t="n">
-        <v>-1689651.29040307</v>
+        <v>-1706305.09590307</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4833,32 +5157,37 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C128" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D128" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E128" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F128" t="n">
-        <v>131</v>
+        <v>938.9999</v>
       </c>
       <c r="G128" t="n">
-        <v>-1689651.29040307</v>
+        <v>-1706305.09590307</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4868,32 +5197,37 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C129" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D129" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E129" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F129" t="n">
-        <v>2</v>
+        <v>940</v>
       </c>
       <c r="G129" t="n">
-        <v>-1689649.29040307</v>
+        <v>-1706305.09590307</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4903,32 +5237,37 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C130" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D130" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E130" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F130" t="n">
-        <v>5122.7627</v>
+        <v>2</v>
       </c>
       <c r="G130" t="n">
-        <v>-1689649.29040307</v>
+        <v>-1706303.09590307</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4938,32 +5277,37 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C131" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D131" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E131" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F131" t="n">
-        <v>1</v>
+        <v>4476.9109</v>
       </c>
       <c r="G131" t="n">
-        <v>-1689648.29040307</v>
+        <v>-1710780.00680307</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4973,32 +5317,37 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C132" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D132" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E132" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F132" t="n">
-        <v>239.1065</v>
+        <v>3</v>
       </c>
       <c r="G132" t="n">
-        <v>-1689887.39690307</v>
+        <v>-1710777.00680307</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5008,32 +5357,37 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C133" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D133" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E133" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F133" t="n">
-        <v>2</v>
+        <v>2773.3049</v>
       </c>
       <c r="G133" t="n">
-        <v>-1689885.39690307</v>
+        <v>-1713550.31170307</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5043,32 +5397,37 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C134" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D134" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E134" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F134" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G134" t="n">
-        <v>-1689883.39690307</v>
+        <v>-1713547.31170307</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5078,32 +5437,37 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C135" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D135" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E135" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F135" t="n">
-        <v>40.403</v>
+        <v>8305.5597</v>
       </c>
       <c r="G135" t="n">
-        <v>-1689923.79990307</v>
+        <v>-1713547.31170307</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5113,1570 +5477,15 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>237</v>
-      </c>
-      <c r="C136" t="n">
-        <v>237</v>
-      </c>
-      <c r="D136" t="n">
-        <v>237</v>
-      </c>
-      <c r="E136" t="n">
-        <v>237</v>
-      </c>
-      <c r="F136" t="n">
-        <v>1</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-1689922.79990307</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>238</v>
-      </c>
-      <c r="C137" t="n">
-        <v>238</v>
-      </c>
-      <c r="D137" t="n">
-        <v>238</v>
-      </c>
-      <c r="E137" t="n">
-        <v>238</v>
-      </c>
-      <c r="F137" t="n">
-        <v>3</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-1689919.79990307</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>238</v>
-      </c>
-      <c r="C138" t="n">
-        <v>235</v>
-      </c>
-      <c r="D138" t="n">
-        <v>238</v>
-      </c>
-      <c r="E138" t="n">
-        <v>235</v>
-      </c>
-      <c r="F138" t="n">
-        <v>579.6706</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-1690499.47050307</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>238</v>
-      </c>
-      <c r="C139" t="n">
-        <v>238</v>
-      </c>
-      <c r="D139" t="n">
-        <v>238</v>
-      </c>
-      <c r="E139" t="n">
-        <v>238</v>
-      </c>
-      <c r="F139" t="n">
-        <v>541.1623</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-1689958.30820307</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>237</v>
-      </c>
-      <c r="C140" t="n">
-        <v>238</v>
-      </c>
-      <c r="D140" t="n">
-        <v>238</v>
-      </c>
-      <c r="E140" t="n">
-        <v>237</v>
-      </c>
-      <c r="F140" t="n">
-        <v>2930.7666</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-1689958.30820307</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>238</v>
-      </c>
-      <c r="C141" t="n">
-        <v>238</v>
-      </c>
-      <c r="D141" t="n">
-        <v>238</v>
-      </c>
-      <c r="E141" t="n">
-        <v>238</v>
-      </c>
-      <c r="F141" t="n">
-        <v>1119.3357</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-1689958.30820307</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>238</v>
-      </c>
-      <c r="C142" t="n">
-        <v>238</v>
-      </c>
-      <c r="D142" t="n">
-        <v>238</v>
-      </c>
-      <c r="E142" t="n">
-        <v>238</v>
-      </c>
-      <c r="F142" t="n">
-        <v>11</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-1689958.30820307</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>239</v>
-      </c>
-      <c r="C143" t="n">
-        <v>239</v>
-      </c>
-      <c r="D143" t="n">
-        <v>239</v>
-      </c>
-      <c r="E143" t="n">
-        <v>239</v>
-      </c>
-      <c r="F143" t="n">
-        <v>3</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-1689955.30820307</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>239</v>
-      </c>
-      <c r="C144" t="n">
-        <v>239</v>
-      </c>
-      <c r="D144" t="n">
-        <v>239</v>
-      </c>
-      <c r="E144" t="n">
-        <v>239</v>
-      </c>
-      <c r="F144" t="n">
-        <v>4</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-1689955.30820307</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>237</v>
-      </c>
-      <c r="C145" t="n">
-        <v>234</v>
-      </c>
-      <c r="D145" t="n">
-        <v>237</v>
-      </c>
-      <c r="E145" t="n">
-        <v>234</v>
-      </c>
-      <c r="F145" t="n">
-        <v>23603.8136</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-1713559.12180307</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>238</v>
-      </c>
-      <c r="C146" t="n">
-        <v>238</v>
-      </c>
-      <c r="D146" t="n">
-        <v>238</v>
-      </c>
-      <c r="E146" t="n">
-        <v>238</v>
-      </c>
-      <c r="F146" t="n">
-        <v>2</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-1713557.12180307</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>237</v>
-      </c>
-      <c r="C147" t="n">
-        <v>237</v>
-      </c>
-      <c r="D147" t="n">
-        <v>237</v>
-      </c>
-      <c r="E147" t="n">
-        <v>237</v>
-      </c>
-      <c r="F147" t="n">
-        <v>211.85</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-1713768.97180307</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>237</v>
-      </c>
-      <c r="C148" t="n">
-        <v>237</v>
-      </c>
-      <c r="D148" t="n">
-        <v>237</v>
-      </c>
-      <c r="E148" t="n">
-        <v>237</v>
-      </c>
-      <c r="F148" t="n">
-        <v>1664.9999</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-1713768.97180307</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>237</v>
-      </c>
-      <c r="C149" t="n">
-        <v>237</v>
-      </c>
-      <c r="D149" t="n">
-        <v>237</v>
-      </c>
-      <c r="E149" t="n">
-        <v>237</v>
-      </c>
-      <c r="F149" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-1713768.97180307</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>237</v>
-      </c>
-      <c r="C150" t="n">
-        <v>237</v>
-      </c>
-      <c r="D150" t="n">
-        <v>237</v>
-      </c>
-      <c r="E150" t="n">
-        <v>237</v>
-      </c>
-      <c r="F150" t="n">
-        <v>3192</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-1713768.97180307</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>238</v>
-      </c>
-      <c r="C151" t="n">
-        <v>238</v>
-      </c>
-      <c r="D151" t="n">
-        <v>238</v>
-      </c>
-      <c r="E151" t="n">
-        <v>238</v>
-      </c>
-      <c r="F151" t="n">
-        <v>1</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-1713767.97180307</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>236</v>
-      </c>
-      <c r="C152" t="n">
-        <v>236</v>
-      </c>
-      <c r="D152" t="n">
-        <v>236</v>
-      </c>
-      <c r="E152" t="n">
-        <v>236</v>
-      </c>
-      <c r="F152" t="n">
-        <v>220.8662</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-1713988.83800307</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>236</v>
-      </c>
-      <c r="C153" t="n">
-        <v>237</v>
-      </c>
-      <c r="D153" t="n">
-        <v>237</v>
-      </c>
-      <c r="E153" t="n">
-        <v>235</v>
-      </c>
-      <c r="F153" t="n">
-        <v>1941.2724</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-1712047.56560307</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>235</v>
-      </c>
-      <c r="C154" t="n">
-        <v>235</v>
-      </c>
-      <c r="D154" t="n">
-        <v>235</v>
-      </c>
-      <c r="E154" t="n">
-        <v>235</v>
-      </c>
-      <c r="F154" t="n">
-        <v>46.7477</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-1712094.31330307</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>235</v>
-      </c>
-      <c r="C155" t="n">
-        <v>235</v>
-      </c>
-      <c r="D155" t="n">
-        <v>235</v>
-      </c>
-      <c r="E155" t="n">
-        <v>235</v>
-      </c>
-      <c r="F155" t="n">
-        <v>1</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-1712094.31330307</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>235</v>
-      </c>
-      <c r="C156" t="n">
-        <v>235</v>
-      </c>
-      <c r="D156" t="n">
-        <v>235</v>
-      </c>
-      <c r="E156" t="n">
-        <v>235</v>
-      </c>
-      <c r="F156" t="n">
-        <v>433.1299</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-1712094.31330307</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>235</v>
-      </c>
-      <c r="C157" t="n">
-        <v>235</v>
-      </c>
-      <c r="D157" t="n">
-        <v>235</v>
-      </c>
-      <c r="E157" t="n">
-        <v>235</v>
-      </c>
-      <c r="F157" t="n">
-        <v>774.2322</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-1712094.31330307</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>235</v>
-      </c>
-      <c r="C158" t="n">
-        <v>235</v>
-      </c>
-      <c r="D158" t="n">
-        <v>235</v>
-      </c>
-      <c r="E158" t="n">
-        <v>235</v>
-      </c>
-      <c r="F158" t="n">
-        <v>68</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-1712094.31330307</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>235</v>
-      </c>
-      <c r="C159" t="n">
-        <v>235</v>
-      </c>
-      <c r="D159" t="n">
-        <v>235</v>
-      </c>
-      <c r="E159" t="n">
-        <v>235</v>
-      </c>
-      <c r="F159" t="n">
-        <v>1</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-1712094.31330307</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>235</v>
-      </c>
-      <c r="C160" t="n">
-        <v>235</v>
-      </c>
-      <c r="D160" t="n">
-        <v>235</v>
-      </c>
-      <c r="E160" t="n">
-        <v>235</v>
-      </c>
-      <c r="F160" t="n">
-        <v>2052.6157</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-1712094.31330307</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>236</v>
-      </c>
-      <c r="C161" t="n">
-        <v>236</v>
-      </c>
-      <c r="D161" t="n">
-        <v>236</v>
-      </c>
-      <c r="E161" t="n">
-        <v>236</v>
-      </c>
-      <c r="F161" t="n">
-        <v>1</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-1712093.31330307</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="n">
-        <v>235</v>
-      </c>
-      <c r="K161" t="n">
-        <v>235</v>
-      </c>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>236</v>
-      </c>
-      <c r="C162" t="n">
-        <v>236</v>
-      </c>
-      <c r="D162" t="n">
-        <v>236</v>
-      </c>
-      <c r="E162" t="n">
-        <v>236</v>
-      </c>
-      <c r="F162" t="n">
-        <v>44.7477</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-1712093.31330307</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="n">
-        <v>236</v>
-      </c>
-      <c r="K162" t="n">
-        <v>235</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>237</v>
-      </c>
-      <c r="C163" t="n">
-        <v>237</v>
-      </c>
-      <c r="D163" t="n">
-        <v>237</v>
-      </c>
-      <c r="E163" t="n">
-        <v>237</v>
-      </c>
-      <c r="F163" t="n">
-        <v>2</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-1712091.31330307</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="n">
-        <v>236</v>
-      </c>
-      <c r="K163" t="n">
-        <v>235</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>235</v>
-      </c>
-      <c r="C164" t="n">
-        <v>238</v>
-      </c>
-      <c r="D164" t="n">
-        <v>238</v>
-      </c>
-      <c r="E164" t="n">
-        <v>234</v>
-      </c>
-      <c r="F164" t="n">
-        <v>5877.9822</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-1706213.33110307</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>236</v>
-      </c>
-      <c r="C165" t="n">
-        <v>236</v>
-      </c>
-      <c r="D165" t="n">
-        <v>236</v>
-      </c>
-      <c r="E165" t="n">
-        <v>236</v>
-      </c>
-      <c r="F165" t="n">
-        <v>46.8824</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-1706260.21350307</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="n">
-        <v>238</v>
-      </c>
-      <c r="K165" t="n">
-        <v>238</v>
-      </c>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>235</v>
-      </c>
-      <c r="C166" t="n">
-        <v>235</v>
-      </c>
-      <c r="D166" t="n">
-        <v>235</v>
-      </c>
-      <c r="E166" t="n">
-        <v>235</v>
-      </c>
-      <c r="F166" t="n">
-        <v>46.8824</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-1706307.09590307</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>238</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>236</v>
-      </c>
-      <c r="C167" t="n">
-        <v>236</v>
-      </c>
-      <c r="D167" t="n">
-        <v>236</v>
-      </c>
-      <c r="E167" t="n">
-        <v>236</v>
-      </c>
-      <c r="F167" t="n">
-        <v>2</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-1706305.09590307</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>238</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>238</v>
-      </c>
-      <c r="C168" t="n">
-        <v>236</v>
-      </c>
-      <c r="D168" t="n">
-        <v>238</v>
-      </c>
-      <c r="E168" t="n">
-        <v>236</v>
-      </c>
-      <c r="F168" t="n">
-        <v>45.5424</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-1706305.09590307</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>236</v>
-      </c>
-      <c r="C169" t="n">
-        <v>236</v>
-      </c>
-      <c r="D169" t="n">
-        <v>236</v>
-      </c>
-      <c r="E169" t="n">
-        <v>236</v>
-      </c>
-      <c r="F169" t="n">
-        <v>5989.5725</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-1706305.09590307</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>236</v>
-      </c>
-      <c r="C170" t="n">
-        <v>236</v>
-      </c>
-      <c r="D170" t="n">
-        <v>236</v>
-      </c>
-      <c r="E170" t="n">
-        <v>236</v>
-      </c>
-      <c r="F170" t="n">
-        <v>938.9999</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-1706305.09590307</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="n">
-        <v>236</v>
-      </c>
-      <c r="K170" t="n">
-        <v>236</v>
-      </c>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>236</v>
-      </c>
-      <c r="C171" t="n">
-        <v>236</v>
-      </c>
-      <c r="D171" t="n">
-        <v>236</v>
-      </c>
-      <c r="E171" t="n">
-        <v>236</v>
-      </c>
-      <c r="F171" t="n">
-        <v>940</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-1706305.09590307</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="n">
-        <v>236</v>
-      </c>
-      <c r="K171" t="n">
-        <v>236</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>238</v>
-      </c>
-      <c r="C172" t="n">
-        <v>238</v>
-      </c>
-      <c r="D172" t="n">
-        <v>238</v>
-      </c>
-      <c r="E172" t="n">
-        <v>238</v>
-      </c>
-      <c r="F172" t="n">
-        <v>2</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-1706303.09590307</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="n">
-        <v>236</v>
-      </c>
-      <c r="K172" t="n">
-        <v>236</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>236</v>
-      </c>
-      <c r="C173" t="n">
-        <v>236</v>
-      </c>
-      <c r="D173" t="n">
-        <v>236</v>
-      </c>
-      <c r="E173" t="n">
-        <v>236</v>
-      </c>
-      <c r="F173" t="n">
-        <v>4476.9109</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-1710780.00680307</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="n">
-        <v>238</v>
-      </c>
-      <c r="K173" t="n">
-        <v>238</v>
-      </c>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>238</v>
-      </c>
-      <c r="C174" t="n">
-        <v>238</v>
-      </c>
-      <c r="D174" t="n">
-        <v>238</v>
-      </c>
-      <c r="E174" t="n">
-        <v>238</v>
-      </c>
-      <c r="F174" t="n">
-        <v>3</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-1710777.00680307</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="n">
-        <v>236</v>
-      </c>
-      <c r="K174" t="n">
-        <v>238</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>236</v>
-      </c>
-      <c r="C175" t="n">
-        <v>235</v>
-      </c>
-      <c r="D175" t="n">
-        <v>236</v>
-      </c>
-      <c r="E175" t="n">
-        <v>235</v>
-      </c>
-      <c r="F175" t="n">
-        <v>2773.3049</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-1713550.31170307</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="n">
-        <v>238</v>
-      </c>
-      <c r="K175" t="n">
-        <v>238</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>236</v>
-      </c>
-      <c r="C176" t="n">
-        <v>236</v>
-      </c>
-      <c r="D176" t="n">
-        <v>236</v>
-      </c>
-      <c r="E176" t="n">
-        <v>236</v>
-      </c>
-      <c r="F176" t="n">
-        <v>3</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-1713547.31170307</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="n">
-        <v>235</v>
-      </c>
-      <c r="K176" t="n">
-        <v>238</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>236</v>
-      </c>
-      <c r="C177" t="n">
-        <v>236</v>
-      </c>
-      <c r="D177" t="n">
-        <v>236</v>
-      </c>
-      <c r="E177" t="n">
-        <v>236</v>
-      </c>
-      <c r="F177" t="n">
-        <v>8305.5597</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-1713547.31170307</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>238</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
+      <c r="N135" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-21 BackTest INS.xlsx
+++ b/BackTest/2019-10-21 BackTest INS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N135"/>
+  <dimension ref="A1:N206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C2" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D2" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E2" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>896.178</v>
       </c>
       <c r="G2" t="n">
-        <v>-6662.469977861685</v>
+        <v>-41896.4589827586</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,31 +474,35 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C3" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D3" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E3" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F3" t="n">
-        <v>1677.2426</v>
+        <v>6.2647</v>
       </c>
       <c r="G3" t="n">
-        <v>-6662.469977861685</v>
+        <v>-41896.4589827586</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>238</v>
+      </c>
+      <c r="K3" t="n">
+        <v>238</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -510,32 +514,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C4" t="n">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D4" t="n">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E4" t="n">
         <v>235</v>
       </c>
       <c r="F4" t="n">
-        <v>2315.505</v>
+        <v>6.2647</v>
       </c>
       <c r="G4" t="n">
-        <v>-8977.974977861686</v>
+        <v>-41902.72368275859</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>238</v>
+      </c>
+      <c r="K4" t="n">
+        <v>238</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -546,32 +558,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C5" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D5" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E5" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="F5" t="n">
-        <v>12515.3937</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>-21493.36867786169</v>
+        <v>-41900.72368275859</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>235</v>
+      </c>
+      <c r="K5" t="n">
+        <v>238</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,22 +602,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C6" t="n">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D6" t="n">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="E6" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F6" t="n">
-        <v>436.79357521</v>
+        <v>16556.2871</v>
       </c>
       <c r="G6" t="n">
-        <v>-21056.57510265169</v>
+        <v>-25344.43658275859</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +638,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C7" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D7" t="n">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="E7" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F7" t="n">
-        <v>408.975</v>
+        <v>2361.7136</v>
       </c>
       <c r="G7" t="n">
-        <v>-21465.55010265169</v>
+        <v>-27706.15018275859</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +674,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C8" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D8" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E8" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F8" t="n">
-        <v>642.6656</v>
+        <v>2054.0535</v>
       </c>
       <c r="G8" t="n">
-        <v>-20822.88450265169</v>
+        <v>-27706.15018275859</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +710,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C9" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D9" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E9" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F9" t="n">
-        <v>1531</v>
+        <v>2497.7492</v>
       </c>
       <c r="G9" t="n">
-        <v>-20822.88450265169</v>
+        <v>-27706.15018275859</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +746,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C10" t="n">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D10" t="n">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="E10" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F10" t="n">
-        <v>585</v>
+        <v>995.2978000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>-20822.88450265169</v>
+        <v>-26710.85238275859</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +782,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C11" t="n">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D11" t="n">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E11" t="n">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F11" t="n">
-        <v>199</v>
+        <v>529.9032</v>
       </c>
       <c r="G11" t="n">
-        <v>-20822.88450265169</v>
+        <v>-26710.85238275859</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,28 +818,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C12" t="n">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D12" t="n">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E12" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F12" t="n">
-        <v>363.1229</v>
+        <v>5262.9881</v>
       </c>
       <c r="G12" t="n">
-        <v>-20459.76160265169</v>
+        <v>-26710.85238275859</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -834,22 +854,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C13" t="n">
         <v>239</v>
       </c>
       <c r="D13" t="n">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E13" t="n">
         <v>239</v>
       </c>
       <c r="F13" t="n">
-        <v>789.2367</v>
+        <v>4170.078</v>
       </c>
       <c r="G13" t="n">
-        <v>-20459.76160265169</v>
+        <v>-30880.93038275859</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +890,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C14" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D14" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E14" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F14" t="n">
-        <v>537.3440004184</v>
+        <v>448.2049</v>
       </c>
       <c r="G14" t="n">
-        <v>-20459.76160265169</v>
+        <v>-30432.72548275859</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +926,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C15" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D15" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E15" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F15" t="n">
-        <v>428.5685</v>
+        <v>2104.9335850622</v>
       </c>
       <c r="G15" t="n">
-        <v>-20459.76160265169</v>
+        <v>-28327.79189769639</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +962,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C16" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D16" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E16" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F16" t="n">
-        <v>592.1776</v>
+        <v>1749.7924</v>
       </c>
       <c r="G16" t="n">
-        <v>-20459.76160265169</v>
+        <v>-28327.79189769639</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +998,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C17" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D17" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E17" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F17" t="n">
-        <v>1767.7874</v>
+        <v>1069.5848</v>
       </c>
       <c r="G17" t="n">
-        <v>-20459.76160265169</v>
+        <v>-28327.79189769639</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1034,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C18" t="n">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D18" t="n">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="E18" t="n">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F18" t="n">
-        <v>134.954</v>
+        <v>4319.6404198347</v>
       </c>
       <c r="G18" t="n">
-        <v>-20594.71560265169</v>
+        <v>-24008.15147786169</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1070,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C19" t="n">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D19" t="n">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E19" t="n">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F19" t="n">
-        <v>9.95816e-05</v>
+        <v>972.4545000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>-20594.71550307009</v>
+        <v>-24008.15147786169</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,28 +1106,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C20" t="n">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D20" t="n">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E20" t="n">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F20" t="n">
-        <v>381.1143</v>
+        <v>4280.2809</v>
       </c>
       <c r="G20" t="n">
-        <v>-20594.71550307009</v>
+        <v>-24008.15147786169</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1122,22 +1142,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C21" t="n">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D21" t="n">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E21" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F21" t="n">
-        <v>54.5873</v>
+        <v>6550.8586</v>
       </c>
       <c r="G21" t="n">
-        <v>-20649.30280307009</v>
+        <v>-30559.01007786169</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1178,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C22" t="n">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D22" t="n">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E22" t="n">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F22" t="n">
-        <v>537.9078</v>
+        <v>660.1203319502</v>
       </c>
       <c r="G22" t="n">
-        <v>-20649.30280307009</v>
+        <v>-30559.01007786169</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1214,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C23" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D23" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E23" t="n">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F23" t="n">
-        <v>512</v>
+        <v>3862.946</v>
       </c>
       <c r="G23" t="n">
-        <v>-20137.30280307009</v>
+        <v>-26696.06407786169</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1250,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C24" t="n">
         <v>240</v>
       </c>
       <c r="D24" t="n">
+        <v>242</v>
+      </c>
+      <c r="E24" t="n">
         <v>240</v>
       </c>
-      <c r="E24" t="n">
-        <v>239</v>
-      </c>
       <c r="F24" t="n">
-        <v>260.198</v>
+        <v>513.471</v>
       </c>
       <c r="G24" t="n">
-        <v>-20137.30280307009</v>
+        <v>-27209.53507786169</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,7 +1286,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C25" t="n">
         <v>240</v>
@@ -1275,13 +1295,13 @@
         <v>240</v>
       </c>
       <c r="E25" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F25" t="n">
-        <v>3</v>
+        <v>552.7021999999999</v>
       </c>
       <c r="G25" t="n">
-        <v>-20137.30280307009</v>
+        <v>-27209.53507786169</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1322,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C26" t="n">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D26" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E26" t="n">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="F26" t="n">
-        <v>14338.7007</v>
+        <v>233.2931</v>
       </c>
       <c r="G26" t="n">
-        <v>-34476.00350307009</v>
+        <v>-27209.53507786169</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,22 +1358,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C27" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D27" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E27" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F27" t="n">
-        <v>875.2625</v>
+        <v>1098.4659</v>
       </c>
       <c r="G27" t="n">
-        <v>-33600.74100307009</v>
+        <v>-28308.00097786169</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1394,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C28" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D28" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E28" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F28" t="n">
-        <v>648.9046</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>-33600.74100307009</v>
+        <v>-28307.00097786169</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,7 +1430,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C29" t="n">
         <v>240</v>
@@ -1419,13 +1439,13 @@
         <v>240</v>
       </c>
       <c r="E29" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F29" t="n">
-        <v>1787.7893</v>
+        <v>180</v>
       </c>
       <c r="G29" t="n">
-        <v>-31812.95170307009</v>
+        <v>-28307.00097786169</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,28 +1466,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C30" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D30" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E30" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F30" t="n">
-        <v>15584.9444</v>
+        <v>11.0602</v>
       </c>
       <c r="G30" t="n">
-        <v>-47397.89610307009</v>
+        <v>-28318.06117786169</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1494,16 +1514,16 @@
         <v>238</v>
       </c>
       <c r="F31" t="n">
-        <v>938.1998</v>
+        <v>798.6667</v>
       </c>
       <c r="G31" t="n">
-        <v>-46459.69630307009</v>
+        <v>-29116.72787786169</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1518,28 +1538,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C32" t="n">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D32" t="n">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E32" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F32" t="n">
-        <v>3383.8097</v>
+        <v>1097.3493</v>
       </c>
       <c r="G32" t="n">
-        <v>-43075.88660307009</v>
+        <v>-30214.07717786169</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1554,22 +1574,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C33" t="n">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D33" t="n">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E33" t="n">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F33" t="n">
-        <v>734.2202</v>
+        <v>4280.2809</v>
       </c>
       <c r="G33" t="n">
-        <v>-43075.88660307009</v>
+        <v>-30214.07717786169</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,28 +1610,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C34" t="n">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D34" t="n">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="E34" t="n">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F34" t="n">
-        <v>13904.8471</v>
+        <v>45.2444</v>
       </c>
       <c r="G34" t="n">
-        <v>-29171.03950307009</v>
+        <v>-30168.83277786169</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1626,28 +1646,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C35" t="n">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D35" t="n">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E35" t="n">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="F35" t="n">
-        <v>18409.2551</v>
+        <v>217.1149</v>
       </c>
       <c r="G35" t="n">
-        <v>-10761.78440307009</v>
+        <v>-30385.9476778617</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1662,28 +1682,28 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C36" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D36" t="n">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E36" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F36" t="n">
-        <v>2200.2646</v>
+        <v>333.0999</v>
       </c>
       <c r="G36" t="n">
-        <v>-12962.04900307009</v>
+        <v>-30052.84777786169</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1698,28 +1718,28 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C37" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D37" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E37" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F37" t="n">
-        <v>515.1662</v>
+        <v>29.4346</v>
       </c>
       <c r="G37" t="n">
-        <v>-13477.21520307009</v>
+        <v>-30082.28237786169</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1734,28 +1754,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C38" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D38" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E38" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F38" t="n">
-        <v>42.1234</v>
+        <v>1519</v>
       </c>
       <c r="G38" t="n">
-        <v>-13435.09180307009</v>
+        <v>-28563.28237786169</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1782,16 +1802,16 @@
         <v>237</v>
       </c>
       <c r="F39" t="n">
-        <v>226.6328</v>
+        <v>1491.059</v>
       </c>
       <c r="G39" t="n">
-        <v>-13661.72460307009</v>
+        <v>-28563.28237786169</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1818,16 +1838,16 @@
         <v>237</v>
       </c>
       <c r="F40" t="n">
-        <v>1432.05</v>
+        <v>4450.6016</v>
       </c>
       <c r="G40" t="n">
-        <v>-13661.72460307009</v>
+        <v>-28563.28237786169</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1842,28 +1862,28 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C41" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D41" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E41" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F41" t="n">
-        <v>409.0527</v>
+        <v>436.1308</v>
       </c>
       <c r="G41" t="n">
-        <v>-14070.77730307009</v>
+        <v>-28127.1515778617</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1881,19 +1901,19 @@
         <v>238</v>
       </c>
       <c r="C42" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D42" t="n">
         <v>238</v>
       </c>
       <c r="E42" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F42" t="n">
-        <v>204</v>
+        <v>3863.1317</v>
       </c>
       <c r="G42" t="n">
-        <v>-13866.77730307009</v>
+        <v>-31990.28327786169</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1926,10 +1946,10 @@
         <v>236</v>
       </c>
       <c r="F43" t="n">
-        <v>205</v>
+        <v>43.422</v>
       </c>
       <c r="G43" t="n">
-        <v>-14071.77730307009</v>
+        <v>-32033.70527786169</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,22 +1970,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C44" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D44" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E44" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F44" t="n">
-        <v>1002.3219</v>
+        <v>5949.5563</v>
       </c>
       <c r="G44" t="n">
-        <v>-15074.09920307009</v>
+        <v>-32033.70527786169</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +2006,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C45" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D45" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E45" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F45" t="n">
-        <v>328</v>
+        <v>2</v>
       </c>
       <c r="G45" t="n">
-        <v>-15074.09920307009</v>
+        <v>-32031.70527786169</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2042,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C46" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D46" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E46" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F46" t="n">
-        <v>182.0546</v>
+        <v>1495.507</v>
       </c>
       <c r="G46" t="n">
-        <v>-15074.09920307009</v>
+        <v>-33527.21227786169</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,7 +2078,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C47" t="n">
         <v>234</v>
@@ -2067,13 +2087,13 @@
         <v>234</v>
       </c>
       <c r="E47" t="n">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F47" t="n">
-        <v>10991.8588</v>
+        <v>136.1942</v>
       </c>
       <c r="G47" t="n">
-        <v>-15074.09920307009</v>
+        <v>-33663.40647786169</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2097,19 +2117,19 @@
         <v>234</v>
       </c>
       <c r="C48" t="n">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D48" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E48" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F48" t="n">
-        <v>1336.5468</v>
+        <v>4659.3278</v>
       </c>
       <c r="G48" t="n">
-        <v>-13737.55240307009</v>
+        <v>-38322.73427786169</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2150,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C49" t="n">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D49" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E49" t="n">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F49" t="n">
-        <v>1201.2198</v>
+        <v>9305.8606</v>
       </c>
       <c r="G49" t="n">
-        <v>-14938.77220307009</v>
+        <v>-38322.73427786169</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2186,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C50" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D50" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E50" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F50" t="n">
-        <v>212</v>
+        <v>3455.1816</v>
       </c>
       <c r="G50" t="n">
-        <v>-14938.77220307009</v>
+        <v>-34867.55267786169</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2222,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C51" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D51" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E51" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F51" t="n">
-        <v>46.3414</v>
+        <v>1649.1594</v>
       </c>
       <c r="G51" t="n">
-        <v>-14892.43080307009</v>
+        <v>-36516.71207786169</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,22 +2258,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C52" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D52" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E52" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F52" t="n">
-        <v>2535.8672</v>
+        <v>430.129</v>
       </c>
       <c r="G52" t="n">
-        <v>-14892.43080307009</v>
+        <v>-36516.71207786169</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2286,10 +2306,10 @@
         <v>235</v>
       </c>
       <c r="F53" t="n">
-        <v>178.55</v>
+        <v>530.0872000000001</v>
       </c>
       <c r="G53" t="n">
-        <v>-15070.98080307009</v>
+        <v>-36516.71207786169</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2310,22 +2330,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C54" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D54" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E54" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>20287.9788</v>
       </c>
       <c r="G54" t="n">
-        <v>-15069.98080307009</v>
+        <v>-16228.73327786169</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2346,22 +2366,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C55" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D55" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E55" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F55" t="n">
-        <v>10708.2599</v>
+        <v>681.814</v>
       </c>
       <c r="G55" t="n">
-        <v>-15069.98080307009</v>
+        <v>-16910.54727786169</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,22 +2402,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C56" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D56" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E56" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F56" t="n">
-        <v>924000</v>
+        <v>920.154</v>
       </c>
       <c r="G56" t="n">
-        <v>-939069.9808030701</v>
+        <v>-17830.70127786168</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2418,22 +2438,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C57" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D57" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E57" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F57" t="n">
-        <v>1911000</v>
+        <v>429.1287</v>
       </c>
       <c r="G57" t="n">
-        <v>-939069.9808030701</v>
+        <v>-17830.70127786168</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,22 +2474,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C58" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D58" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E58" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F58" t="n">
-        <v>1043978.1043</v>
+        <v>3412.0235</v>
       </c>
       <c r="G58" t="n">
-        <v>-939069.9808030701</v>
+        <v>-17830.70127786168</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,22 +2510,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C59" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D59" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E59" t="n">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F59" t="n">
-        <v>564.1686</v>
+        <v>6470.0121</v>
       </c>
       <c r="G59" t="n">
-        <v>-939069.9808030701</v>
+        <v>-17830.70127786168</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2532,16 +2552,16 @@
         <v>234</v>
       </c>
       <c r="D60" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E60" t="n">
         <v>234</v>
       </c>
       <c r="F60" t="n">
-        <v>728003</v>
+        <v>969.0272</v>
       </c>
       <c r="G60" t="n">
-        <v>-1667072.98080307</v>
+        <v>-17830.70127786168</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2568,16 +2588,16 @@
         <v>234</v>
       </c>
       <c r="D61" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E61" t="n">
         <v>234</v>
       </c>
       <c r="F61" t="n">
-        <v>2212974.7033</v>
+        <v>1067.5071</v>
       </c>
       <c r="G61" t="n">
-        <v>-1667072.98080307</v>
+        <v>-17830.70127786168</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2604,16 +2624,16 @@
         <v>234</v>
       </c>
       <c r="D62" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E62" t="n">
         <v>234</v>
       </c>
       <c r="F62" t="n">
-        <v>2176003</v>
+        <v>1328.4759</v>
       </c>
       <c r="G62" t="n">
-        <v>-1667072.98080307</v>
+        <v>-17830.70127786168</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2640,16 +2660,16 @@
         <v>234</v>
       </c>
       <c r="D63" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E63" t="n">
         <v>234</v>
       </c>
       <c r="F63" t="n">
-        <v>2184006</v>
+        <v>420.126</v>
       </c>
       <c r="G63" t="n">
-        <v>-1667072.98080307</v>
+        <v>-17830.70127786168</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2676,16 +2696,16 @@
         <v>234</v>
       </c>
       <c r="D64" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E64" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F64" t="n">
-        <v>2176001</v>
+        <v>5731.952</v>
       </c>
       <c r="G64" t="n">
-        <v>-1667072.98080307</v>
+        <v>-17830.70127786168</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2718,10 +2738,10 @@
         <v>234</v>
       </c>
       <c r="F65" t="n">
-        <v>8000</v>
+        <v>1373.2427</v>
       </c>
       <c r="G65" t="n">
-        <v>-1667072.98080307</v>
+        <v>-17830.70127786168</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2745,19 +2765,19 @@
         <v>234</v>
       </c>
       <c r="C66" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D66" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E66" t="n">
         <v>234</v>
       </c>
       <c r="F66" t="n">
-        <v>1877.164</v>
+        <v>1302.3299</v>
       </c>
       <c r="G66" t="n">
-        <v>-1665195.81680307</v>
+        <v>-17830.70127786168</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2778,7 +2798,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C67" t="n">
         <v>234</v>
@@ -2787,13 +2807,13 @@
         <v>234</v>
       </c>
       <c r="E67" t="n">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F67" t="n">
-        <v>18365.2319</v>
+        <v>4025.6412</v>
       </c>
       <c r="G67" t="n">
-        <v>-1683561.04870307</v>
+        <v>-17830.70127786168</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2817,19 +2837,19 @@
         <v>234</v>
       </c>
       <c r="C68" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D68" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E68" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F68" t="n">
-        <v>5330.235</v>
+        <v>2668.8837</v>
       </c>
       <c r="G68" t="n">
-        <v>-1678230.81370307</v>
+        <v>-17830.70127786168</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2850,22 +2870,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C69" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D69" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E69" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F69" t="n">
-        <v>488.3723</v>
+        <v>1741.6227</v>
       </c>
       <c r="G69" t="n">
-        <v>-1678719.18600307</v>
+        <v>-16089.07857786168</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2886,22 +2906,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C70" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D70" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E70" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F70" t="n">
-        <v>2</v>
+        <v>1565.6227</v>
       </c>
       <c r="G70" t="n">
-        <v>-1678717.18600307</v>
+        <v>-14523.45587786168</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2922,22 +2942,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C71" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D71" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E71" t="n">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F71" t="n">
-        <v>607.2832618025</v>
+        <v>3359.6834</v>
       </c>
       <c r="G71" t="n">
-        <v>-1678717.18600307</v>
+        <v>-11163.77247786168</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2958,22 +2978,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C72" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D72" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="E72" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="F72" t="n">
-        <v>463.1389</v>
+        <v>4500.3025</v>
       </c>
       <c r="G72" t="n">
-        <v>-1679180.32490307</v>
+        <v>-6663.469977861685</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2994,22 +3014,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C73" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D73" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E73" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="F73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>-1679178.32490307</v>
+        <v>-6662.469977861685</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3030,22 +3050,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C74" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D74" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E74" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="F74" t="n">
-        <v>1104.3312</v>
+        <v>1677.2426</v>
       </c>
       <c r="G74" t="n">
-        <v>-1679178.32490307</v>
+        <v>-6662.469977861685</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3066,22 +3086,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C75" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D75" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="E75" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F75" t="n">
-        <v>3306.4989</v>
+        <v>2315.505</v>
       </c>
       <c r="G75" t="n">
-        <v>-1682484.82380307</v>
+        <v>-8977.974977861686</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3102,22 +3122,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C76" t="n">
         <v>234</v>
       </c>
       <c r="D76" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E76" t="n">
         <v>234</v>
       </c>
       <c r="F76" t="n">
-        <v>2</v>
+        <v>12515.3937</v>
       </c>
       <c r="G76" t="n">
-        <v>-1682482.82380307</v>
+        <v>-21493.36867786169</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3138,22 +3158,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C77" t="n">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D77" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="E77" t="n">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F77" t="n">
-        <v>2586.5768</v>
+        <v>436.79357521</v>
       </c>
       <c r="G77" t="n">
-        <v>-1685069.40060307</v>
+        <v>-21056.57510265169</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3174,22 +3194,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C78" t="n">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D78" t="n">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E78" t="n">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F78" t="n">
-        <v>70</v>
+        <v>408.975</v>
       </c>
       <c r="G78" t="n">
-        <v>-1685069.40060307</v>
+        <v>-21465.55010265169</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3210,22 +3230,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C79" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D79" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E79" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>642.6656</v>
       </c>
       <c r="G79" t="n">
-        <v>-1685068.40060307</v>
+        <v>-20822.88450265169</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3246,22 +3266,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C80" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D80" t="n">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E80" t="n">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F80" t="n">
-        <v>865.0901</v>
+        <v>1531</v>
       </c>
       <c r="G80" t="n">
-        <v>-1685933.49070307</v>
+        <v>-20822.88450265169</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3282,22 +3302,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C81" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D81" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E81" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F81" t="n">
-        <v>2</v>
+        <v>585</v>
       </c>
       <c r="G81" t="n">
-        <v>-1685931.49070307</v>
+        <v>-20822.88450265169</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3318,38 +3338,32 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="C82" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D82" t="n">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E82" t="n">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="F82" t="n">
-        <v>3720.7997</v>
+        <v>199</v>
       </c>
       <c r="G82" t="n">
-        <v>-1689652.29040307</v>
+        <v>-20822.88450265169</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>234</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3360,38 +3374,32 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C83" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D83" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E83" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>363.1229</v>
       </c>
       <c r="G83" t="n">
-        <v>-1689651.29040307</v>
+        <v>-20459.76160265169</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>233</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3402,22 +3410,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C84" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D84" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E84" t="n">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F84" t="n">
-        <v>132</v>
+        <v>789.2367</v>
       </c>
       <c r="G84" t="n">
-        <v>-1689651.29040307</v>
+        <v>-20459.76160265169</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3427,11 +3435,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3442,38 +3446,32 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C85" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D85" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E85" t="n">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F85" t="n">
-        <v>5284.8924</v>
+        <v>537.3440004184</v>
       </c>
       <c r="G85" t="n">
-        <v>-1689651.29040307</v>
+        <v>-20459.76160265169</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>234</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3484,38 +3482,32 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C86" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D86" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E86" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="F86" t="n">
-        <v>131</v>
+        <v>428.5685</v>
       </c>
       <c r="G86" t="n">
-        <v>-1689651.29040307</v>
+        <v>-20459.76160265169</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>234</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3526,38 +3518,32 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C87" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D87" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E87" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F87" t="n">
-        <v>2</v>
+        <v>592.1776</v>
       </c>
       <c r="G87" t="n">
-        <v>-1689649.29040307</v>
+        <v>-20459.76160265169</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>234</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3568,38 +3554,32 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C88" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D88" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E88" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F88" t="n">
-        <v>5122.7627</v>
+        <v>1767.7874</v>
       </c>
       <c r="G88" t="n">
-        <v>-1689649.29040307</v>
+        <v>-20459.76160265169</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>235</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3610,38 +3590,32 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C89" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D89" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E89" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F89" t="n">
-        <v>1</v>
+        <v>134.954</v>
       </c>
       <c r="G89" t="n">
-        <v>-1689648.29040307</v>
+        <v>-20594.71560265169</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>235</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3652,22 +3626,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C90" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D90" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E90" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F90" t="n">
-        <v>239.1065</v>
+        <v>9.95816e-05</v>
       </c>
       <c r="G90" t="n">
-        <v>-1689887.39690307</v>
+        <v>-20594.71550307009</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3677,11 +3651,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3692,22 +3662,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C91" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D91" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E91" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F91" t="n">
-        <v>2</v>
+        <v>381.1143</v>
       </c>
       <c r="G91" t="n">
-        <v>-1689885.39690307</v>
+        <v>-20594.71550307009</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3717,11 +3687,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3744,10 +3710,10 @@
         <v>238</v>
       </c>
       <c r="F92" t="n">
-        <v>2</v>
+        <v>54.5873</v>
       </c>
       <c r="G92" t="n">
-        <v>-1689883.39690307</v>
+        <v>-20649.30280307009</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3757,11 +3723,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3772,22 +3734,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C93" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D93" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E93" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F93" t="n">
-        <v>40.403</v>
+        <v>537.9078</v>
       </c>
       <c r="G93" t="n">
-        <v>-1689923.79990307</v>
+        <v>-20649.30280307009</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3797,11 +3759,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3812,22 +3770,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C94" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D94" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E94" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F94" t="n">
-        <v>1</v>
+        <v>512</v>
       </c>
       <c r="G94" t="n">
-        <v>-1689922.79990307</v>
+        <v>-20137.30280307009</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3837,11 +3795,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3852,22 +3806,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C95" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D95" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E95" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F95" t="n">
-        <v>3</v>
+        <v>260.198</v>
       </c>
       <c r="G95" t="n">
-        <v>-1689919.79990307</v>
+        <v>-20137.30280307009</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3877,11 +3831,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3892,36 +3842,32 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C96" t="n">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D96" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E96" t="n">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="F96" t="n">
-        <v>579.6706</v>
+        <v>3</v>
       </c>
       <c r="G96" t="n">
-        <v>-1690499.47050307</v>
+        <v>-20137.30280307009</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3935,33 +3881,29 @@
         <v>238</v>
       </c>
       <c r="C97" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D97" t="n">
         <v>238</v>
       </c>
       <c r="E97" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F97" t="n">
-        <v>541.1623</v>
+        <v>14338.7007</v>
       </c>
       <c r="G97" t="n">
-        <v>-1689958.30820307</v>
+        <v>-34476.00350307009</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3975,19 +3917,19 @@
         <v>237</v>
       </c>
       <c r="C98" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D98" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E98" t="n">
         <v>237</v>
       </c>
       <c r="F98" t="n">
-        <v>2930.7666</v>
+        <v>875.2625</v>
       </c>
       <c r="G98" t="n">
-        <v>-1689958.30820307</v>
+        <v>-33600.74100307009</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3997,11 +3939,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4012,22 +3950,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C99" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D99" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E99" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F99" t="n">
-        <v>1119.3357</v>
+        <v>648.9046</v>
       </c>
       <c r="G99" t="n">
-        <v>-1689958.30820307</v>
+        <v>-33600.74100307009</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4037,11 +3975,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4055,19 +3989,19 @@
         <v>238</v>
       </c>
       <c r="C100" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D100" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E100" t="n">
         <v>238</v>
       </c>
       <c r="F100" t="n">
-        <v>11</v>
+        <v>1787.7893</v>
       </c>
       <c r="G100" t="n">
-        <v>-1689958.30820307</v>
+        <v>-31812.95170307009</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4077,11 +4011,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4092,22 +4022,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C101" t="n">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D101" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E101" t="n">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F101" t="n">
-        <v>3</v>
+        <v>15584.9444</v>
       </c>
       <c r="G101" t="n">
-        <v>-1689955.30820307</v>
+        <v>-47397.89610307009</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4117,11 +4047,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4132,22 +4058,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C102" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D102" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E102" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F102" t="n">
-        <v>4</v>
+        <v>938.1998</v>
       </c>
       <c r="G102" t="n">
-        <v>-1689955.30820307</v>
+        <v>-46459.69630307009</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4157,11 +4083,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4172,22 +4094,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C103" t="n">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="D103" t="n">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E103" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F103" t="n">
-        <v>23603.8136</v>
+        <v>3383.8097</v>
       </c>
       <c r="G103" t="n">
-        <v>-1713559.12180307</v>
+        <v>-43075.88660307009</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4197,11 +4119,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4212,36 +4130,32 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C104" t="n">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D104" t="n">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E104" t="n">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F104" t="n">
-        <v>2</v>
+        <v>734.2202</v>
       </c>
       <c r="G104" t="n">
-        <v>-1713557.12180307</v>
+        <v>-43075.88660307009</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4252,36 +4166,32 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C105" t="n">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="D105" t="n">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="E105" t="n">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F105" t="n">
-        <v>211.85</v>
+        <v>13904.8471</v>
       </c>
       <c r="G105" t="n">
-        <v>-1713768.97180307</v>
+        <v>-29171.03950307009</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4292,36 +4202,32 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C106" t="n">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="D106" t="n">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="E106" t="n">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="F106" t="n">
-        <v>1664.9999</v>
+        <v>18409.2551</v>
       </c>
       <c r="G106" t="n">
-        <v>-1713768.97180307</v>
+        <v>-10761.78440307009</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4332,36 +4238,32 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C107" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D107" t="n">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E107" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F107" t="n">
-        <v>0.0001</v>
+        <v>2200.2646</v>
       </c>
       <c r="G107" t="n">
-        <v>-1713768.97180307</v>
+        <v>-12962.04900307009</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4375,33 +4277,29 @@
         <v>237</v>
       </c>
       <c r="C108" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D108" t="n">
         <v>237</v>
       </c>
       <c r="E108" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F108" t="n">
-        <v>3192</v>
+        <v>515.1662</v>
       </c>
       <c r="G108" t="n">
-        <v>-1713768.97180307</v>
+        <v>-13477.21520307009</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4424,10 +4322,10 @@
         <v>238</v>
       </c>
       <c r="F109" t="n">
-        <v>1</v>
+        <v>42.1234</v>
       </c>
       <c r="G109" t="n">
-        <v>-1713767.97180307</v>
+        <v>-13435.09180307009</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4437,11 +4335,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4452,22 +4346,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C110" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D110" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E110" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F110" t="n">
-        <v>220.8662</v>
+        <v>226.6328</v>
       </c>
       <c r="G110" t="n">
-        <v>-1713988.83800307</v>
+        <v>-13661.72460307009</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4477,11 +4371,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4492,7 +4382,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C111" t="n">
         <v>237</v>
@@ -4501,13 +4391,13 @@
         <v>237</v>
       </c>
       <c r="E111" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F111" t="n">
-        <v>1941.2724</v>
+        <v>1432.05</v>
       </c>
       <c r="G111" t="n">
-        <v>-1712047.56560307</v>
+        <v>-13661.72460307009</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4517,11 +4407,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4532,22 +4418,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C112" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D112" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E112" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F112" t="n">
-        <v>46.7477</v>
+        <v>409.0527</v>
       </c>
       <c r="G112" t="n">
-        <v>-1712094.31330307</v>
+        <v>-14070.77730307009</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4557,11 +4443,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4572,22 +4454,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C113" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D113" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E113" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F113" t="n">
-        <v>1</v>
+        <v>204</v>
       </c>
       <c r="G113" t="n">
-        <v>-1712094.31330307</v>
+        <v>-13866.77730307009</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4597,11 +4479,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4612,22 +4490,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C114" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D114" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E114" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F114" t="n">
-        <v>433.1299</v>
+        <v>205</v>
       </c>
       <c r="G114" t="n">
-        <v>-1712094.31330307</v>
+        <v>-14071.77730307009</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4637,11 +4515,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4655,19 +4529,19 @@
         <v>235</v>
       </c>
       <c r="C115" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D115" t="n">
         <v>235</v>
       </c>
       <c r="E115" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F115" t="n">
-        <v>774.2322</v>
+        <v>1002.3219</v>
       </c>
       <c r="G115" t="n">
-        <v>-1712094.31330307</v>
+        <v>-15074.09920307009</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4677,11 +4551,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4692,22 +4562,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C116" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D116" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E116" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F116" t="n">
-        <v>68</v>
+        <v>328</v>
       </c>
       <c r="G116" t="n">
-        <v>-1712094.31330307</v>
+        <v>-15074.09920307009</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4717,11 +4587,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4732,22 +4598,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C117" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D117" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E117" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F117" t="n">
-        <v>1</v>
+        <v>182.0546</v>
       </c>
       <c r="G117" t="n">
-        <v>-1712094.31330307</v>
+        <v>-15074.09920307009</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4757,11 +4623,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4772,22 +4634,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C118" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D118" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E118" t="n">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F118" t="n">
-        <v>2052.6157</v>
+        <v>10991.8588</v>
       </c>
       <c r="G118" t="n">
-        <v>-1712094.31330307</v>
+        <v>-15074.09920307009</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4797,11 +4659,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4812,22 +4670,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C119" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D119" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E119" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F119" t="n">
-        <v>1</v>
+        <v>1336.5468</v>
       </c>
       <c r="G119" t="n">
-        <v>-1712093.31330307</v>
+        <v>-13737.55240307009</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4837,11 +4695,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4852,22 +4706,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C120" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D120" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E120" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F120" t="n">
-        <v>44.7477</v>
+        <v>1201.2198</v>
       </c>
       <c r="G120" t="n">
-        <v>-1712093.31330307</v>
+        <v>-14938.77220307009</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4877,11 +4731,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4892,22 +4742,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C121" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D121" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E121" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F121" t="n">
-        <v>2</v>
+        <v>212</v>
       </c>
       <c r="G121" t="n">
-        <v>-1712091.31330307</v>
+        <v>-14938.77220307009</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4917,11 +4767,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4932,22 +4778,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C122" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D122" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E122" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F122" t="n">
-        <v>5877.9822</v>
+        <v>46.3414</v>
       </c>
       <c r="G122" t="n">
-        <v>-1706213.33110307</v>
+        <v>-14892.43080307009</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4957,11 +4803,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4972,22 +4814,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C123" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D123" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E123" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F123" t="n">
-        <v>46.8824</v>
+        <v>2535.8672</v>
       </c>
       <c r="G123" t="n">
-        <v>-1706260.21350307</v>
+        <v>-14892.43080307009</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4997,11 +4839,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5024,10 +4862,10 @@
         <v>235</v>
       </c>
       <c r="F124" t="n">
-        <v>46.8824</v>
+        <v>178.55</v>
       </c>
       <c r="G124" t="n">
-        <v>-1706307.09590307</v>
+        <v>-15070.98080307009</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5037,11 +4875,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5064,10 +4898,10 @@
         <v>236</v>
       </c>
       <c r="F125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G125" t="n">
-        <v>-1706305.09590307</v>
+        <v>-15069.98080307009</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5077,11 +4911,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5092,22 +4922,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C126" t="n">
         <v>236</v>
       </c>
       <c r="D126" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E126" t="n">
         <v>236</v>
       </c>
       <c r="F126" t="n">
-        <v>45.5424</v>
+        <v>10708.2599</v>
       </c>
       <c r="G126" t="n">
-        <v>-1706305.09590307</v>
+        <v>-15069.98080307009</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5117,11 +4947,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5135,19 +4961,19 @@
         <v>236</v>
       </c>
       <c r="C127" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D127" t="n">
         <v>236</v>
       </c>
       <c r="E127" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F127" t="n">
-        <v>5989.5725</v>
+        <v>924000</v>
       </c>
       <c r="G127" t="n">
-        <v>-1706305.09590307</v>
+        <v>-939069.9808030701</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5157,11 +4983,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5172,22 +4994,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C128" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D128" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E128" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F128" t="n">
-        <v>938.9999</v>
+        <v>1911000</v>
       </c>
       <c r="G128" t="n">
-        <v>-1706305.09590307</v>
+        <v>-939069.9808030701</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5197,11 +5019,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5212,22 +5030,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C129" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D129" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E129" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F129" t="n">
-        <v>940</v>
+        <v>1043978.1043</v>
       </c>
       <c r="G129" t="n">
-        <v>-1706305.09590307</v>
+        <v>-939069.9808030701</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5237,11 +5055,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5252,22 +5066,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C130" t="n">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D130" t="n">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E130" t="n">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F130" t="n">
-        <v>2</v>
+        <v>564.1686</v>
       </c>
       <c r="G130" t="n">
-        <v>-1706303.09590307</v>
+        <v>-939069.9808030701</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5277,11 +5091,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5292,22 +5102,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C131" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D131" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E131" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F131" t="n">
-        <v>4476.9109</v>
+        <v>728003</v>
       </c>
       <c r="G131" t="n">
-        <v>-1710780.00680307</v>
+        <v>-1667072.98080307</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5317,11 +5127,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5332,22 +5138,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C132" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D132" t="n">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E132" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F132" t="n">
-        <v>3</v>
+        <v>2212974.7033</v>
       </c>
       <c r="G132" t="n">
-        <v>-1710777.00680307</v>
+        <v>-1667072.98080307</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5357,11 +5163,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5372,22 +5174,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C133" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D133" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E133" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F133" t="n">
-        <v>2773.3049</v>
+        <v>2176003</v>
       </c>
       <c r="G133" t="n">
-        <v>-1713550.31170307</v>
+        <v>-1667072.98080307</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5397,11 +5199,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5412,22 +5210,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C134" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D134" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E134" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F134" t="n">
-        <v>3</v>
+        <v>2184006</v>
       </c>
       <c r="G134" t="n">
-        <v>-1713547.31170307</v>
+        <v>-1667072.98080307</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5437,11 +5235,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5452,22 +5246,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C135" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D135" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E135" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F135" t="n">
-        <v>8305.5597</v>
+        <v>2176001</v>
       </c>
       <c r="G135" t="n">
-        <v>-1713547.31170307</v>
+        <v>-1667072.98080307</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5477,15 +5271,2567 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
       <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>234</v>
+      </c>
+      <c r="C136" t="n">
+        <v>234</v>
+      </c>
+      <c r="D136" t="n">
+        <v>234</v>
+      </c>
+      <c r="E136" t="n">
+        <v>234</v>
+      </c>
+      <c r="F136" t="n">
+        <v>8000</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-1667072.98080307</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>234</v>
+      </c>
+      <c r="C137" t="n">
+        <v>235</v>
+      </c>
+      <c r="D137" t="n">
+        <v>235</v>
+      </c>
+      <c r="E137" t="n">
+        <v>234</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1877.164</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-1665195.81680307</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>233</v>
+      </c>
+      <c r="C138" t="n">
+        <v>234</v>
+      </c>
+      <c r="D138" t="n">
+        <v>234</v>
+      </c>
+      <c r="E138" t="n">
+        <v>231</v>
+      </c>
+      <c r="F138" t="n">
+        <v>18365.2319</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-1683561.04870307</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>234</v>
+      </c>
+      <c r="C139" t="n">
+        <v>235</v>
+      </c>
+      <c r="D139" t="n">
+        <v>235</v>
+      </c>
+      <c r="E139" t="n">
+        <v>232</v>
+      </c>
+      <c r="F139" t="n">
+        <v>5330.235</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-1678230.81370307</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>232</v>
+      </c>
+      <c r="C140" t="n">
+        <v>232</v>
+      </c>
+      <c r="D140" t="n">
+        <v>232</v>
+      </c>
+      <c r="E140" t="n">
+        <v>232</v>
+      </c>
+      <c r="F140" t="n">
+        <v>488.3723</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-1678719.18600307</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>234</v>
+      </c>
+      <c r="C141" t="n">
+        <v>234</v>
+      </c>
+      <c r="D141" t="n">
+        <v>234</v>
+      </c>
+      <c r="E141" t="n">
+        <v>234</v>
+      </c>
+      <c r="F141" t="n">
+        <v>2</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-1678717.18600307</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>233</v>
+      </c>
+      <c r="C142" t="n">
+        <v>234</v>
+      </c>
+      <c r="D142" t="n">
+        <v>234</v>
+      </c>
+      <c r="E142" t="n">
+        <v>233</v>
+      </c>
+      <c r="F142" t="n">
+        <v>607.2832618025</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-1678717.18600307</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>233</v>
+      </c>
+      <c r="C143" t="n">
+        <v>233</v>
+      </c>
+      <c r="D143" t="n">
+        <v>233</v>
+      </c>
+      <c r="E143" t="n">
+        <v>233</v>
+      </c>
+      <c r="F143" t="n">
+        <v>463.1389</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-1679180.32490307</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>234</v>
+      </c>
+      <c r="C144" t="n">
+        <v>234</v>
+      </c>
+      <c r="D144" t="n">
+        <v>234</v>
+      </c>
+      <c r="E144" t="n">
+        <v>234</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-1679178.32490307</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>234</v>
+      </c>
+      <c r="C145" t="n">
+        <v>234</v>
+      </c>
+      <c r="D145" t="n">
+        <v>234</v>
+      </c>
+      <c r="E145" t="n">
+        <v>234</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1104.3312</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-1679178.32490307</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>233</v>
+      </c>
+      <c r="C146" t="n">
+        <v>233</v>
+      </c>
+      <c r="D146" t="n">
+        <v>233</v>
+      </c>
+      <c r="E146" t="n">
+        <v>233</v>
+      </c>
+      <c r="F146" t="n">
+        <v>3306.4989</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-1682484.82380307</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>234</v>
+      </c>
+      <c r="C147" t="n">
+        <v>234</v>
+      </c>
+      <c r="D147" t="n">
+        <v>234</v>
+      </c>
+      <c r="E147" t="n">
+        <v>234</v>
+      </c>
+      <c r="F147" t="n">
+        <v>2</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-1682482.82380307</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>233</v>
+      </c>
+      <c r="C148" t="n">
+        <v>232</v>
+      </c>
+      <c r="D148" t="n">
+        <v>233</v>
+      </c>
+      <c r="E148" t="n">
+        <v>232</v>
+      </c>
+      <c r="F148" t="n">
+        <v>2586.5768</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-1685069.40060307</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>232</v>
+      </c>
+      <c r="C149" t="n">
+        <v>232</v>
+      </c>
+      <c r="D149" t="n">
+        <v>232</v>
+      </c>
+      <c r="E149" t="n">
+        <v>232</v>
+      </c>
+      <c r="F149" t="n">
+        <v>70</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-1685069.40060307</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>234</v>
+      </c>
+      <c r="C150" t="n">
+        <v>234</v>
+      </c>
+      <c r="D150" t="n">
+        <v>234</v>
+      </c>
+      <c r="E150" t="n">
+        <v>234</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-1685068.40060307</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>232</v>
+      </c>
+      <c r="C151" t="n">
+        <v>233</v>
+      </c>
+      <c r="D151" t="n">
+        <v>233</v>
+      </c>
+      <c r="E151" t="n">
+        <v>232</v>
+      </c>
+      <c r="F151" t="n">
+        <v>865.0901</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-1685933.49070307</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>234</v>
+      </c>
+      <c r="C152" t="n">
+        <v>234</v>
+      </c>
+      <c r="D152" t="n">
+        <v>234</v>
+      </c>
+      <c r="E152" t="n">
+        <v>234</v>
+      </c>
+      <c r="F152" t="n">
+        <v>2</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-1685931.49070307</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>232</v>
+      </c>
+      <c r="C153" t="n">
+        <v>233</v>
+      </c>
+      <c r="D153" t="n">
+        <v>233</v>
+      </c>
+      <c r="E153" t="n">
+        <v>231</v>
+      </c>
+      <c r="F153" t="n">
+        <v>3720.7997</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-1689652.29040307</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>234</v>
+      </c>
+      <c r="C154" t="n">
+        <v>234</v>
+      </c>
+      <c r="D154" t="n">
+        <v>234</v>
+      </c>
+      <c r="E154" t="n">
+        <v>234</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-1689651.29040307</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>233</v>
+      </c>
+      <c r="C155" t="n">
+        <v>234</v>
+      </c>
+      <c r="D155" t="n">
+        <v>234</v>
+      </c>
+      <c r="E155" t="n">
+        <v>233</v>
+      </c>
+      <c r="F155" t="n">
+        <v>132</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-1689651.29040307</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>234</v>
+      </c>
+      <c r="C156" t="n">
+        <v>234</v>
+      </c>
+      <c r="D156" t="n">
+        <v>234</v>
+      </c>
+      <c r="E156" t="n">
+        <v>233</v>
+      </c>
+      <c r="F156" t="n">
+        <v>5284.8924</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-1689651.29040307</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>234</v>
+      </c>
+      <c r="C157" t="n">
+        <v>234</v>
+      </c>
+      <c r="D157" t="n">
+        <v>234</v>
+      </c>
+      <c r="E157" t="n">
+        <v>234</v>
+      </c>
+      <c r="F157" t="n">
+        <v>131</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-1689651.29040307</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>235</v>
+      </c>
+      <c r="C158" t="n">
+        <v>235</v>
+      </c>
+      <c r="D158" t="n">
+        <v>235</v>
+      </c>
+      <c r="E158" t="n">
+        <v>235</v>
+      </c>
+      <c r="F158" t="n">
+        <v>2</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-1689649.29040307</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>235</v>
+      </c>
+      <c r="C159" t="n">
+        <v>235</v>
+      </c>
+      <c r="D159" t="n">
+        <v>235</v>
+      </c>
+      <c r="E159" t="n">
+        <v>235</v>
+      </c>
+      <c r="F159" t="n">
+        <v>5122.7627</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-1689649.29040307</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>237</v>
+      </c>
+      <c r="C160" t="n">
+        <v>237</v>
+      </c>
+      <c r="D160" t="n">
+        <v>237</v>
+      </c>
+      <c r="E160" t="n">
+        <v>237</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-1689648.29040307</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>235</v>
+      </c>
+      <c r="C161" t="n">
+        <v>235</v>
+      </c>
+      <c r="D161" t="n">
+        <v>235</v>
+      </c>
+      <c r="E161" t="n">
+        <v>235</v>
+      </c>
+      <c r="F161" t="n">
+        <v>239.1065</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-1689887.39690307</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>237</v>
+      </c>
+      <c r="C162" t="n">
+        <v>237</v>
+      </c>
+      <c r="D162" t="n">
+        <v>237</v>
+      </c>
+      <c r="E162" t="n">
+        <v>237</v>
+      </c>
+      <c r="F162" t="n">
+        <v>2</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-1689885.39690307</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>238</v>
+      </c>
+      <c r="C163" t="n">
+        <v>238</v>
+      </c>
+      <c r="D163" t="n">
+        <v>238</v>
+      </c>
+      <c r="E163" t="n">
+        <v>238</v>
+      </c>
+      <c r="F163" t="n">
+        <v>2</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-1689883.39690307</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>234</v>
+      </c>
+      <c r="C164" t="n">
+        <v>234</v>
+      </c>
+      <c r="D164" t="n">
+        <v>234</v>
+      </c>
+      <c r="E164" t="n">
+        <v>234</v>
+      </c>
+      <c r="F164" t="n">
+        <v>40.403</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-1689923.79990307</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>237</v>
+      </c>
+      <c r="C165" t="n">
+        <v>237</v>
+      </c>
+      <c r="D165" t="n">
+        <v>237</v>
+      </c>
+      <c r="E165" t="n">
+        <v>237</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-1689922.79990307</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>238</v>
+      </c>
+      <c r="C166" t="n">
+        <v>238</v>
+      </c>
+      <c r="D166" t="n">
+        <v>238</v>
+      </c>
+      <c r="E166" t="n">
+        <v>238</v>
+      </c>
+      <c r="F166" t="n">
+        <v>3</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-1689919.79990307</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>238</v>
+      </c>
+      <c r="C167" t="n">
+        <v>235</v>
+      </c>
+      <c r="D167" t="n">
+        <v>238</v>
+      </c>
+      <c r="E167" t="n">
+        <v>235</v>
+      </c>
+      <c r="F167" t="n">
+        <v>579.6706</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-1690499.47050307</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>238</v>
+      </c>
+      <c r="C168" t="n">
+        <v>238</v>
+      </c>
+      <c r="D168" t="n">
+        <v>238</v>
+      </c>
+      <c r="E168" t="n">
+        <v>238</v>
+      </c>
+      <c r="F168" t="n">
+        <v>541.1623</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-1689958.30820307</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>237</v>
+      </c>
+      <c r="C169" t="n">
+        <v>238</v>
+      </c>
+      <c r="D169" t="n">
+        <v>238</v>
+      </c>
+      <c r="E169" t="n">
+        <v>237</v>
+      </c>
+      <c r="F169" t="n">
+        <v>2930.7666</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-1689958.30820307</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>238</v>
+      </c>
+      <c r="C170" t="n">
+        <v>238</v>
+      </c>
+      <c r="D170" t="n">
+        <v>238</v>
+      </c>
+      <c r="E170" t="n">
+        <v>238</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1119.3357</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-1689958.30820307</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>238</v>
+      </c>
+      <c r="C171" t="n">
+        <v>238</v>
+      </c>
+      <c r="D171" t="n">
+        <v>238</v>
+      </c>
+      <c r="E171" t="n">
+        <v>238</v>
+      </c>
+      <c r="F171" t="n">
+        <v>11</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-1689958.30820307</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>239</v>
+      </c>
+      <c r="C172" t="n">
+        <v>239</v>
+      </c>
+      <c r="D172" t="n">
+        <v>239</v>
+      </c>
+      <c r="E172" t="n">
+        <v>239</v>
+      </c>
+      <c r="F172" t="n">
+        <v>3</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-1689955.30820307</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>239</v>
+      </c>
+      <c r="C173" t="n">
+        <v>239</v>
+      </c>
+      <c r="D173" t="n">
+        <v>239</v>
+      </c>
+      <c r="E173" t="n">
+        <v>239</v>
+      </c>
+      <c r="F173" t="n">
+        <v>4</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-1689955.30820307</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>237</v>
+      </c>
+      <c r="C174" t="n">
+        <v>234</v>
+      </c>
+      <c r="D174" t="n">
+        <v>237</v>
+      </c>
+      <c r="E174" t="n">
+        <v>234</v>
+      </c>
+      <c r="F174" t="n">
+        <v>23603.8136</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-1713559.12180307</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>238</v>
+      </c>
+      <c r="C175" t="n">
+        <v>238</v>
+      </c>
+      <c r="D175" t="n">
+        <v>238</v>
+      </c>
+      <c r="E175" t="n">
+        <v>238</v>
+      </c>
+      <c r="F175" t="n">
+        <v>2</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-1713557.12180307</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>237</v>
+      </c>
+      <c r="C176" t="n">
+        <v>237</v>
+      </c>
+      <c r="D176" t="n">
+        <v>237</v>
+      </c>
+      <c r="E176" t="n">
+        <v>237</v>
+      </c>
+      <c r="F176" t="n">
+        <v>211.85</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-1713768.97180307</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>237</v>
+      </c>
+      <c r="C177" t="n">
+        <v>237</v>
+      </c>
+      <c r="D177" t="n">
+        <v>237</v>
+      </c>
+      <c r="E177" t="n">
+        <v>237</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1664.9999</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-1713768.97180307</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>237</v>
+      </c>
+      <c r="C178" t="n">
+        <v>237</v>
+      </c>
+      <c r="D178" t="n">
+        <v>237</v>
+      </c>
+      <c r="E178" t="n">
+        <v>237</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-1713768.97180307</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>237</v>
+      </c>
+      <c r="C179" t="n">
+        <v>237</v>
+      </c>
+      <c r="D179" t="n">
+        <v>237</v>
+      </c>
+      <c r="E179" t="n">
+        <v>237</v>
+      </c>
+      <c r="F179" t="n">
+        <v>3192</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-1713768.97180307</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>238</v>
+      </c>
+      <c r="C180" t="n">
+        <v>238</v>
+      </c>
+      <c r="D180" t="n">
+        <v>238</v>
+      </c>
+      <c r="E180" t="n">
+        <v>238</v>
+      </c>
+      <c r="F180" t="n">
+        <v>1</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-1713767.97180307</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>236</v>
+      </c>
+      <c r="C181" t="n">
+        <v>236</v>
+      </c>
+      <c r="D181" t="n">
+        <v>236</v>
+      </c>
+      <c r="E181" t="n">
+        <v>236</v>
+      </c>
+      <c r="F181" t="n">
+        <v>220.8662</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-1713988.83800307</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>236</v>
+      </c>
+      <c r="C182" t="n">
+        <v>237</v>
+      </c>
+      <c r="D182" t="n">
+        <v>237</v>
+      </c>
+      <c r="E182" t="n">
+        <v>235</v>
+      </c>
+      <c r="F182" t="n">
+        <v>1941.2724</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-1712047.56560307</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>235</v>
+      </c>
+      <c r="C183" t="n">
+        <v>235</v>
+      </c>
+      <c r="D183" t="n">
+        <v>235</v>
+      </c>
+      <c r="E183" t="n">
+        <v>235</v>
+      </c>
+      <c r="F183" t="n">
+        <v>46.7477</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-1712094.31330307</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>235</v>
+      </c>
+      <c r="C184" t="n">
+        <v>235</v>
+      </c>
+      <c r="D184" t="n">
+        <v>235</v>
+      </c>
+      <c r="E184" t="n">
+        <v>235</v>
+      </c>
+      <c r="F184" t="n">
+        <v>1</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-1712094.31330307</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>235</v>
+      </c>
+      <c r="C185" t="n">
+        <v>235</v>
+      </c>
+      <c r="D185" t="n">
+        <v>235</v>
+      </c>
+      <c r="E185" t="n">
+        <v>235</v>
+      </c>
+      <c r="F185" t="n">
+        <v>433.1299</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-1712094.31330307</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>235</v>
+      </c>
+      <c r="C186" t="n">
+        <v>235</v>
+      </c>
+      <c r="D186" t="n">
+        <v>235</v>
+      </c>
+      <c r="E186" t="n">
+        <v>235</v>
+      </c>
+      <c r="F186" t="n">
+        <v>774.2322</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-1712094.31330307</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>235</v>
+      </c>
+      <c r="C187" t="n">
+        <v>235</v>
+      </c>
+      <c r="D187" t="n">
+        <v>235</v>
+      </c>
+      <c r="E187" t="n">
+        <v>235</v>
+      </c>
+      <c r="F187" t="n">
+        <v>68</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-1712094.31330307</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>235</v>
+      </c>
+      <c r="C188" t="n">
+        <v>235</v>
+      </c>
+      <c r="D188" t="n">
+        <v>235</v>
+      </c>
+      <c r="E188" t="n">
+        <v>235</v>
+      </c>
+      <c r="F188" t="n">
+        <v>1</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-1712094.31330307</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>235</v>
+      </c>
+      <c r="C189" t="n">
+        <v>235</v>
+      </c>
+      <c r="D189" t="n">
+        <v>235</v>
+      </c>
+      <c r="E189" t="n">
+        <v>235</v>
+      </c>
+      <c r="F189" t="n">
+        <v>2052.6157</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-1712094.31330307</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>236</v>
+      </c>
+      <c r="C190" t="n">
+        <v>236</v>
+      </c>
+      <c r="D190" t="n">
+        <v>236</v>
+      </c>
+      <c r="E190" t="n">
+        <v>236</v>
+      </c>
+      <c r="F190" t="n">
+        <v>1</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-1712093.31330307</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>236</v>
+      </c>
+      <c r="C191" t="n">
+        <v>236</v>
+      </c>
+      <c r="D191" t="n">
+        <v>236</v>
+      </c>
+      <c r="E191" t="n">
+        <v>236</v>
+      </c>
+      <c r="F191" t="n">
+        <v>44.7477</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-1712093.31330307</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>237</v>
+      </c>
+      <c r="C192" t="n">
+        <v>237</v>
+      </c>
+      <c r="D192" t="n">
+        <v>237</v>
+      </c>
+      <c r="E192" t="n">
+        <v>237</v>
+      </c>
+      <c r="F192" t="n">
+        <v>2</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-1712091.31330307</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>235</v>
+      </c>
+      <c r="C193" t="n">
+        <v>238</v>
+      </c>
+      <c r="D193" t="n">
+        <v>238</v>
+      </c>
+      <c r="E193" t="n">
+        <v>234</v>
+      </c>
+      <c r="F193" t="n">
+        <v>5877.9822</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-1706213.33110307</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>236</v>
+      </c>
+      <c r="C194" t="n">
+        <v>236</v>
+      </c>
+      <c r="D194" t="n">
+        <v>236</v>
+      </c>
+      <c r="E194" t="n">
+        <v>236</v>
+      </c>
+      <c r="F194" t="n">
+        <v>46.8824</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-1706260.21350307</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>235</v>
+      </c>
+      <c r="C195" t="n">
+        <v>235</v>
+      </c>
+      <c r="D195" t="n">
+        <v>235</v>
+      </c>
+      <c r="E195" t="n">
+        <v>235</v>
+      </c>
+      <c r="F195" t="n">
+        <v>46.8824</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-1706307.09590307</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>236</v>
+      </c>
+      <c r="C196" t="n">
+        <v>236</v>
+      </c>
+      <c r="D196" t="n">
+        <v>236</v>
+      </c>
+      <c r="E196" t="n">
+        <v>236</v>
+      </c>
+      <c r="F196" t="n">
+        <v>2</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-1706305.09590307</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>238</v>
+      </c>
+      <c r="C197" t="n">
+        <v>236</v>
+      </c>
+      <c r="D197" t="n">
+        <v>238</v>
+      </c>
+      <c r="E197" t="n">
+        <v>236</v>
+      </c>
+      <c r="F197" t="n">
+        <v>45.5424</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-1706305.09590307</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>236</v>
+      </c>
+      <c r="C198" t="n">
+        <v>236</v>
+      </c>
+      <c r="D198" t="n">
+        <v>236</v>
+      </c>
+      <c r="E198" t="n">
+        <v>236</v>
+      </c>
+      <c r="F198" t="n">
+        <v>5989.5725</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-1706305.09590307</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>236</v>
+      </c>
+      <c r="C199" t="n">
+        <v>236</v>
+      </c>
+      <c r="D199" t="n">
+        <v>236</v>
+      </c>
+      <c r="E199" t="n">
+        <v>236</v>
+      </c>
+      <c r="F199" t="n">
+        <v>938.9999</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-1706305.09590307</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>236</v>
+      </c>
+      <c r="C200" t="n">
+        <v>236</v>
+      </c>
+      <c r="D200" t="n">
+        <v>236</v>
+      </c>
+      <c r="E200" t="n">
+        <v>236</v>
+      </c>
+      <c r="F200" t="n">
+        <v>940</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-1706305.09590307</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>238</v>
+      </c>
+      <c r="C201" t="n">
+        <v>238</v>
+      </c>
+      <c r="D201" t="n">
+        <v>238</v>
+      </c>
+      <c r="E201" t="n">
+        <v>238</v>
+      </c>
+      <c r="F201" t="n">
+        <v>2</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-1706303.09590307</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>236</v>
+      </c>
+      <c r="C202" t="n">
+        <v>236</v>
+      </c>
+      <c r="D202" t="n">
+        <v>236</v>
+      </c>
+      <c r="E202" t="n">
+        <v>236</v>
+      </c>
+      <c r="F202" t="n">
+        <v>4476.9109</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-1710780.00680307</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>238</v>
+      </c>
+      <c r="C203" t="n">
+        <v>238</v>
+      </c>
+      <c r="D203" t="n">
+        <v>238</v>
+      </c>
+      <c r="E203" t="n">
+        <v>238</v>
+      </c>
+      <c r="F203" t="n">
+        <v>3</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-1710777.00680307</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>236</v>
+      </c>
+      <c r="C204" t="n">
+        <v>235</v>
+      </c>
+      <c r="D204" t="n">
+        <v>236</v>
+      </c>
+      <c r="E204" t="n">
+        <v>235</v>
+      </c>
+      <c r="F204" t="n">
+        <v>2773.3049</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-1713550.31170307</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>236</v>
+      </c>
+      <c r="C205" t="n">
+        <v>236</v>
+      </c>
+      <c r="D205" t="n">
+        <v>236</v>
+      </c>
+      <c r="E205" t="n">
+        <v>236</v>
+      </c>
+      <c r="F205" t="n">
+        <v>3</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-1713547.31170307</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>236</v>
+      </c>
+      <c r="C206" t="n">
+        <v>236</v>
+      </c>
+      <c r="D206" t="n">
+        <v>236</v>
+      </c>
+      <c r="E206" t="n">
+        <v>236</v>
+      </c>
+      <c r="F206" t="n">
+        <v>8305.5597</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-1713547.31170307</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-21 BackTest INS.xlsx
+++ b/BackTest/2019-10-21 BackTest INS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N206"/>
+  <dimension ref="A1:M206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-41896.4589827586</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,15 @@
         <v>-41896.4589827586</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>238</v>
-      </c>
-      <c r="K3" t="n">
-        <v>238</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,142 +517,132 @@
         <v>-41902.72368275859</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>238</v>
-      </c>
-      <c r="K4" t="n">
-        <v>238</v>
-      </c>
-      <c r="L4" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>239</v>
+      </c>
+      <c r="C5" t="n">
+        <v>239</v>
+      </c>
+      <c r="D5" t="n">
+        <v>239</v>
+      </c>
+      <c r="E5" t="n">
+        <v>239</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-41900.72368275859</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>235</v>
+      </c>
+      <c r="J5" t="n">
+        <v>235</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>238</v>
+      </c>
+      <c r="C6" t="n">
+        <v>242</v>
+      </c>
+      <c r="D6" t="n">
+        <v>242</v>
+      </c>
+      <c r="E6" t="n">
+        <v>238</v>
+      </c>
+      <c r="F6" t="n">
+        <v>16556.2871</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-25344.43658275859</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>239</v>
+      </c>
+      <c r="J6" t="n">
+        <v>235</v>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>239</v>
-      </c>
-      <c r="C5" t="n">
-        <v>239</v>
-      </c>
-      <c r="D5" t="n">
-        <v>239</v>
-      </c>
-      <c r="E5" t="n">
-        <v>239</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-41900.72368275859</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>235</v>
-      </c>
-      <c r="K5" t="n">
-        <v>238</v>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>242</v>
+      </c>
+      <c r="C7" t="n">
+        <v>240</v>
+      </c>
+      <c r="D7" t="n">
+        <v>242</v>
+      </c>
+      <c r="E7" t="n">
+        <v>240</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2361.7136</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-27706.15018275859</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>235</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>238</v>
-      </c>
-      <c r="C6" t="n">
-        <v>242</v>
-      </c>
-      <c r="D6" t="n">
-        <v>242</v>
-      </c>
-      <c r="E6" t="n">
-        <v>238</v>
-      </c>
-      <c r="F6" t="n">
-        <v>16556.2871</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-25344.43658275859</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>242</v>
-      </c>
-      <c r="C7" t="n">
-        <v>240</v>
-      </c>
-      <c r="D7" t="n">
-        <v>242</v>
-      </c>
-      <c r="E7" t="n">
-        <v>240</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2361.7136</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-27706.15018275859</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -694,16 +669,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -730,16 +702,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -766,16 +735,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -802,16 +768,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -838,16 +801,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -874,16 +834,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -910,16 +867,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -946,16 +900,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -982,16 +933,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1018,16 +966,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1054,16 +999,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1090,16 +1032,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1126,16 +1065,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1162,16 +1098,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1196,18 +1129,15 @@
         <v>-30559.01007786169</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1232,18 +1162,15 @@
         <v>-26696.06407786169</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1268,18 +1195,15 @@
         <v>-27209.53507786169</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1306,16 +1230,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1342,16 +1263,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1378,16 +1296,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1414,16 +1329,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1450,16 +1362,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1486,16 +1395,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1522,16 +1428,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1558,16 +1461,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1594,16 +1494,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1630,16 +1527,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1666,16 +1560,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1702,16 +1593,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1738,16 +1626,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1774,16 +1659,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1810,16 +1692,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1846,16 +1725,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1882,16 +1758,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1918,16 +1791,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1954,16 +1824,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1990,16 +1857,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2026,16 +1890,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2062,16 +1923,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2098,16 +1956,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2134,16 +1989,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2170,16 +2022,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2206,16 +2055,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2242,16 +2088,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2278,16 +2121,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2314,16 +2154,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2350,16 +2187,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2386,16 +2220,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2422,16 +2253,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2458,16 +2286,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2494,16 +2319,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2530,16 +2352,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2566,16 +2385,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2602,16 +2418,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2638,16 +2451,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2674,16 +2484,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2710,16 +2517,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2746,16 +2550,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2782,16 +2583,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2818,16 +2616,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2854,16 +2649,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2890,16 +2682,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2926,16 +2715,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2962,16 +2748,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2998,16 +2781,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3032,18 +2812,15 @@
         <v>-6662.469977861685</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3068,18 +2845,15 @@
         <v>-6662.469977861685</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3104,18 +2878,15 @@
         <v>-8977.974977861686</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3140,18 +2911,15 @@
         <v>-21493.36867786169</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3176,18 +2944,15 @@
         <v>-21056.57510265169</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3214,16 +2979,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3250,16 +3012,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3286,16 +3045,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3322,16 +3078,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3358,16 +3111,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3394,16 +3144,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3428,18 +3175,15 @@
         <v>-20459.76160265169</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3464,18 +3208,15 @@
         <v>-20459.76160265169</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3500,18 +3241,15 @@
         <v>-20459.76160265169</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3536,18 +3274,15 @@
         <v>-20459.76160265169</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3572,18 +3307,15 @@
         <v>-20459.76160265169</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3610,16 +3342,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3644,18 +3373,15 @@
         <v>-20594.71550307009</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3682,16 +3408,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3716,18 +3439,15 @@
         <v>-20649.30280307009</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3752,18 +3472,15 @@
         <v>-20649.30280307009</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3788,18 +3505,15 @@
         <v>-20137.30280307009</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3824,18 +3538,15 @@
         <v>-20137.30280307009</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3862,16 +3573,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3898,16 +3606,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3934,16 +3639,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3970,16 +3672,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4006,16 +3705,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4042,16 +3738,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4078,16 +3771,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4114,16 +3804,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4150,16 +3837,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>1</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4186,16 +3870,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4222,16 +3903,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4258,16 +3936,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>1</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4294,16 +3969,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4330,16 +4002,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4366,16 +4035,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4402,16 +4068,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4438,16 +4101,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4474,16 +4134,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4510,16 +4167,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4546,16 +4200,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4582,16 +4233,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4618,16 +4266,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4654,16 +4299,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4690,16 +4332,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4726,16 +4365,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4762,16 +4398,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4798,16 +4431,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4834,16 +4464,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4870,16 +4497,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4906,16 +4530,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4942,16 +4563,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4978,16 +4596,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5014,16 +4629,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5050,16 +4662,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5086,16 +4695,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5122,16 +4728,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5158,16 +4761,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5194,16 +4794,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5230,16 +4827,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5266,16 +4860,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5302,16 +4893,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5338,16 +4926,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5374,16 +4959,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5410,16 +4992,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5446,16 +5025,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5482,16 +5058,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5518,16 +5091,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5554,16 +5124,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5590,16 +5157,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5626,16 +5190,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5662,16 +5223,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5698,16 +5256,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5734,16 +5289,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5770,16 +5322,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5806,16 +5355,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5842,16 +5388,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5878,16 +5421,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5914,16 +5454,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5950,16 +5487,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5986,16 +5520,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6022,16 +5553,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6058,16 +5586,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6094,16 +5619,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6130,16 +5652,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6166,16 +5685,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6202,16 +5718,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6238,16 +5751,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6274,16 +5784,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6310,16 +5817,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6346,16 +5850,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6382,16 +5883,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6418,16 +5916,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6454,16 +5949,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6490,16 +5982,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6526,16 +6015,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6562,16 +6048,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6598,16 +6081,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6634,16 +6114,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6670,16 +6147,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6706,16 +6180,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6742,16 +6213,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6778,16 +6246,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6814,16 +6279,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6850,16 +6312,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6886,16 +6345,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6922,16 +6378,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6958,16 +6411,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6992,18 +6442,19 @@
         <v>-1712094.31330307</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
+        <v>237</v>
+      </c>
+      <c r="J183" t="n">
+        <v>237</v>
+      </c>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7030,16 +6481,19 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>237</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7066,16 +6520,19 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>237</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7102,16 +6559,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7138,16 +6592,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7174,16 +6625,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7210,16 +6658,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7246,16 +6691,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7280,18 +6722,19 @@
         <v>-1712093.31330307</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
+        <v>236</v>
+      </c>
+      <c r="J191" t="n">
+        <v>236</v>
+      </c>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7318,16 +6761,19 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>236</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7354,16 +6800,19 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>236</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7390,16 +6839,19 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>236</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7426,16 +6878,19 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>236</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7462,16 +6917,19 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>236</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7496,18 +6954,23 @@
         <v>-1706305.09590307</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+        <v>236</v>
+      </c>
+      <c r="J197" t="n">
+        <v>236</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7532,18 +6995,23 @@
         <v>-1706305.09590307</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+        <v>236</v>
+      </c>
+      <c r="J198" t="n">
+        <v>236</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7568,18 +7036,23 @@
         <v>-1706305.09590307</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+        <v>236</v>
+      </c>
+      <c r="J199" t="n">
+        <v>236</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7606,16 +7079,19 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>236</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7640,18 +7116,23 @@
         <v>-1706303.09590307</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+        <v>236</v>
+      </c>
+      <c r="J201" t="n">
+        <v>236</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7678,16 +7159,19 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>236</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7714,16 +7198,19 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>236</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7750,16 +7237,19 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>236</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7786,16 +7276,19 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>236</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7820,20 +7313,25 @@
         <v>-1713547.31170307</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+        <v>236</v>
+      </c>
+      <c r="J206" t="n">
+        <v>236</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-21 BackTest INS.xlsx
+++ b/BackTest/2019-10-21 BackTest INS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,14 +550,10 @@
         <v>-41900.72368275859</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>235</v>
-      </c>
-      <c r="J5" t="n">
-        <v>235</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
@@ -587,19 +583,11 @@
         <v>-25344.43658275859</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>239</v>
-      </c>
-      <c r="J6" t="n">
-        <v>235</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -631,14 +619,8 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>235</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -997,7 +979,7 @@
         <v>-24008.15147786169</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1030,7 +1012,7 @@
         <v>-24008.15147786169</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1063,7 +1045,7 @@
         <v>-24008.15147786169</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1096,7 +1078,7 @@
         <v>-30559.01007786169</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1129,7 +1111,7 @@
         <v>-30559.01007786169</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1162,7 +1144,7 @@
         <v>-26696.06407786169</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1195,7 +1177,7 @@
         <v>-27209.53507786169</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1228,7 +1210,7 @@
         <v>-27209.53507786169</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1261,7 +1243,7 @@
         <v>-27209.53507786169</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1294,7 +1276,7 @@
         <v>-28308.00097786169</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1327,7 +1309,7 @@
         <v>-28307.00097786169</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1360,7 +1342,7 @@
         <v>-28307.00097786169</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1393,7 +1375,7 @@
         <v>-28318.06117786169</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1426,7 +1408,7 @@
         <v>-29116.72787786169</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1459,7 +1441,7 @@
         <v>-30214.07717786169</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1492,7 +1474,7 @@
         <v>-30214.07717786169</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1525,7 +1507,7 @@
         <v>-30168.83277786169</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1558,7 +1540,7 @@
         <v>-30385.9476778617</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1591,7 +1573,7 @@
         <v>-30052.84777786169</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1624,7 +1606,7 @@
         <v>-30082.28237786169</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -2350,7 +2332,7 @@
         <v>-17830.70127786168</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2812,7 +2794,7 @@
         <v>-6662.469977861685</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2845,7 +2827,7 @@
         <v>-6662.469977861685</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2878,7 +2860,7 @@
         <v>-8977.974977861686</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2911,7 +2893,7 @@
         <v>-21493.36867786169</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2944,7 +2926,7 @@
         <v>-21056.57510265169</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3175,7 +3157,7 @@
         <v>-20459.76160265169</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3208,7 +3190,7 @@
         <v>-20459.76160265169</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3241,7 +3223,7 @@
         <v>-20459.76160265169</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3274,7 +3256,7 @@
         <v>-20459.76160265169</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3307,7 +3289,7 @@
         <v>-20459.76160265169</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3373,7 +3355,7 @@
         <v>-20594.71550307009</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3439,7 +3421,7 @@
         <v>-20649.30280307009</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3472,7 +3454,7 @@
         <v>-20649.30280307009</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3505,7 +3487,7 @@
         <v>-20137.30280307009</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3538,7 +3520,7 @@
         <v>-20137.30280307009</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3604,7 +3586,7 @@
         <v>-34476.00350307009</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3637,7 +3619,7 @@
         <v>-33600.74100307009</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3670,7 +3652,7 @@
         <v>-33600.74100307009</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3703,7 +3685,7 @@
         <v>-31812.95170307009</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4264,7 +4246,7 @@
         <v>-15074.09920307009</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4297,7 +4279,7 @@
         <v>-15074.09920307009</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4330,7 +4312,7 @@
         <v>-13737.55240307009</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4363,7 +4345,7 @@
         <v>-14938.77220307009</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4396,7 +4378,7 @@
         <v>-14938.77220307009</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4429,7 +4411,7 @@
         <v>-14892.43080307009</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4462,7 +4444,7 @@
         <v>-14892.43080307009</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4495,7 +4477,7 @@
         <v>-15070.98080307009</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4528,7 +4510,7 @@
         <v>-15069.98080307009</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4561,7 +4543,7 @@
         <v>-15069.98080307009</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4594,7 +4576,7 @@
         <v>-939069.9808030701</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4627,7 +4609,7 @@
         <v>-939069.9808030701</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4693,7 +4675,7 @@
         <v>-939069.9808030701</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -6442,14 +6424,10 @@
         <v>-1712094.31330307</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
-      </c>
-      <c r="I183" t="n">
-        <v>237</v>
-      </c>
-      <c r="J183" t="n">
-        <v>237</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
@@ -6482,119 +6460,127 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>237</v>
-      </c>
-      <c r="K184" t="inlineStr">
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>235</v>
+      </c>
+      <c r="C185" t="n">
+        <v>235</v>
+      </c>
+      <c r="D185" t="n">
+        <v>235</v>
+      </c>
+      <c r="E185" t="n">
+        <v>235</v>
+      </c>
+      <c r="F185" t="n">
+        <v>433.1299</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-1712094.31330307</v>
+      </c>
+      <c r="H185" t="n">
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>235</v>
+      </c>
+      <c r="J185" t="n">
+        <v>235</v>
+      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>235</v>
+      </c>
+      <c r="C186" t="n">
+        <v>235</v>
+      </c>
+      <c r="D186" t="n">
+        <v>235</v>
+      </c>
+      <c r="E186" t="n">
+        <v>235</v>
+      </c>
+      <c r="F186" t="n">
+        <v>774.2322</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-1712094.31330307</v>
+      </c>
+      <c r="H186" t="n">
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>235</v>
+      </c>
+      <c r="J186" t="n">
+        <v>235</v>
+      </c>
+      <c r="K186" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>235</v>
-      </c>
-      <c r="C185" t="n">
-        <v>235</v>
-      </c>
-      <c r="D185" t="n">
-        <v>235</v>
-      </c>
-      <c r="E185" t="n">
-        <v>235</v>
-      </c>
-      <c r="F185" t="n">
-        <v>433.1299</v>
-      </c>
-      <c r="G185" t="n">
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>235</v>
+      </c>
+      <c r="C187" t="n">
+        <v>235</v>
+      </c>
+      <c r="D187" t="n">
+        <v>235</v>
+      </c>
+      <c r="E187" t="n">
+        <v>235</v>
+      </c>
+      <c r="F187" t="n">
+        <v>68</v>
+      </c>
+      <c r="G187" t="n">
         <v>-1712094.31330307</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>237</v>
-      </c>
-      <c r="K185" t="inlineStr">
+      <c r="H187" t="n">
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>235</v>
+      </c>
+      <c r="J187" t="n">
+        <v>235</v>
+      </c>
+      <c r="K187" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>235</v>
-      </c>
-      <c r="C186" t="n">
-        <v>235</v>
-      </c>
-      <c r="D186" t="n">
-        <v>235</v>
-      </c>
-      <c r="E186" t="n">
-        <v>235</v>
-      </c>
-      <c r="F186" t="n">
-        <v>774.2322</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-1712094.31330307</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>235</v>
-      </c>
-      <c r="C187" t="n">
-        <v>235</v>
-      </c>
-      <c r="D187" t="n">
-        <v>235</v>
-      </c>
-      <c r="E187" t="n">
-        <v>235</v>
-      </c>
-      <c r="F187" t="n">
-        <v>68</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-1712094.31330307</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6623,10 +6609,14 @@
         <v>-1712094.31330307</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>235</v>
+      </c>
+      <c r="J188" t="n">
+        <v>235</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
@@ -6656,11 +6646,19 @@
         <v>-1712094.31330307</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>235</v>
+      </c>
+      <c r="J189" t="n">
+        <v>235</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6689,11 +6687,19 @@
         <v>-1712093.31330307</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>235</v>
+      </c>
+      <c r="J190" t="n">
+        <v>235</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6722,7 +6728,7 @@
         <v>-1712093.31330307</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191" t="n">
         <v>236</v>
@@ -6759,9 +6765,11 @@
         <v>-1712091.31330307</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>236</v>
+      </c>
       <c r="J192" t="n">
         <v>236</v>
       </c>
@@ -6798,9 +6806,11 @@
         <v>-1706213.33110307</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>237</v>
+      </c>
       <c r="J193" t="n">
         <v>236</v>
       </c>
@@ -6837,9 +6847,11 @@
         <v>-1706260.21350307</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>238</v>
+      </c>
       <c r="J194" t="n">
         <v>236</v>
       </c>
@@ -6876,9 +6888,11 @@
         <v>-1706307.09590307</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>236</v>
+      </c>
       <c r="J195" t="n">
         <v>236</v>
       </c>
@@ -6915,9 +6929,11 @@
         <v>-1706305.09590307</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>235</v>
+      </c>
       <c r="J196" t="n">
         <v>236</v>
       </c>
@@ -6954,7 +6970,7 @@
         <v>-1706305.09590307</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I197" t="n">
         <v>236</v>
@@ -6995,7 +7011,7 @@
         <v>-1706305.09590307</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I198" t="n">
         <v>236</v>
@@ -7036,7 +7052,7 @@
         <v>-1706305.09590307</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I199" t="n">
         <v>236</v>
@@ -7077,9 +7093,11 @@
         <v>-1706305.09590307</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>236</v>
+      </c>
       <c r="J200" t="n">
         <v>236</v>
       </c>
@@ -7116,7 +7134,7 @@
         <v>-1706303.09590307</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I201" t="n">
         <v>236</v>
@@ -7157,9 +7175,11 @@
         <v>-1710780.00680307</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>238</v>
+      </c>
       <c r="J202" t="n">
         <v>236</v>
       </c>
@@ -7196,9 +7216,11 @@
         <v>-1710777.00680307</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>236</v>
+      </c>
       <c r="J203" t="n">
         <v>236</v>
       </c>
@@ -7235,9 +7257,11 @@
         <v>-1713550.31170307</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>238</v>
+      </c>
       <c r="J204" t="n">
         <v>236</v>
       </c>
@@ -7274,9 +7298,11 @@
         <v>-1713547.31170307</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>235</v>
+      </c>
       <c r="J205" t="n">
         <v>236</v>
       </c>
@@ -7313,7 +7339,7 @@
         <v>-1713547.31170307</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I206" t="n">
         <v>236</v>
@@ -7332,6 +7358,6 @@
       <c r="M206" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-21 BackTest INS.xlsx
+++ b/BackTest/2019-10-21 BackTest INS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-41896.4589827586</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-41896.4589827586</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-41902.72368275859</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-41900.72368275859</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-25344.43658275859</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-27706.15018275859</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-27706.15018275859</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-24008.15147786169</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-24008.15147786169</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-24008.15147786169</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-30559.01007786169</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-30559.01007786169</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-26696.06407786169</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-27209.53507786169</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-27209.53507786169</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-27209.53507786169</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-28308.00097786169</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-28307.00097786169</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-28307.00097786169</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-28318.06117786169</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-29116.72787786169</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-30082.28237786169</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-17830.70127786168</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-13477.21520307009</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-15074.09920307009</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-15074.09920307009</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-13737.55240307009</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-14938.77220307009</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-14938.77220307009</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-14892.43080307009</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-14892.43080307009</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-15070.98080307009</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-15069.98080307009</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-15069.98080307009</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-939069.9808030701</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-939069.9808030701</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-939069.9808030701</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -6490,14 +6490,10 @@
         <v>-1712094.31330307</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>235</v>
-      </c>
-      <c r="J185" t="n">
-        <v>235</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
@@ -6527,19 +6523,11 @@
         <v>-1712094.31330307</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>235</v>
-      </c>
-      <c r="J186" t="n">
-        <v>235</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6568,19 +6556,11 @@
         <v>-1712094.31330307</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>235</v>
-      </c>
-      <c r="J187" t="n">
-        <v>235</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6609,14 +6589,10 @@
         <v>-1712094.31330307</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>235</v>
-      </c>
-      <c r="J188" t="n">
-        <v>235</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
@@ -6646,19 +6622,11 @@
         <v>-1712094.31330307</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>235</v>
-      </c>
-      <c r="J189" t="n">
-        <v>235</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6687,19 +6655,11 @@
         <v>-1712093.31330307</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>235</v>
-      </c>
-      <c r="J190" t="n">
-        <v>235</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6765,11 +6725,9 @@
         <v>-1712091.31330307</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
         <v>236</v>
       </c>
@@ -6806,11 +6764,9 @@
         <v>-1706213.33110307</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>237</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
         <v>236</v>
       </c>
@@ -6847,11 +6803,9 @@
         <v>-1706260.21350307</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>238</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
         <v>236</v>
       </c>
@@ -6888,11 +6842,9 @@
         <v>-1706307.09590307</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
         <v>236</v>
       </c>
@@ -6929,11 +6881,9 @@
         <v>-1706305.09590307</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>235</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
         <v>236</v>
       </c>
@@ -6970,11 +6920,9 @@
         <v>-1706305.09590307</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
         <v>236</v>
       </c>
@@ -7011,11 +6959,9 @@
         <v>-1706305.09590307</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
         <v>236</v>
       </c>
@@ -7052,11 +6998,9 @@
         <v>-1706305.09590307</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
         <v>236</v>
       </c>
@@ -7093,11 +7037,9 @@
         <v>-1706305.09590307</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
         <v>236</v>
       </c>
@@ -7134,11 +7076,9 @@
         <v>-1706303.09590307</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
         <v>236</v>
       </c>
@@ -7175,11 +7115,9 @@
         <v>-1710780.00680307</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>238</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
         <v>236</v>
       </c>
@@ -7216,11 +7154,9 @@
         <v>-1710777.00680307</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
         <v>236</v>
       </c>
@@ -7257,11 +7193,9 @@
         <v>-1713550.31170307</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>238</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
         <v>236</v>
       </c>
@@ -7298,11 +7232,9 @@
         <v>-1713547.31170307</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>235</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
         <v>236</v>
       </c>
@@ -7339,11 +7271,9 @@
         <v>-1713547.31170307</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
         <v>236</v>
       </c>
@@ -7358,6 +7288,6 @@
       <c r="M206" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-21 BackTest INS.xlsx
+++ b/BackTest/2019-10-21 BackTest INS.xlsx
@@ -451,7 +451,7 @@
         <v>-41896.4589827586</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-41896.4589827586</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-41902.72368275859</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-41900.72368275859</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-25344.43658275859</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-27706.15018275859</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-27706.15018275859</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-24008.15147786169</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-24008.15147786169</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-30559.01007786169</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-30559.01007786169</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-26696.06407786169</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-27209.53507786169</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-27209.53507786169</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-27209.53507786169</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-28308.00097786169</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-28307.00097786169</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-28307.00097786169</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-28318.06117786169</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-29116.72787786169</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-30214.07717786169</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-30168.83277786169</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-30052.84777786169</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-20137.30280307009</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-33600.74100307009</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-33600.74100307009</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-31812.95170307009</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-43075.88660307009</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-29171.03950307009</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-10761.78440307009</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-12962.04900307009</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-13435.09180307009</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -6655,10 +6655,14 @@
         <v>-1712093.31330307</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>235</v>
+      </c>
+      <c r="J190" t="n">
+        <v>235</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
@@ -6694,9 +6698,13 @@
         <v>236</v>
       </c>
       <c r="J191" t="n">
-        <v>236</v>
-      </c>
-      <c r="K191" t="inlineStr"/>
+        <v>235</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6725,11 +6733,13 @@
         <v>-1712091.31330307</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>236</v>
+      </c>
       <c r="J192" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -6764,11 +6774,13 @@
         <v>-1706213.33110307</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>237</v>
+      </c>
       <c r="J193" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -6803,11 +6815,13 @@
         <v>-1706260.21350307</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>238</v>
+      </c>
       <c r="J194" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -6842,11 +6856,13 @@
         <v>-1706307.09590307</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>236</v>
+      </c>
       <c r="J195" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -6881,11 +6897,13 @@
         <v>-1706305.09590307</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>235</v>
+      </c>
       <c r="J196" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -6920,11 +6938,13 @@
         <v>-1706305.09590307</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>236</v>
+      </c>
       <c r="J197" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -6959,11 +6979,13 @@
         <v>-1706305.09590307</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>236</v>
+      </c>
       <c r="J198" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -6998,11 +7020,13 @@
         <v>-1706305.09590307</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>236</v>
+      </c>
       <c r="J199" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7037,11 +7061,13 @@
         <v>-1706305.09590307</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>236</v>
+      </c>
       <c r="J200" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7076,11 +7102,13 @@
         <v>-1706303.09590307</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>236</v>
+      </c>
       <c r="J201" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7115,11 +7143,13 @@
         <v>-1710780.00680307</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>238</v>
+      </c>
       <c r="J202" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7154,11 +7184,13 @@
         <v>-1710777.00680307</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>236</v>
+      </c>
       <c r="J203" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7197,7 +7229,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7232,11 +7264,13 @@
         <v>-1713547.31170307</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>235</v>
+      </c>
       <c r="J205" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7271,11 +7305,13 @@
         <v>-1713547.31170307</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>236</v>
+      </c>
       <c r="J206" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>

--- a/BackTest/2019-10-21 BackTest INS.xlsx
+++ b/BackTest/2019-10-21 BackTest INS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M206"/>
+  <dimension ref="A1:L206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>896.178</v>
       </c>
       <c r="G2" t="n">
-        <v>-41896.4589827586</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>6.2647</v>
       </c>
       <c r="G3" t="n">
-        <v>-41896.4589827586</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>6.2647</v>
       </c>
       <c r="G4" t="n">
-        <v>-41902.72368275859</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,19 @@
         <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>-41900.72368275859</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>235</v>
+      </c>
+      <c r="I5" t="n">
+        <v>235</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +567,21 @@
         <v>16556.2871</v>
       </c>
       <c r="G6" t="n">
-        <v>-25344.43658275859</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>235</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +603,21 @@
         <v>2361.7136</v>
       </c>
       <c r="G7" t="n">
-        <v>-27706.15018275859</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>235</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +639,15 @@
         <v>2054.0535</v>
       </c>
       <c r="G8" t="n">
-        <v>-27706.15018275859</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +669,15 @@
         <v>2497.7492</v>
       </c>
       <c r="G9" t="n">
-        <v>-27706.15018275859</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +699,15 @@
         <v>995.2978000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>-26710.85238275859</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +729,15 @@
         <v>529.9032</v>
       </c>
       <c r="G11" t="n">
-        <v>-26710.85238275859</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +759,15 @@
         <v>5262.9881</v>
       </c>
       <c r="G12" t="n">
-        <v>-26710.85238275859</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +789,15 @@
         <v>4170.078</v>
       </c>
       <c r="G13" t="n">
-        <v>-30880.93038275859</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +819,15 @@
         <v>448.2049</v>
       </c>
       <c r="G14" t="n">
-        <v>-30432.72548275859</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +849,15 @@
         <v>2104.9335850622</v>
       </c>
       <c r="G15" t="n">
-        <v>-28327.79189769639</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +879,15 @@
         <v>1749.7924</v>
       </c>
       <c r="G16" t="n">
-        <v>-28327.79189769639</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +909,15 @@
         <v>1069.5848</v>
       </c>
       <c r="G17" t="n">
-        <v>-28327.79189769639</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +939,15 @@
         <v>4319.6404198347</v>
       </c>
       <c r="G18" t="n">
-        <v>-24008.15147786169</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +969,15 @@
         <v>972.4545000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>-24008.15147786169</v>
-      </c>
-      <c r="H19" t="n">
         <v>2</v>
       </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +999,15 @@
         <v>4280.2809</v>
       </c>
       <c r="G20" t="n">
-        <v>-24008.15147786169</v>
-      </c>
-      <c r="H20" t="n">
         <v>2</v>
       </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1029,15 @@
         <v>6550.8586</v>
       </c>
       <c r="G21" t="n">
-        <v>-30559.01007786169</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1059,15 @@
         <v>660.1203319502</v>
       </c>
       <c r="G22" t="n">
-        <v>-30559.01007786169</v>
-      </c>
-      <c r="H22" t="n">
         <v>2</v>
       </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1089,15 @@
         <v>3862.946</v>
       </c>
       <c r="G23" t="n">
-        <v>-26696.06407786169</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1119,15 @@
         <v>513.471</v>
       </c>
       <c r="G24" t="n">
-        <v>-27209.53507786169</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1149,15 @@
         <v>552.7021999999999</v>
       </c>
       <c r="G25" t="n">
-        <v>-27209.53507786169</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1179,15 @@
         <v>233.2931</v>
       </c>
       <c r="G26" t="n">
-        <v>-27209.53507786169</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1209,15 @@
         <v>1098.4659</v>
       </c>
       <c r="G27" t="n">
-        <v>-28308.00097786169</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1239,15 @@
         <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>-28307.00097786169</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1269,15 @@
         <v>180</v>
       </c>
       <c r="G29" t="n">
-        <v>-28307.00097786169</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1299,15 @@
         <v>11.0602</v>
       </c>
       <c r="G30" t="n">
-        <v>-28318.06117786169</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1329,15 @@
         <v>798.6667</v>
       </c>
       <c r="G31" t="n">
-        <v>-29116.72787786169</v>
-      </c>
-      <c r="H31" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1359,15 @@
         <v>1097.3493</v>
       </c>
       <c r="G32" t="n">
-        <v>-30214.07717786169</v>
-      </c>
-      <c r="H32" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1389,15 @@
         <v>4280.2809</v>
       </c>
       <c r="G33" t="n">
-        <v>-30214.07717786169</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1419,15 @@
         <v>45.2444</v>
       </c>
       <c r="G34" t="n">
-        <v>-30168.83277786169</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1449,15 @@
         <v>217.1149</v>
       </c>
       <c r="G35" t="n">
-        <v>-30385.9476778617</v>
-      </c>
-      <c r="H35" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1479,15 @@
         <v>333.0999</v>
       </c>
       <c r="G36" t="n">
-        <v>-30052.84777786169</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1509,15 @@
         <v>29.4346</v>
       </c>
       <c r="G37" t="n">
-        <v>-30082.28237786169</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1539,15 @@
         <v>1519</v>
       </c>
       <c r="G38" t="n">
-        <v>-28563.28237786169</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1569,15 @@
         <v>1491.059</v>
       </c>
       <c r="G39" t="n">
-        <v>-28563.28237786169</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1599,15 @@
         <v>4450.6016</v>
       </c>
       <c r="G40" t="n">
-        <v>-28563.28237786169</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1629,15 @@
         <v>436.1308</v>
       </c>
       <c r="G41" t="n">
-        <v>-28127.1515778617</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1659,15 @@
         <v>3863.1317</v>
       </c>
       <c r="G42" t="n">
-        <v>-31990.28327786169</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1689,15 @@
         <v>43.422</v>
       </c>
       <c r="G43" t="n">
-        <v>-32033.70527786169</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1719,15 @@
         <v>5949.5563</v>
       </c>
       <c r="G44" t="n">
-        <v>-32033.70527786169</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1749,15 @@
         <v>2</v>
       </c>
       <c r="G45" t="n">
-        <v>-32031.70527786169</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1779,15 @@
         <v>1495.507</v>
       </c>
       <c r="G46" t="n">
-        <v>-33527.21227786169</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1809,15 @@
         <v>136.1942</v>
       </c>
       <c r="G47" t="n">
-        <v>-33663.40647786169</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1839,15 @@
         <v>4659.3278</v>
       </c>
       <c r="G48" t="n">
-        <v>-38322.73427786169</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1869,15 @@
         <v>9305.8606</v>
       </c>
       <c r="G49" t="n">
-        <v>-38322.73427786169</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1899,15 @@
         <v>3455.1816</v>
       </c>
       <c r="G50" t="n">
-        <v>-34867.55267786169</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1929,15 @@
         <v>1649.1594</v>
       </c>
       <c r="G51" t="n">
-        <v>-36516.71207786169</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1959,15 @@
         <v>430.129</v>
       </c>
       <c r="G52" t="n">
-        <v>-36516.71207786169</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1989,15 @@
         <v>530.0872000000001</v>
       </c>
       <c r="G53" t="n">
-        <v>-36516.71207786169</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2019,15 @@
         <v>20287.9788</v>
       </c>
       <c r="G54" t="n">
-        <v>-16228.73327786169</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2049,15 @@
         <v>681.814</v>
       </c>
       <c r="G55" t="n">
-        <v>-16910.54727786169</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2079,15 @@
         <v>920.154</v>
       </c>
       <c r="G56" t="n">
-        <v>-17830.70127786168</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2109,15 @@
         <v>429.1287</v>
       </c>
       <c r="G57" t="n">
-        <v>-17830.70127786168</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2139,15 @@
         <v>3412.0235</v>
       </c>
       <c r="G58" t="n">
-        <v>-17830.70127786168</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2169,15 @@
         <v>6470.0121</v>
       </c>
       <c r="G59" t="n">
-        <v>-17830.70127786168</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2199,15 @@
         <v>969.0272</v>
       </c>
       <c r="G60" t="n">
-        <v>-17830.70127786168</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2229,15 @@
         <v>1067.5071</v>
       </c>
       <c r="G61" t="n">
-        <v>-17830.70127786168</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2259,15 @@
         <v>1328.4759</v>
       </c>
       <c r="G62" t="n">
-        <v>-17830.70127786168</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2289,15 @@
         <v>420.126</v>
       </c>
       <c r="G63" t="n">
-        <v>-17830.70127786168</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2319,15 @@
         <v>5731.952</v>
       </c>
       <c r="G64" t="n">
-        <v>-17830.70127786168</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2349,15 @@
         <v>1373.2427</v>
       </c>
       <c r="G65" t="n">
-        <v>-17830.70127786168</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2379,15 @@
         <v>1302.3299</v>
       </c>
       <c r="G66" t="n">
-        <v>-17830.70127786168</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2409,19 @@
         <v>4025.6412</v>
       </c>
       <c r="G67" t="n">
-        <v>-17830.70127786168</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>234</v>
+      </c>
+      <c r="I67" t="n">
+        <v>234</v>
+      </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2443,23 @@
         <v>2668.8837</v>
       </c>
       <c r="G68" t="n">
-        <v>-17830.70127786168</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>234</v>
+      </c>
+      <c r="I68" t="n">
+        <v>234</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2481,23 @@
         <v>1741.6227</v>
       </c>
       <c r="G69" t="n">
-        <v>-16089.07857786168</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>234</v>
+      </c>
+      <c r="I69" t="n">
+        <v>234</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2519,19 @@
         <v>1565.6227</v>
       </c>
       <c r="G70" t="n">
-        <v>-14523.45587786168</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>235</v>
+      </c>
+      <c r="I70" t="n">
+        <v>235</v>
+      </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2553,21 @@
         <v>3359.6834</v>
       </c>
       <c r="G71" t="n">
-        <v>-11163.77247786168</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>235</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2589,21 @@
         <v>4500.3025</v>
       </c>
       <c r="G72" t="n">
-        <v>-6663.469977861685</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>235</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2625,15 @@
         <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>-6662.469977861685</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2655,15 @@
         <v>1677.2426</v>
       </c>
       <c r="G74" t="n">
-        <v>-6662.469977861685</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2685,15 @@
         <v>2315.505</v>
       </c>
       <c r="G75" t="n">
-        <v>-8977.974977861686</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2715,15 @@
         <v>12515.3937</v>
       </c>
       <c r="G76" t="n">
-        <v>-21493.36867786169</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2745,15 @@
         <v>436.79357521</v>
       </c>
       <c r="G77" t="n">
-        <v>-21056.57510265169</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2775,15 @@
         <v>408.975</v>
       </c>
       <c r="G78" t="n">
-        <v>-21465.55010265169</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2805,15 @@
         <v>642.6656</v>
       </c>
       <c r="G79" t="n">
-        <v>-20822.88450265169</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2835,15 @@
         <v>1531</v>
       </c>
       <c r="G80" t="n">
-        <v>-20822.88450265169</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2865,15 @@
         <v>585</v>
       </c>
       <c r="G81" t="n">
-        <v>-20822.88450265169</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2895,15 @@
         <v>199</v>
       </c>
       <c r="G82" t="n">
-        <v>-20822.88450265169</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2925,15 @@
         <v>363.1229</v>
       </c>
       <c r="G83" t="n">
-        <v>-20459.76160265169</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2955,15 @@
         <v>789.2367</v>
       </c>
       <c r="G84" t="n">
-        <v>-20459.76160265169</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2985,15 @@
         <v>537.3440004184</v>
       </c>
       <c r="G85" t="n">
-        <v>-20459.76160265169</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3015,15 @@
         <v>428.5685</v>
       </c>
       <c r="G86" t="n">
-        <v>-20459.76160265169</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3045,15 @@
         <v>592.1776</v>
       </c>
       <c r="G87" t="n">
-        <v>-20459.76160265169</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3075,15 @@
         <v>1767.7874</v>
       </c>
       <c r="G88" t="n">
-        <v>-20459.76160265169</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3105,15 @@
         <v>134.954</v>
       </c>
       <c r="G89" t="n">
-        <v>-20594.71560265169</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3135,15 @@
         <v>9.95816e-05</v>
       </c>
       <c r="G90" t="n">
-        <v>-20594.71550307009</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3165,15 @@
         <v>381.1143</v>
       </c>
       <c r="G91" t="n">
-        <v>-20594.71550307009</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3195,15 @@
         <v>54.5873</v>
       </c>
       <c r="G92" t="n">
-        <v>-20649.30280307009</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3225,15 @@
         <v>537.9078</v>
       </c>
       <c r="G93" t="n">
-        <v>-20649.30280307009</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3255,15 @@
         <v>512</v>
       </c>
       <c r="G94" t="n">
-        <v>-20137.30280307009</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3285,15 @@
         <v>260.198</v>
       </c>
       <c r="G95" t="n">
-        <v>-20137.30280307009</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3315,15 @@
         <v>3</v>
       </c>
       <c r="G96" t="n">
-        <v>-20137.30280307009</v>
-      </c>
-      <c r="H96" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3345,15 @@
         <v>14338.7007</v>
       </c>
       <c r="G97" t="n">
-        <v>-34476.00350307009</v>
-      </c>
-      <c r="H97" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3375,15 @@
         <v>875.2625</v>
       </c>
       <c r="G98" t="n">
-        <v>-33600.74100307009</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3405,15 @@
         <v>648.9046</v>
       </c>
       <c r="G99" t="n">
-        <v>-33600.74100307009</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3435,15 @@
         <v>1787.7893</v>
       </c>
       <c r="G100" t="n">
-        <v>-31812.95170307009</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3465,15 @@
         <v>15584.9444</v>
       </c>
       <c r="G101" t="n">
-        <v>-47397.89610307009</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3495,15 @@
         <v>938.1998</v>
       </c>
       <c r="G102" t="n">
-        <v>-46459.69630307009</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3525,15 @@
         <v>3383.8097</v>
       </c>
       <c r="G103" t="n">
-        <v>-43075.88660307009</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3555,15 @@
         <v>734.2202</v>
       </c>
       <c r="G104" t="n">
-        <v>-43075.88660307009</v>
-      </c>
-      <c r="H104" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3585,15 @@
         <v>13904.8471</v>
       </c>
       <c r="G105" t="n">
-        <v>-29171.03950307009</v>
-      </c>
-      <c r="H105" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3615,15 @@
         <v>18409.2551</v>
       </c>
       <c r="G106" t="n">
-        <v>-10761.78440307009</v>
-      </c>
-      <c r="H106" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3645,15 @@
         <v>2200.2646</v>
       </c>
       <c r="G107" t="n">
-        <v>-12962.04900307009</v>
-      </c>
-      <c r="H107" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3675,15 @@
         <v>515.1662</v>
       </c>
       <c r="G108" t="n">
-        <v>-13477.21520307009</v>
-      </c>
-      <c r="H108" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3705,15 @@
         <v>42.1234</v>
       </c>
       <c r="G109" t="n">
-        <v>-13435.09180307009</v>
-      </c>
-      <c r="H109" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3735,15 @@
         <v>226.6328</v>
       </c>
       <c r="G110" t="n">
-        <v>-13661.72460307009</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3765,15 @@
         <v>1432.05</v>
       </c>
       <c r="G111" t="n">
-        <v>-13661.72460307009</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3795,15 @@
         <v>409.0527</v>
       </c>
       <c r="G112" t="n">
-        <v>-14070.77730307009</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3825,15 @@
         <v>204</v>
       </c>
       <c r="G113" t="n">
-        <v>-13866.77730307009</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3855,15 @@
         <v>205</v>
       </c>
       <c r="G114" t="n">
-        <v>-14071.77730307009</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3885,15 @@
         <v>1002.3219</v>
       </c>
       <c r="G115" t="n">
-        <v>-15074.09920307009</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3915,15 @@
         <v>328</v>
       </c>
       <c r="G116" t="n">
-        <v>-15074.09920307009</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3945,15 @@
         <v>182.0546</v>
       </c>
       <c r="G117" t="n">
-        <v>-15074.09920307009</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3975,15 @@
         <v>10991.8588</v>
       </c>
       <c r="G118" t="n">
-        <v>-15074.09920307009</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4005,15 @@
         <v>1336.5468</v>
       </c>
       <c r="G119" t="n">
-        <v>-13737.55240307009</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4035,15 @@
         <v>1201.2198</v>
       </c>
       <c r="G120" t="n">
-        <v>-14938.77220307009</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4065,15 @@
         <v>212</v>
       </c>
       <c r="G121" t="n">
-        <v>-14938.77220307009</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4095,15 @@
         <v>46.3414</v>
       </c>
       <c r="G122" t="n">
-        <v>-14892.43080307009</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4125,15 @@
         <v>2535.8672</v>
       </c>
       <c r="G123" t="n">
-        <v>-14892.43080307009</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4155,15 @@
         <v>178.55</v>
       </c>
       <c r="G124" t="n">
-        <v>-15070.98080307009</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4185,15 @@
         <v>1</v>
       </c>
       <c r="G125" t="n">
-        <v>-15069.98080307009</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4215,15 @@
         <v>10708.2599</v>
       </c>
       <c r="G126" t="n">
-        <v>-15069.98080307009</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4245,15 @@
         <v>924000</v>
       </c>
       <c r="G127" t="n">
-        <v>-939069.9808030701</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4275,15 @@
         <v>1911000</v>
       </c>
       <c r="G128" t="n">
-        <v>-939069.9808030701</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4305,15 @@
         <v>1043978.1043</v>
       </c>
       <c r="G129" t="n">
-        <v>-939069.9808030701</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4335,15 @@
         <v>564.1686</v>
       </c>
       <c r="G130" t="n">
-        <v>-939069.9808030701</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4365,15 @@
         <v>728003</v>
       </c>
       <c r="G131" t="n">
-        <v>-1667072.98080307</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4395,15 @@
         <v>2212974.7033</v>
       </c>
       <c r="G132" t="n">
-        <v>-1667072.98080307</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4425,15 @@
         <v>2176003</v>
       </c>
       <c r="G133" t="n">
-        <v>-1667072.98080307</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4455,15 @@
         <v>2184006</v>
       </c>
       <c r="G134" t="n">
-        <v>-1667072.98080307</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4485,15 @@
         <v>2176001</v>
       </c>
       <c r="G135" t="n">
-        <v>-1667072.98080307</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4515,15 @@
         <v>8000</v>
       </c>
       <c r="G136" t="n">
-        <v>-1667072.98080307</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4545,15 @@
         <v>1877.164</v>
       </c>
       <c r="G137" t="n">
-        <v>-1665195.81680307</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4575,15 @@
         <v>18365.2319</v>
       </c>
       <c r="G138" t="n">
-        <v>-1683561.04870307</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4605,15 @@
         <v>5330.235</v>
       </c>
       <c r="G139" t="n">
-        <v>-1678230.81370307</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4635,15 @@
         <v>488.3723</v>
       </c>
       <c r="G140" t="n">
-        <v>-1678719.18600307</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4665,15 @@
         <v>2</v>
       </c>
       <c r="G141" t="n">
-        <v>-1678717.18600307</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4695,15 @@
         <v>607.2832618025</v>
       </c>
       <c r="G142" t="n">
-        <v>-1678717.18600307</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4725,15 @@
         <v>463.1389</v>
       </c>
       <c r="G143" t="n">
-        <v>-1679180.32490307</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4755,15 @@
         <v>2</v>
       </c>
       <c r="G144" t="n">
-        <v>-1679178.32490307</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4785,15 @@
         <v>1104.3312</v>
       </c>
       <c r="G145" t="n">
-        <v>-1679178.32490307</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4815,15 @@
         <v>3306.4989</v>
       </c>
       <c r="G146" t="n">
-        <v>-1682484.82380307</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4845,15 @@
         <v>2</v>
       </c>
       <c r="G147" t="n">
-        <v>-1682482.82380307</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4875,15 @@
         <v>2586.5768</v>
       </c>
       <c r="G148" t="n">
-        <v>-1685069.40060307</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4905,15 @@
         <v>70</v>
       </c>
       <c r="G149" t="n">
-        <v>-1685069.40060307</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4935,15 @@
         <v>1</v>
       </c>
       <c r="G150" t="n">
-        <v>-1685068.40060307</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4965,15 @@
         <v>865.0901</v>
       </c>
       <c r="G151" t="n">
-        <v>-1685933.49070307</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4995,15 @@
         <v>2</v>
       </c>
       <c r="G152" t="n">
-        <v>-1685931.49070307</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +5025,15 @@
         <v>3720.7997</v>
       </c>
       <c r="G153" t="n">
-        <v>-1689652.29040307</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5055,15 @@
         <v>1</v>
       </c>
       <c r="G154" t="n">
-        <v>-1689651.29040307</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5085,15 @@
         <v>132</v>
       </c>
       <c r="G155" t="n">
-        <v>-1689651.29040307</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5115,15 @@
         <v>5284.8924</v>
       </c>
       <c r="G156" t="n">
-        <v>-1689651.29040307</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5145,15 @@
         <v>131</v>
       </c>
       <c r="G157" t="n">
-        <v>-1689651.29040307</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5175,15 @@
         <v>2</v>
       </c>
       <c r="G158" t="n">
-        <v>-1689649.29040307</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5205,15 @@
         <v>5122.7627</v>
       </c>
       <c r="G159" t="n">
-        <v>-1689649.29040307</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5235,15 @@
         <v>1</v>
       </c>
       <c r="G160" t="n">
-        <v>-1689648.29040307</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5265,15 @@
         <v>239.1065</v>
       </c>
       <c r="G161" t="n">
-        <v>-1689887.39690307</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5295,15 @@
         <v>2</v>
       </c>
       <c r="G162" t="n">
-        <v>-1689885.39690307</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5325,15 @@
         <v>2</v>
       </c>
       <c r="G163" t="n">
-        <v>-1689883.39690307</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5355,15 @@
         <v>40.403</v>
       </c>
       <c r="G164" t="n">
-        <v>-1689923.79990307</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5385,15 @@
         <v>1</v>
       </c>
       <c r="G165" t="n">
-        <v>-1689922.79990307</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5415,15 @@
         <v>3</v>
       </c>
       <c r="G166" t="n">
-        <v>-1689919.79990307</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5445,15 @@
         <v>579.6706</v>
       </c>
       <c r="G167" t="n">
-        <v>-1690499.47050307</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5475,15 @@
         <v>541.1623</v>
       </c>
       <c r="G168" t="n">
-        <v>-1689958.30820307</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5505,15 @@
         <v>2930.7666</v>
       </c>
       <c r="G169" t="n">
-        <v>-1689958.30820307</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5535,15 @@
         <v>1119.3357</v>
       </c>
       <c r="G170" t="n">
-        <v>-1689958.30820307</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5565,15 @@
         <v>11</v>
       </c>
       <c r="G171" t="n">
-        <v>-1689958.30820307</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5595,15 @@
         <v>3</v>
       </c>
       <c r="G172" t="n">
-        <v>-1689955.30820307</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5625,15 @@
         <v>4</v>
       </c>
       <c r="G173" t="n">
-        <v>-1689955.30820307</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5655,15 @@
         <v>23603.8136</v>
       </c>
       <c r="G174" t="n">
-        <v>-1713559.12180307</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5685,15 @@
         <v>2</v>
       </c>
       <c r="G175" t="n">
-        <v>-1713557.12180307</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5715,15 @@
         <v>211.85</v>
       </c>
       <c r="G176" t="n">
-        <v>-1713768.97180307</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5745,15 @@
         <v>1664.9999</v>
       </c>
       <c r="G177" t="n">
-        <v>-1713768.97180307</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5775,15 @@
         <v>0.0001</v>
       </c>
       <c r="G178" t="n">
-        <v>-1713768.97180307</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5805,15 @@
         <v>3192</v>
       </c>
       <c r="G179" t="n">
-        <v>-1713768.97180307</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5835,15 @@
         <v>1</v>
       </c>
       <c r="G180" t="n">
-        <v>-1713767.97180307</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5865,15 @@
         <v>220.8662</v>
       </c>
       <c r="G181" t="n">
-        <v>-1713988.83800307</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +5895,15 @@
         <v>1941.2724</v>
       </c>
       <c r="G182" t="n">
-        <v>-1712047.56560307</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +5925,15 @@
         <v>46.7477</v>
       </c>
       <c r="G183" t="n">
-        <v>-1712094.31330307</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +5955,15 @@
         <v>1</v>
       </c>
       <c r="G184" t="n">
-        <v>-1712094.31330307</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +5985,15 @@
         <v>433.1299</v>
       </c>
       <c r="G185" t="n">
-        <v>-1712094.31330307</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +6015,15 @@
         <v>774.2322</v>
       </c>
       <c r="G186" t="n">
-        <v>-1712094.31330307</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +6045,15 @@
         <v>68</v>
       </c>
       <c r="G187" t="n">
-        <v>-1712094.31330307</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6075,15 @@
         <v>1</v>
       </c>
       <c r="G188" t="n">
-        <v>-1712094.31330307</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6105,15 @@
         <v>2052.6157</v>
       </c>
       <c r="G189" t="n">
-        <v>-1712094.31330307</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,22 +6135,15 @@
         <v>1</v>
       </c>
       <c r="G190" t="n">
-        <v>-1712093.31330307</v>
-      </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>235</v>
-      </c>
-      <c r="J190" t="n">
-        <v>235</v>
-      </c>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6689,26 +6165,15 @@
         <v>44.7477</v>
       </c>
       <c r="G191" t="n">
-        <v>-1712093.31330307</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>236</v>
-      </c>
-      <c r="J191" t="n">
-        <v>235</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6730,26 +6195,15 @@
         <v>2</v>
       </c>
       <c r="G192" t="n">
-        <v>-1712091.31330307</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>236</v>
-      </c>
-      <c r="J192" t="n">
-        <v>235</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6771,26 +6225,15 @@
         <v>5877.9822</v>
       </c>
       <c r="G193" t="n">
-        <v>-1706213.33110307</v>
-      </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>237</v>
-      </c>
-      <c r="J193" t="n">
-        <v>235</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6812,26 +6255,15 @@
         <v>46.8824</v>
       </c>
       <c r="G194" t="n">
-        <v>-1706260.21350307</v>
-      </c>
-      <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>238</v>
-      </c>
-      <c r="J194" t="n">
-        <v>235</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6853,26 +6285,15 @@
         <v>46.8824</v>
       </c>
       <c r="G195" t="n">
-        <v>-1706307.09590307</v>
-      </c>
-      <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>236</v>
-      </c>
-      <c r="J195" t="n">
-        <v>235</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6894,26 +6315,15 @@
         <v>2</v>
       </c>
       <c r="G196" t="n">
-        <v>-1706305.09590307</v>
-      </c>
-      <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>235</v>
-      </c>
-      <c r="J196" t="n">
-        <v>235</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6935,26 +6345,15 @@
         <v>45.5424</v>
       </c>
       <c r="G197" t="n">
-        <v>-1706305.09590307</v>
-      </c>
-      <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>236</v>
-      </c>
-      <c r="J197" t="n">
-        <v>235</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6976,26 +6375,15 @@
         <v>5989.5725</v>
       </c>
       <c r="G198" t="n">
-        <v>-1706305.09590307</v>
-      </c>
-      <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>236</v>
-      </c>
-      <c r="J198" t="n">
-        <v>235</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7017,26 +6405,15 @@
         <v>938.9999</v>
       </c>
       <c r="G199" t="n">
-        <v>-1706305.09590307</v>
-      </c>
-      <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>236</v>
-      </c>
-      <c r="J199" t="n">
-        <v>235</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7058,26 +6435,15 @@
         <v>940</v>
       </c>
       <c r="G200" t="n">
-        <v>-1706305.09590307</v>
-      </c>
-      <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>236</v>
-      </c>
-      <c r="J200" t="n">
-        <v>235</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7099,26 +6465,15 @@
         <v>2</v>
       </c>
       <c r="G201" t="n">
-        <v>-1706303.09590307</v>
-      </c>
-      <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>236</v>
-      </c>
-      <c r="J201" t="n">
-        <v>235</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7140,26 +6495,15 @@
         <v>4476.9109</v>
       </c>
       <c r="G202" t="n">
-        <v>-1710780.00680307</v>
-      </c>
-      <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>238</v>
-      </c>
-      <c r="J202" t="n">
-        <v>235</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7181,26 +6525,15 @@
         <v>3</v>
       </c>
       <c r="G203" t="n">
-        <v>-1710777.00680307</v>
-      </c>
-      <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>236</v>
-      </c>
-      <c r="J203" t="n">
-        <v>235</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7222,24 +6555,15 @@
         <v>2773.3049</v>
       </c>
       <c r="G204" t="n">
-        <v>-1713550.31170307</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>235</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7261,26 +6585,15 @@
         <v>3</v>
       </c>
       <c r="G205" t="n">
-        <v>-1713547.31170307</v>
-      </c>
-      <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>235</v>
-      </c>
-      <c r="J205" t="n">
-        <v>235</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7302,26 +6615,15 @@
         <v>8305.5597</v>
       </c>
       <c r="G206" t="n">
-        <v>-1713547.31170307</v>
-      </c>
-      <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>236</v>
-      </c>
-      <c r="J206" t="n">
-        <v>235</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
